--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,25 @@
         <v>12.6</v>
       </c>
       <c r="C2" t="n">
-        <v>12.43</v>
+        <v>12.6</v>
       </c>
       <c r="D2" t="n">
         <v>12.6</v>
       </c>
       <c r="E2" t="n">
-        <v>12.43</v>
+        <v>12.6</v>
       </c>
       <c r="F2" t="n">
-        <v>56362.1866</v>
+        <v>42.7653</v>
       </c>
       <c r="G2" t="n">
-        <v>12.35216666666667</v>
+        <v>12.34783333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -471,19 +471,19 @@
         <v>12.6</v>
       </c>
       <c r="C3" t="n">
-        <v>12.6</v>
+        <v>12.43</v>
       </c>
       <c r="D3" t="n">
         <v>12.6</v>
       </c>
       <c r="E3" t="n">
-        <v>12.42</v>
+        <v>12.43</v>
       </c>
       <c r="F3" t="n">
-        <v>142128.5481</v>
+        <v>56362.1866</v>
       </c>
       <c r="G3" t="n">
-        <v>12.35933333333334</v>
+        <v>12.35216666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C4" t="n">
-        <v>12.75</v>
+        <v>12.6</v>
       </c>
       <c r="D4" t="n">
-        <v>12.75</v>
+        <v>12.6</v>
       </c>
       <c r="E4" t="n">
-        <v>12.7</v>
+        <v>12.42</v>
       </c>
       <c r="F4" t="n">
-        <v>108652.3708</v>
+        <v>142128.5481</v>
       </c>
       <c r="G4" t="n">
-        <v>12.36850000000001</v>
+        <v>12.35933333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.54</v>
+        <v>12.7</v>
       </c>
       <c r="C5" t="n">
-        <v>12.54</v>
+        <v>12.75</v>
       </c>
       <c r="D5" t="n">
-        <v>12.54</v>
+        <v>12.75</v>
       </c>
       <c r="E5" t="n">
-        <v>12.54</v>
+        <v>12.7</v>
       </c>
       <c r="F5" t="n">
-        <v>116939.9019</v>
+        <v>108652.3708</v>
       </c>
       <c r="G5" t="n">
-        <v>12.37416666666667</v>
+        <v>12.36850000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>12.54</v>
       </c>
       <c r="F6" t="n">
-        <v>22284.6726</v>
+        <v>116939.9019</v>
       </c>
       <c r="G6" t="n">
-        <v>12.37983333333334</v>
+        <v>12.37416666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -611,25 +611,25 @@
         <v>12.54</v>
       </c>
       <c r="C7" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
       <c r="D7" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
       <c r="E7" t="n">
         <v>12.54</v>
       </c>
       <c r="F7" t="n">
-        <v>88216.9552</v>
+        <v>22284.6726</v>
       </c>
       <c r="G7" t="n">
-        <v>12.38533333333334</v>
+        <v>12.37983333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
       <c r="C8" t="n">
         <v>12.55</v>
@@ -652,13 +652,13 @@
         <v>12.55</v>
       </c>
       <c r="E8" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
       <c r="F8" t="n">
-        <v>238.0709</v>
+        <v>88216.9552</v>
       </c>
       <c r="G8" t="n">
-        <v>12.39</v>
+        <v>12.38533333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>12.55</v>
       </c>
       <c r="F9" t="n">
-        <v>20445.5502</v>
+        <v>238.0709</v>
       </c>
       <c r="G9" t="n">
-        <v>12.39466666666667</v>
+        <v>12.39</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>12.55</v>
       </c>
       <c r="F10" t="n">
-        <v>19637.9625</v>
+        <v>20445.5502</v>
       </c>
       <c r="G10" t="n">
-        <v>12.39933333333334</v>
+        <v>12.39466666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.51</v>
+        <v>12.55</v>
       </c>
       <c r="C11" t="n">
-        <v>12.51</v>
+        <v>12.55</v>
       </c>
       <c r="D11" t="n">
-        <v>12.51</v>
+        <v>12.55</v>
       </c>
       <c r="E11" t="n">
-        <v>12.51</v>
+        <v>12.55</v>
       </c>
       <c r="F11" t="n">
-        <v>37852.1868</v>
+        <v>19637.9625</v>
       </c>
       <c r="G11" t="n">
-        <v>12.40316666666667</v>
+        <v>12.39933333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="C12" t="n">
         <v>12.51</v>
       </c>
       <c r="D12" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="E12" t="n">
         <v>12.51</v>
       </c>
       <c r="F12" t="n">
-        <v>25801.508</v>
+        <v>37852.1868</v>
       </c>
       <c r="G12" t="n">
-        <v>12.40716666666667</v>
+        <v>12.40316666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="C13" t="n">
         <v>12.51</v>
       </c>
       <c r="D13" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="E13" t="n">
         <v>12.51</v>
       </c>
       <c r="F13" t="n">
-        <v>9132.4282</v>
+        <v>25801.508</v>
       </c>
       <c r="G13" t="n">
-        <v>12.41116666666667</v>
+        <v>12.40716666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.69</v>
+        <v>12.51</v>
       </c>
       <c r="C14" t="n">
-        <v>12.69</v>
+        <v>12.51</v>
       </c>
       <c r="D14" t="n">
-        <v>12.69</v>
+        <v>12.51</v>
       </c>
       <c r="E14" t="n">
-        <v>12.69</v>
+        <v>12.51</v>
       </c>
       <c r="F14" t="n">
-        <v>12911.446</v>
+        <v>9132.4282</v>
       </c>
       <c r="G14" t="n">
-        <v>12.41933333333334</v>
+        <v>12.41116666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.68</v>
+        <v>12.69</v>
       </c>
       <c r="C15" t="n">
-        <v>12.68</v>
+        <v>12.69</v>
       </c>
       <c r="D15" t="n">
-        <v>12.68</v>
+        <v>12.69</v>
       </c>
       <c r="E15" t="n">
-        <v>12.68</v>
+        <v>12.69</v>
       </c>
       <c r="F15" t="n">
-        <v>8936</v>
+        <v>12911.446</v>
       </c>
       <c r="G15" t="n">
-        <v>12.426</v>
+        <v>12.41933333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>12.68</v>
       </c>
       <c r="F16" t="n">
-        <v>22906.06324479495</v>
+        <v>8936</v>
       </c>
       <c r="G16" t="n">
-        <v>12.4345</v>
+        <v>12.426</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>12.68</v>
       </c>
       <c r="C17" t="n">
-        <v>12.53</v>
+        <v>12.68</v>
       </c>
       <c r="D17" t="n">
         <v>12.68</v>
       </c>
       <c r="E17" t="n">
-        <v>12.53</v>
+        <v>12.68</v>
       </c>
       <c r="F17" t="n">
-        <v>11644.7395</v>
+        <v>22906.06324479495</v>
       </c>
       <c r="G17" t="n">
-        <v>12.43883333333334</v>
+        <v>12.4345</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C18" t="n">
         <v>12.53</v>
       </c>
-      <c r="C18" t="n">
-        <v>12.44</v>
-      </c>
       <c r="D18" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E18" t="n">
         <v>12.53</v>
       </c>
-      <c r="E18" t="n">
-        <v>12.44</v>
-      </c>
       <c r="F18" t="n">
-        <v>27538.9274</v>
+        <v>11644.7395</v>
       </c>
       <c r="G18" t="n">
-        <v>12.44166666666667</v>
+        <v>12.43883333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.6</v>
+        <v>12.53</v>
       </c>
       <c r="C19" t="n">
-        <v>12.6</v>
+        <v>12.44</v>
       </c>
       <c r="D19" t="n">
-        <v>12.6</v>
+        <v>12.53</v>
       </c>
       <c r="E19" t="n">
-        <v>12.6</v>
+        <v>12.44</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>27538.9274</v>
       </c>
       <c r="G19" t="n">
-        <v>12.44733333333334</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>12.6</v>
       </c>
       <c r="F20" t="n">
-        <v>23164.8846</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>12.45283333333334</v>
+        <v>12.44733333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>12.6</v>
       </c>
       <c r="C21" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="D21" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="E21" t="n">
         <v>12.6</v>
       </c>
       <c r="F21" t="n">
-        <v>482783.7708</v>
+        <v>23164.8846</v>
       </c>
       <c r="G21" t="n">
-        <v>12.46</v>
+        <v>12.45283333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="C22" t="n">
         <v>12.68</v>
@@ -1142,13 +1142,13 @@
         <v>12.68</v>
       </c>
       <c r="E22" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="F22" t="n">
-        <v>400.8031</v>
+        <v>482783.7708</v>
       </c>
       <c r="G22" t="n">
-        <v>12.46716666666667</v>
+        <v>12.46</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>12.68</v>
       </c>
       <c r="C23" t="n">
-        <v>12.51</v>
+        <v>12.68</v>
       </c>
       <c r="D23" t="n">
-        <v>12.7</v>
+        <v>12.68</v>
       </c>
       <c r="E23" t="n">
-        <v>12.51</v>
+        <v>12.68</v>
       </c>
       <c r="F23" t="n">
-        <v>111201.3031</v>
+        <v>400.8031</v>
       </c>
       <c r="G23" t="n">
-        <v>12.473</v>
+        <v>12.46716666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="C24" t="n">
-        <v>12.6</v>
+        <v>12.51</v>
       </c>
       <c r="D24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E24" t="n">
-        <v>12.6</v>
+        <v>12.51</v>
       </c>
       <c r="F24" t="n">
-        <v>2406.3837</v>
+        <v>111201.3031</v>
       </c>
       <c r="G24" t="n">
-        <v>12.47883333333334</v>
+        <v>12.473</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>12.6</v>
       </c>
       <c r="F25" t="n">
-        <v>16548.2106</v>
+        <v>2406.3837</v>
       </c>
       <c r="G25" t="n">
-        <v>12.48616666666667</v>
+        <v>12.47883333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>12.6</v>
       </c>
       <c r="F26" t="n">
-        <v>2948.3896</v>
+        <v>16548.2106</v>
       </c>
       <c r="G26" t="n">
-        <v>12.49450000000001</v>
+        <v>12.48616666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>12.6</v>
       </c>
       <c r="F27" t="n">
-        <v>12522.9145</v>
+        <v>2948.3896</v>
       </c>
       <c r="G27" t="n">
-        <v>12.50283333333334</v>
+        <v>12.49450000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>12.6</v>
       </c>
       <c r="F28" t="n">
-        <v>29140.1309</v>
+        <v>12522.9145</v>
       </c>
       <c r="G28" t="n">
-        <v>12.51116666666667</v>
+        <v>12.50283333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>12.6</v>
       </c>
       <c r="F29" t="n">
-        <v>39664.9746</v>
+        <v>29140.1309</v>
       </c>
       <c r="G29" t="n">
-        <v>12.51783333333334</v>
+        <v>12.51116666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="C30" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="D30" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="E30" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="F30" t="n">
-        <v>4472.3047</v>
+        <v>39664.9746</v>
       </c>
       <c r="G30" t="n">
-        <v>12.51983333333334</v>
+        <v>12.51783333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>12.61</v>
       </c>
       <c r="F31" t="n">
-        <v>36201.6181</v>
+        <v>4472.3047</v>
       </c>
       <c r="G31" t="n">
-        <v>12.52666666666667</v>
+        <v>12.51983333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="C32" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="D32" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="E32" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="F32" t="n">
-        <v>12425.2452</v>
+        <v>36201.6181</v>
       </c>
       <c r="G32" t="n">
-        <v>12.53333333333334</v>
+        <v>12.52666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C33" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D33" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E33" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1500</v>
+        <v>12425.2452</v>
       </c>
       <c r="G33" t="n">
-        <v>12.54</v>
+        <v>12.53333333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C34" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D34" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E34" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G34" t="n">
-        <v>12.54666666666667</v>
+        <v>12.54</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>12.6</v>
       </c>
       <c r="F35" t="n">
-        <v>1162.0271</v>
+        <v>2000</v>
       </c>
       <c r="G35" t="n">
-        <v>12.55166666666667</v>
+        <v>12.54666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.69</v>
+        <v>12.6</v>
       </c>
       <c r="C36" t="n">
-        <v>12.69</v>
+        <v>12.6</v>
       </c>
       <c r="D36" t="n">
-        <v>12.69</v>
+        <v>12.6</v>
       </c>
       <c r="E36" t="n">
-        <v>12.69</v>
+        <v>12.6</v>
       </c>
       <c r="F36" t="n">
-        <v>40</v>
+        <v>1162.0271</v>
       </c>
       <c r="G36" t="n">
-        <v>12.55983333333334</v>
+        <v>12.55166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.61</v>
+        <v>12.69</v>
       </c>
       <c r="C37" t="n">
-        <v>12.56</v>
+        <v>12.69</v>
       </c>
       <c r="D37" t="n">
-        <v>12.61</v>
+        <v>12.69</v>
       </c>
       <c r="E37" t="n">
-        <v>12.56</v>
+        <v>12.69</v>
       </c>
       <c r="F37" t="n">
-        <v>267317.0216</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>12.56583333333334</v>
+        <v>12.55983333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.69</v>
+        <v>12.61</v>
       </c>
       <c r="C38" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="D38" t="n">
-        <v>12.7</v>
+        <v>12.61</v>
       </c>
       <c r="E38" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="F38" t="n">
-        <v>27617.42350944882</v>
+        <v>267317.0216</v>
       </c>
       <c r="G38" t="n">
-        <v>12.56833333333334</v>
+        <v>12.56583333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>12.69</v>
       </c>
       <c r="C39" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="D39" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="E39" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="F39" t="n">
-        <v>235.7384</v>
+        <v>27617.42350944882</v>
       </c>
       <c r="G39" t="n">
-        <v>12.57483333333334</v>
+        <v>12.56833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.55</v>
+        <v>12.69</v>
       </c>
       <c r="C40" t="n">
-        <v>12.55</v>
+        <v>12.69</v>
       </c>
       <c r="D40" t="n">
-        <v>12.55</v>
+        <v>12.69</v>
       </c>
       <c r="E40" t="n">
-        <v>12.55</v>
+        <v>12.69</v>
       </c>
       <c r="F40" t="n">
-        <v>882.8262999999999</v>
+        <v>235.7384</v>
       </c>
       <c r="G40" t="n">
-        <v>12.57900000000001</v>
+        <v>12.57483333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="C41" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="D41" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="E41" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="F41" t="n">
-        <v>93061.10490000001</v>
+        <v>882.8262999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>12.58516666666667</v>
+        <v>12.57900000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.62</v>
+        <v>12.69</v>
       </c>
       <c r="C42" t="n">
-        <v>12.62</v>
+        <v>12.69</v>
       </c>
       <c r="D42" t="n">
-        <v>12.62</v>
+        <v>12.69</v>
       </c>
       <c r="E42" t="n">
-        <v>12.62</v>
+        <v>12.69</v>
       </c>
       <c r="F42" t="n">
-        <v>10434.9715</v>
+        <v>93061.10490000001</v>
       </c>
       <c r="G42" t="n">
-        <v>12.58983333333334</v>
+        <v>12.58516666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.69</v>
+        <v>12.62</v>
       </c>
       <c r="C43" t="n">
         <v>12.62</v>
       </c>
       <c r="D43" t="n">
-        <v>12.69</v>
+        <v>12.62</v>
       </c>
       <c r="E43" t="n">
         <v>12.62</v>
       </c>
       <c r="F43" t="n">
-        <v>83430.5312</v>
+        <v>10434.9715</v>
       </c>
       <c r="G43" t="n">
-        <v>12.59183333333334</v>
+        <v>12.58983333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.7</v>
+        <v>12.69</v>
       </c>
       <c r="C44" t="n">
-        <v>12.7</v>
+        <v>12.62</v>
       </c>
       <c r="D44" t="n">
-        <v>12.7</v>
+        <v>12.69</v>
       </c>
       <c r="E44" t="n">
-        <v>12.7</v>
+        <v>12.62</v>
       </c>
       <c r="F44" t="n">
-        <v>349.9212598425197</v>
+        <v>83430.5312</v>
       </c>
       <c r="G44" t="n">
-        <v>12.59483333333334</v>
+        <v>12.59183333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.62</v>
+        <v>12.7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.62</v>
+        <v>12.7</v>
       </c>
       <c r="D45" t="n">
-        <v>12.62</v>
+        <v>12.7</v>
       </c>
       <c r="E45" t="n">
-        <v>12.62</v>
+        <v>12.7</v>
       </c>
       <c r="F45" t="n">
-        <v>3846.8382</v>
+        <v>349.9212598425197</v>
       </c>
       <c r="G45" t="n">
-        <v>12.59650000000001</v>
+        <v>12.59483333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>12.62</v>
       </c>
       <c r="F46" t="n">
-        <v>49958.0259</v>
+        <v>3846.8382</v>
       </c>
       <c r="G46" t="n">
-        <v>12.59816666666667</v>
+        <v>12.59650000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.57</v>
+        <v>12.62</v>
       </c>
       <c r="C47" t="n">
-        <v>12.57</v>
+        <v>12.62</v>
       </c>
       <c r="D47" t="n">
-        <v>12.57</v>
+        <v>12.62</v>
       </c>
       <c r="E47" t="n">
-        <v>12.57</v>
+        <v>12.62</v>
       </c>
       <c r="F47" t="n">
-        <v>22337.961</v>
+        <v>49958.0259</v>
       </c>
       <c r="G47" t="n">
-        <v>12.59766666666667</v>
+        <v>12.59816666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>12.57</v>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>22337.961</v>
       </c>
       <c r="G48" t="n">
-        <v>12.59850000000001</v>
+        <v>12.59766666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>12.57</v>
       </c>
       <c r="F49" t="n">
-        <v>43000</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>12.60033333333334</v>
+        <v>12.59850000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>12.57</v>
       </c>
       <c r="F50" t="n">
-        <v>32000</v>
+        <v>43000</v>
       </c>
       <c r="G50" t="n">
-        <v>12.60150000000001</v>
+        <v>12.60033333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="C51" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="D51" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="E51" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="F51" t="n">
-        <v>45000</v>
+        <v>32000</v>
       </c>
       <c r="G51" t="n">
-        <v>12.60100000000001</v>
+        <v>12.60150000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.62</v>
+        <v>12.55</v>
       </c>
       <c r="C52" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="D52" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="E52" t="n">
-        <v>12.62</v>
+        <v>12.55</v>
       </c>
       <c r="F52" t="n">
-        <v>44653.6918</v>
+        <v>45000</v>
       </c>
       <c r="G52" t="n">
-        <v>12.60016666666667</v>
+        <v>12.60100000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C53" t="n">
         <v>12.65</v>
       </c>
-      <c r="C53" t="n">
-        <v>12.7</v>
-      </c>
       <c r="D53" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="E53" t="n">
-        <v>12.65</v>
+        <v>12.62</v>
       </c>
       <c r="F53" t="n">
-        <v>52586.9232</v>
+        <v>44653.6918</v>
       </c>
       <c r="G53" t="n">
-        <v>12.60183333333334</v>
+        <v>12.60016666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="C54" t="n">
         <v>12.7</v>
@@ -2262,13 +2262,13 @@
         <v>12.7</v>
       </c>
       <c r="E54" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="F54" t="n">
-        <v>101550.6523</v>
+        <v>52586.9232</v>
       </c>
       <c r="G54" t="n">
-        <v>12.60516666666667</v>
+        <v>12.60183333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="C55" t="n">
-        <v>12.73</v>
+        <v>12.7</v>
       </c>
       <c r="D55" t="n">
-        <v>12.73</v>
+        <v>12.7</v>
       </c>
       <c r="E55" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="F55" t="n">
-        <v>19950.5368</v>
+        <v>101550.6523</v>
       </c>
       <c r="G55" t="n">
-        <v>12.60583333333334</v>
+        <v>12.60516666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.77</v>
+        <v>12.69</v>
       </c>
       <c r="C56" t="n">
-        <v>12.8</v>
+        <v>12.73</v>
       </c>
       <c r="D56" t="n">
-        <v>12.8</v>
+        <v>12.73</v>
       </c>
       <c r="E56" t="n">
-        <v>12.76</v>
+        <v>12.69</v>
       </c>
       <c r="F56" t="n">
-        <v>27037.2146</v>
+        <v>19950.5368</v>
       </c>
       <c r="G56" t="n">
-        <v>12.60683333333334</v>
+        <v>12.60583333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.78</v>
+        <v>12.77</v>
       </c>
       <c r="C57" t="n">
-        <v>12.76</v>
+        <v>12.8</v>
       </c>
       <c r="D57" t="n">
         <v>12.8</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>12.76</v>
       </c>
       <c r="F57" t="n">
-        <v>657584.3741702344</v>
+        <v>27037.2146</v>
       </c>
       <c r="G57" t="n">
-        <v>12.60800000000001</v>
+        <v>12.60683333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.77</v>
+        <v>12.78</v>
       </c>
       <c r="C58" t="n">
-        <v>12.79</v>
+        <v>12.76</v>
       </c>
       <c r="D58" t="n">
         <v>12.8</v>
@@ -2405,10 +2405,10 @@
         <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>108479.1007</v>
+        <v>657584.3741702344</v>
       </c>
       <c r="G58" t="n">
-        <v>12.61116666666667</v>
+        <v>12.60800000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.78</v>
+        <v>12.77</v>
       </c>
       <c r="C59" t="n">
-        <v>12.78</v>
+        <v>12.79</v>
       </c>
       <c r="D59" t="n">
-        <v>12.79</v>
+        <v>12.8</v>
       </c>
       <c r="E59" t="n">
-        <v>12.78</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>139564.0082</v>
+        <v>108479.1007</v>
       </c>
       <c r="G59" t="n">
-        <v>12.61416666666667</v>
+        <v>12.61116666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>12.78</v>
       </c>
       <c r="C60" t="n">
-        <v>12.82</v>
+        <v>12.78</v>
       </c>
       <c r="D60" t="n">
-        <v>12.82</v>
+        <v>12.79</v>
       </c>
       <c r="E60" t="n">
         <v>12.78</v>
       </c>
       <c r="F60" t="n">
-        <v>1356.306429765625</v>
+        <v>139564.0082</v>
       </c>
       <c r="G60" t="n">
-        <v>12.61783333333334</v>
+        <v>12.61416666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.81</v>
+        <v>12.78</v>
       </c>
       <c r="C61" t="n">
-        <v>12.83</v>
+        <v>12.82</v>
       </c>
       <c r="D61" t="n">
-        <v>12.83</v>
+        <v>12.82</v>
       </c>
       <c r="E61" t="n">
-        <v>12.81</v>
+        <v>12.78</v>
       </c>
       <c r="F61" t="n">
-        <v>698.4212</v>
+        <v>1356.306429765625</v>
       </c>
       <c r="G61" t="n">
-        <v>12.62166666666667</v>
+        <v>12.61783333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C62" t="n">
         <v>12.83</v>
       </c>
-      <c r="C62" t="n">
-        <v>12.99</v>
-      </c>
       <c r="D62" t="n">
-        <v>12.99</v>
+        <v>12.83</v>
       </c>
       <c r="E62" t="n">
-        <v>12.83</v>
+        <v>12.81</v>
       </c>
       <c r="F62" t="n">
-        <v>107403.4052</v>
+        <v>698.4212</v>
       </c>
       <c r="G62" t="n">
-        <v>12.63100000000001</v>
+        <v>12.62166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C63" t="n">
         <v>12.99</v>
       </c>
-      <c r="C63" t="n">
-        <v>12.62</v>
-      </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="E63" t="n">
-        <v>12.62</v>
+        <v>12.83</v>
       </c>
       <c r="F63" t="n">
-        <v>461195.1466</v>
+        <v>107403.4052</v>
       </c>
       <c r="G63" t="n">
-        <v>12.63133333333334</v>
+        <v>12.63100000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="D64" t="n">
         <v>13</v>
       </c>
-      <c r="C64" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D64" t="n">
-        <v>13.04</v>
-      </c>
       <c r="E64" t="n">
-        <v>12.7</v>
+        <v>12.62</v>
       </c>
       <c r="F64" t="n">
-        <v>10672.3352</v>
+        <v>461195.1466</v>
       </c>
       <c r="G64" t="n">
-        <v>12.63050000000001</v>
+        <v>12.63133333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.72</v>
+        <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v>12.72</v>
+        <v>12.7</v>
       </c>
       <c r="D65" t="n">
-        <v>12.72</v>
+        <v>13.04</v>
       </c>
       <c r="E65" t="n">
-        <v>12.72</v>
+        <v>12.7</v>
       </c>
       <c r="F65" t="n">
-        <v>36048.8408</v>
+        <v>10672.3352</v>
       </c>
       <c r="G65" t="n">
-        <v>12.63350000000001</v>
+        <v>12.63050000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.74</v>
+        <v>12.72</v>
       </c>
       <c r="C66" t="n">
-        <v>12.75</v>
+        <v>12.72</v>
       </c>
       <c r="D66" t="n">
-        <v>12.8</v>
+        <v>12.72</v>
       </c>
       <c r="E66" t="n">
-        <v>12.74</v>
+        <v>12.72</v>
       </c>
       <c r="F66" t="n">
-        <v>7498.351</v>
+        <v>36048.8408</v>
       </c>
       <c r="G66" t="n">
-        <v>12.63700000000001</v>
+        <v>12.63350000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.77</v>
+        <v>12.74</v>
       </c>
       <c r="C67" t="n">
-        <v>12.71</v>
+        <v>12.75</v>
       </c>
       <c r="D67" t="n">
-        <v>12.77</v>
+        <v>12.8</v>
       </c>
       <c r="E67" t="n">
-        <v>12.71</v>
+        <v>12.74</v>
       </c>
       <c r="F67" t="n">
-        <v>30771.5248</v>
+        <v>7498.351</v>
       </c>
       <c r="G67" t="n">
-        <v>12.63966666666668</v>
+        <v>12.63700000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.9</v>
+        <v>12.77</v>
       </c>
       <c r="C68" t="n">
-        <v>12.7</v>
+        <v>12.71</v>
       </c>
       <c r="D68" t="n">
-        <v>12.9</v>
+        <v>12.77</v>
       </c>
       <c r="E68" t="n">
-        <v>12.7</v>
+        <v>12.71</v>
       </c>
       <c r="F68" t="n">
-        <v>7454.351</v>
+        <v>30771.5248</v>
       </c>
       <c r="G68" t="n">
-        <v>12.64216666666668</v>
+        <v>12.63966666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>12.9</v>
       </c>
       <c r="C69" t="n">
-        <v>12.72</v>
+        <v>12.7</v>
       </c>
       <c r="D69" t="n">
         <v>12.9</v>
@@ -2790,10 +2790,10 @@
         <v>12.7</v>
       </c>
       <c r="F69" t="n">
-        <v>100033.1098</v>
+        <v>7454.351</v>
       </c>
       <c r="G69" t="n">
-        <v>12.64500000000001</v>
+        <v>12.64216666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C70" t="n">
-        <v>12.7</v>
+        <v>12.72</v>
       </c>
       <c r="D70" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E70" t="n">
         <v>12.7</v>
       </c>
       <c r="F70" t="n">
-        <v>36945.5477</v>
+        <v>100033.1098</v>
       </c>
       <c r="G70" t="n">
-        <v>12.64750000000001</v>
+        <v>12.64500000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.89</v>
+        <v>12.7</v>
       </c>
       <c r="C71" t="n">
-        <v>12.99</v>
+        <v>12.7</v>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E71" t="n">
-        <v>12.89</v>
+        <v>12.7</v>
       </c>
       <c r="F71" t="n">
-        <v>138071.9323032925</v>
+        <v>36945.5477</v>
       </c>
       <c r="G71" t="n">
-        <v>12.65550000000001</v>
+        <v>12.64750000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.74</v>
+        <v>12.89</v>
       </c>
       <c r="C72" t="n">
-        <v>12.74</v>
+        <v>12.99</v>
       </c>
       <c r="D72" t="n">
-        <v>12.74</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>12.74</v>
+        <v>12.89</v>
       </c>
       <c r="F72" t="n">
-        <v>6747.1336</v>
+        <v>138071.9323032925</v>
       </c>
       <c r="G72" t="n">
-        <v>12.65933333333335</v>
+        <v>12.65550000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.75</v>
+        <v>12.74</v>
       </c>
       <c r="C73" t="n">
-        <v>12.75</v>
+        <v>12.74</v>
       </c>
       <c r="D73" t="n">
-        <v>12.75</v>
+        <v>12.74</v>
       </c>
       <c r="E73" t="n">
-        <v>12.75</v>
+        <v>12.74</v>
       </c>
       <c r="F73" t="n">
-        <v>6347.3216</v>
+        <v>6747.1336</v>
       </c>
       <c r="G73" t="n">
-        <v>12.66333333333335</v>
+        <v>12.65933333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.76</v>
+        <v>12.75</v>
       </c>
       <c r="C74" t="n">
-        <v>12.7</v>
+        <v>12.75</v>
       </c>
       <c r="D74" t="n">
-        <v>12.97</v>
+        <v>12.75</v>
       </c>
       <c r="E74" t="n">
-        <v>12.7</v>
+        <v>12.75</v>
       </c>
       <c r="F74" t="n">
-        <v>92634.1744</v>
+        <v>6347.3216</v>
       </c>
       <c r="G74" t="n">
-        <v>12.66350000000002</v>
+        <v>12.66333333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.71</v>
+        <v>12.76</v>
       </c>
       <c r="C75" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="D75" t="n">
-        <v>12.71</v>
+        <v>12.97</v>
       </c>
       <c r="E75" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="F75" t="n">
-        <v>12498.2752</v>
+        <v>92634.1744</v>
       </c>
       <c r="G75" t="n">
-        <v>12.66300000000001</v>
+        <v>12.66350000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>12.65</v>
       </c>
       <c r="F76" t="n">
-        <v>160725.9826</v>
+        <v>12498.2752</v>
       </c>
       <c r="G76" t="n">
-        <v>12.66250000000002</v>
+        <v>12.66300000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>12.71</v>
       </c>
       <c r="C77" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="D77" t="n">
         <v>12.71</v>
       </c>
       <c r="E77" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="F77" t="n">
-        <v>64422.3064</v>
+        <v>160725.9826</v>
       </c>
       <c r="G77" t="n">
-        <v>12.66533333333335</v>
+        <v>12.66250000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.65</v>
+        <v>12.71</v>
       </c>
       <c r="C78" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="D78" t="n">
-        <v>12.65</v>
+        <v>12.71</v>
       </c>
       <c r="E78" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="F78" t="n">
-        <v>38440.547</v>
+        <v>64422.3064</v>
       </c>
       <c r="G78" t="n">
-        <v>12.66883333333335</v>
+        <v>12.66533333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>12.65</v>
       </c>
       <c r="F79" t="n">
-        <v>12989.8153</v>
+        <v>38440.547</v>
       </c>
       <c r="G79" t="n">
-        <v>12.66966666666668</v>
+        <v>12.66883333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.9</v>
+        <v>12.65</v>
       </c>
       <c r="C80" t="n">
-        <v>12.9</v>
+        <v>12.65</v>
       </c>
       <c r="D80" t="n">
-        <v>12.9</v>
+        <v>12.65</v>
       </c>
       <c r="E80" t="n">
-        <v>12.9</v>
+        <v>12.65</v>
       </c>
       <c r="F80" t="n">
-        <v>722.7172</v>
+        <v>12989.8153</v>
       </c>
       <c r="G80" t="n">
-        <v>12.67466666666668</v>
+        <v>12.66966666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C81" t="n">
-        <v>12.65</v>
+        <v>12.9</v>
       </c>
       <c r="D81" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E81" t="n">
-        <v>12.65</v>
+        <v>12.9</v>
       </c>
       <c r="F81" t="n">
-        <v>88886.57490000001</v>
+        <v>722.7172</v>
       </c>
       <c r="G81" t="n">
-        <v>12.67416666666668</v>
+        <v>12.67466666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>12.7</v>
       </c>
       <c r="C82" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="D82" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E82" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="F82" t="n">
-        <v>2458.4557</v>
+        <v>88886.57490000001</v>
       </c>
       <c r="G82" t="n">
-        <v>12.67450000000002</v>
+        <v>12.67416666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>12.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1180</v>
+        <v>2458.4557</v>
       </c>
       <c r="G83" t="n">
-        <v>12.67766666666668</v>
+        <v>12.67450000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.66</v>
+        <v>12.7</v>
       </c>
       <c r="C84" t="n">
-        <v>12.66</v>
+        <v>12.7</v>
       </c>
       <c r="D84" t="n">
-        <v>12.66</v>
+        <v>12.7</v>
       </c>
       <c r="E84" t="n">
-        <v>12.66</v>
+        <v>12.7</v>
       </c>
       <c r="F84" t="n">
-        <v>20934.9721</v>
+        <v>1180</v>
       </c>
       <c r="G84" t="n">
-        <v>12.67866666666668</v>
+        <v>12.67766666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>12.66</v>
       </c>
       <c r="C85" t="n">
-        <v>12.65</v>
+        <v>12.66</v>
       </c>
       <c r="D85" t="n">
         <v>12.66</v>
       </c>
       <c r="E85" t="n">
-        <v>12.65</v>
+        <v>12.66</v>
       </c>
       <c r="F85" t="n">
-        <v>184300.8593</v>
+        <v>20934.9721</v>
       </c>
       <c r="G85" t="n">
-        <v>12.67950000000002</v>
+        <v>12.67866666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.69</v>
+        <v>12.66</v>
       </c>
       <c r="C86" t="n">
         <v>12.65</v>
       </c>
       <c r="D86" t="n">
-        <v>12.7</v>
+        <v>12.66</v>
       </c>
       <c r="E86" t="n">
         <v>12.65</v>
       </c>
       <c r="F86" t="n">
-        <v>12274.0787</v>
+        <v>184300.8593</v>
       </c>
       <c r="G86" t="n">
-        <v>12.68033333333335</v>
+        <v>12.67950000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.65</v>
+        <v>12.69</v>
       </c>
       <c r="C87" t="n">
         <v>12.65</v>
       </c>
       <c r="D87" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="E87" t="n">
         <v>12.65</v>
       </c>
       <c r="F87" t="n">
-        <v>4509.5707</v>
+        <v>12274.0787</v>
       </c>
       <c r="G87" t="n">
-        <v>12.68116666666668</v>
+        <v>12.68033333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>12.65</v>
       </c>
       <c r="F88" t="n">
-        <v>494.5997</v>
+        <v>4509.5707</v>
       </c>
       <c r="G88" t="n">
-        <v>12.68200000000001</v>
+        <v>12.68116666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>12.65</v>
       </c>
       <c r="E89" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="F89" t="n">
-        <v>234236.7493</v>
+        <v>494.5997</v>
       </c>
       <c r="G89" t="n">
-        <v>12.68283333333335</v>
+        <v>12.68200000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3522,13 +3522,13 @@
         <v>12.65</v>
       </c>
       <c r="E90" t="n">
-        <v>12.65</v>
+        <v>12.62</v>
       </c>
       <c r="F90" t="n">
-        <v>18952.5</v>
+        <v>234236.7493</v>
       </c>
       <c r="G90" t="n">
-        <v>12.68350000000001</v>
+        <v>12.68283333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.76</v>
+        <v>12.65</v>
       </c>
       <c r="C91" t="n">
         <v>12.65</v>
       </c>
       <c r="D91" t="n">
-        <v>12.76</v>
+        <v>12.65</v>
       </c>
       <c r="E91" t="n">
         <v>12.65</v>
       </c>
       <c r="F91" t="n">
-        <v>22909.8728</v>
+        <v>18952.5</v>
       </c>
       <c r="G91" t="n">
-        <v>12.68416666666668</v>
+        <v>12.68350000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="C92" t="n">
         <v>12.65</v>
       </c>
-      <c r="C92" t="n">
-        <v>12.7</v>
-      </c>
       <c r="D92" t="n">
-        <v>12.7</v>
+        <v>12.76</v>
       </c>
       <c r="E92" t="n">
         <v>12.65</v>
       </c>
       <c r="F92" t="n">
-        <v>51761.9066</v>
+        <v>22909.8728</v>
       </c>
       <c r="G92" t="n">
-        <v>12.68583333333334</v>
+        <v>12.68416666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.6</v>
+        <v>12.65</v>
       </c>
       <c r="C93" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D93" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E93" t="n">
-        <v>12.54</v>
+        <v>12.65</v>
       </c>
       <c r="F93" t="n">
-        <v>98976.1058</v>
+        <v>51761.9066</v>
       </c>
       <c r="G93" t="n">
-        <v>12.68416666666668</v>
+        <v>12.68583333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="C94" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="D94" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="E94" t="n">
         <v>12.54</v>
       </c>
       <c r="F94" t="n">
-        <v>23427.7976</v>
+        <v>98976.1058</v>
       </c>
       <c r="G94" t="n">
-        <v>12.68316666666668</v>
+        <v>12.68416666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="C95" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="D95" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="E95" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="F95" t="n">
-        <v>5621.9861</v>
+        <v>23427.7976</v>
       </c>
       <c r="G95" t="n">
-        <v>12.68200000000001</v>
+        <v>12.68316666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="C96" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="D96" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="E96" t="n">
-        <v>12.54</v>
+        <v>12.53</v>
       </c>
       <c r="F96" t="n">
-        <v>6572.2024</v>
+        <v>5621.9861</v>
       </c>
       <c r="G96" t="n">
-        <v>12.67950000000001</v>
+        <v>12.68200000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.6</v>
+        <v>12.54</v>
       </c>
       <c r="C97" t="n">
-        <v>12.6</v>
+        <v>12.54</v>
       </c>
       <c r="D97" t="n">
-        <v>12.6</v>
+        <v>12.54</v>
       </c>
       <c r="E97" t="n">
-        <v>12.6</v>
+        <v>12.54</v>
       </c>
       <c r="F97" t="n">
-        <v>108382</v>
+        <v>6572.2024</v>
       </c>
       <c r="G97" t="n">
-        <v>12.68016666666668</v>
+        <v>12.67950000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="C98" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="D98" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="E98" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="F98" t="n">
-        <v>78698.4203</v>
+        <v>108382</v>
       </c>
       <c r="G98" t="n">
-        <v>12.68233333333334</v>
+        <v>12.68016666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="C99" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="D99" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="E99" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="F99" t="n">
-        <v>49000</v>
+        <v>78698.4203</v>
       </c>
       <c r="G99" t="n">
-        <v>12.68083333333334</v>
+        <v>12.68233333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="C100" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D100" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="E100" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F100" t="n">
-        <v>77826.6753</v>
+        <v>49000</v>
       </c>
       <c r="G100" t="n">
-        <v>12.68000000000001</v>
+        <v>12.68083333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="C101" t="n">
         <v>12.5</v>
       </c>
       <c r="D101" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="E101" t="n">
         <v>12.5</v>
       </c>
       <c r="F101" t="n">
-        <v>70000</v>
+        <v>77826.6753</v>
       </c>
       <c r="G101" t="n">
-        <v>12.67683333333334</v>
+        <v>12.68000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="C102" t="n">
         <v>12.5</v>
       </c>
       <c r="D102" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="E102" t="n">
         <v>12.5</v>
       </c>
       <c r="F102" t="n">
-        <v>5125.2753</v>
+        <v>70000</v>
       </c>
       <c r="G102" t="n">
-        <v>12.67483333333334</v>
+        <v>12.67683333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>12.5</v>
       </c>
       <c r="C103" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="D103" t="n">
         <v>12.5</v>
       </c>
       <c r="E103" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>137838.368</v>
+        <v>5125.2753</v>
       </c>
       <c r="G103" t="n">
-        <v>12.67200000000001</v>
+        <v>12.67483333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C104" t="n">
-        <v>12.6</v>
+        <v>12.45</v>
       </c>
       <c r="D104" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E104" t="n">
-        <v>12.6</v>
+        <v>12.45</v>
       </c>
       <c r="F104" t="n">
-        <v>793.7091</v>
+        <v>137838.368</v>
       </c>
       <c r="G104" t="n">
-        <v>12.67033333333334</v>
+        <v>12.67200000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="C105" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="D105" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="E105" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="F105" t="n">
-        <v>13395.7374</v>
+        <v>793.7091</v>
       </c>
       <c r="G105" t="n">
-        <v>12.66983333333334</v>
+        <v>12.67033333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="C106" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="D106" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="E106" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="F106" t="n">
-        <v>3333</v>
+        <v>13395.7374</v>
       </c>
       <c r="G106" t="n">
-        <v>12.66833333333334</v>
+        <v>12.66983333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>12.53</v>
       </c>
       <c r="F107" t="n">
-        <v>188.7888</v>
+        <v>3333</v>
       </c>
       <c r="G107" t="n">
-        <v>12.66766666666667</v>
+        <v>12.66833333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.52</v>
+        <v>12.53</v>
       </c>
       <c r="C108" t="n">
-        <v>12.52</v>
+        <v>12.53</v>
       </c>
       <c r="D108" t="n">
-        <v>12.52</v>
+        <v>12.53</v>
       </c>
       <c r="E108" t="n">
-        <v>12.52</v>
+        <v>12.53</v>
       </c>
       <c r="F108" t="n">
-        <v>198328.993</v>
+        <v>188.7888</v>
       </c>
       <c r="G108" t="n">
-        <v>12.66683333333334</v>
+        <v>12.66766666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.48</v>
+        <v>12.52</v>
       </c>
       <c r="C109" t="n">
-        <v>12.48</v>
+        <v>12.52</v>
       </c>
       <c r="D109" t="n">
-        <v>12.48</v>
+        <v>12.52</v>
       </c>
       <c r="E109" t="n">
-        <v>12.48</v>
+        <v>12.52</v>
       </c>
       <c r="F109" t="n">
-        <v>118589.7427</v>
+        <v>198328.993</v>
       </c>
       <c r="G109" t="n">
-        <v>12.66533333333334</v>
+        <v>12.66683333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="C110" t="n">
-        <v>12.5</v>
+        <v>12.48</v>
       </c>
       <c r="D110" t="n">
-        <v>12.53</v>
+        <v>12.48</v>
       </c>
       <c r="E110" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="F110" t="n">
-        <v>546035.9447</v>
+        <v>118589.7427</v>
       </c>
       <c r="G110" t="n">
-        <v>12.66416666666667</v>
+        <v>12.66533333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.53</v>
+        <v>12.47</v>
       </c>
       <c r="C111" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="D111" t="n">
         <v>12.53</v>
       </c>
       <c r="E111" t="n">
-        <v>12.53</v>
+        <v>12.47</v>
       </c>
       <c r="F111" t="n">
-        <v>5737.1169</v>
+        <v>546035.9447</v>
       </c>
       <c r="G111" t="n">
-        <v>12.66383333333334</v>
+        <v>12.66416666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>12.53</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>5737.1169</v>
       </c>
       <c r="G112" t="n">
-        <v>12.66183333333334</v>
+        <v>12.66383333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>12.53</v>
       </c>
       <c r="F113" t="n">
-        <v>50771.3765</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>12.659</v>
+        <v>12.66183333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.5</v>
+        <v>12.53</v>
       </c>
       <c r="C114" t="n">
-        <v>12.5</v>
+        <v>12.53</v>
       </c>
       <c r="D114" t="n">
-        <v>12.5</v>
+        <v>12.53</v>
       </c>
       <c r="E114" t="n">
-        <v>12.5</v>
+        <v>12.53</v>
       </c>
       <c r="F114" t="n">
-        <v>885.7344000000001</v>
+        <v>50771.3765</v>
       </c>
       <c r="G114" t="n">
-        <v>12.65566666666667</v>
+        <v>12.659</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.52</v>
+        <v>12.5</v>
       </c>
       <c r="C115" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="D115" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="E115" t="n">
-        <v>12.52</v>
+        <v>12.5</v>
       </c>
       <c r="F115" t="n">
-        <v>22674.6709</v>
+        <v>885.7344000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>12.65233333333333</v>
+        <v>12.65566666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.53</v>
+        <v>12.52</v>
       </c>
       <c r="C116" t="n">
         <v>12.53</v>
@@ -4432,13 +4432,13 @@
         <v>12.53</v>
       </c>
       <c r="E116" t="n">
-        <v>12.53</v>
+        <v>12.52</v>
       </c>
       <c r="F116" t="n">
-        <v>198.6048</v>
+        <v>22674.6709</v>
       </c>
       <c r="G116" t="n">
-        <v>12.64783333333333</v>
+        <v>12.65233333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>12.53</v>
       </c>
       <c r="F117" t="n">
-        <v>46958.4539</v>
+        <v>198.6048</v>
       </c>
       <c r="G117" t="n">
-        <v>12.644</v>
+        <v>12.64783333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>12.53</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0001</v>
+        <v>46958.4539</v>
       </c>
       <c r="G118" t="n">
-        <v>12.63966666666667</v>
+        <v>12.644</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.52</v>
+        <v>12.53</v>
       </c>
       <c r="C119" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="D119" t="n">
-        <v>12.52</v>
+        <v>12.53</v>
       </c>
       <c r="E119" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="F119" t="n">
-        <v>94543.5436</v>
+        <v>0.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>12.63516666666667</v>
+        <v>12.63966666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="C120" t="n">
         <v>12.51</v>
       </c>
       <c r="D120" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="E120" t="n">
         <v>12.51</v>
       </c>
       <c r="F120" t="n">
-        <v>1561.1059</v>
+        <v>94543.5436</v>
       </c>
       <c r="G120" t="n">
-        <v>12.63</v>
+        <v>12.63516666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>12.51</v>
       </c>
       <c r="F121" t="n">
-        <v>271461.6904</v>
+        <v>1561.1059</v>
       </c>
       <c r="G121" t="n">
-        <v>12.62466666666667</v>
+        <v>12.63</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="C122" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="D122" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="E122" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="F122" t="n">
-        <v>237.6901</v>
+        <v>271461.6904</v>
       </c>
       <c r="G122" t="n">
-        <v>12.618</v>
+        <v>12.62466666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>12.59</v>
       </c>
       <c r="C123" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="D123" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="E123" t="n">
         <v>12.59</v>
       </c>
       <c r="F123" t="n">
-        <v>100000</v>
+        <v>237.6901</v>
       </c>
       <c r="G123" t="n">
-        <v>12.61783333333333</v>
+        <v>12.618</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="C124" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="D124" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="E124" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="F124" t="n">
-        <v>18231.0547</v>
+        <v>100000</v>
       </c>
       <c r="G124" t="n">
-        <v>12.61466666666667</v>
+        <v>12.61783333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>12.51</v>
       </c>
       <c r="F125" t="n">
-        <v>91595.9822</v>
+        <v>18231.0547</v>
       </c>
       <c r="G125" t="n">
-        <v>12.61116666666667</v>
+        <v>12.61466666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="C126" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="D126" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="E126" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="F126" t="n">
-        <v>80000</v>
+        <v>91595.9822</v>
       </c>
       <c r="G126" t="n">
-        <v>12.607</v>
+        <v>12.61116666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>12.5</v>
       </c>
       <c r="F127" t="n">
-        <v>4666.8586</v>
+        <v>80000</v>
       </c>
       <c r="G127" t="n">
-        <v>12.6035</v>
+        <v>12.607</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="C128" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="D128" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="E128" t="n">
-        <v>12.45</v>
+        <v>12.5</v>
       </c>
       <c r="F128" t="n">
-        <v>84869.787</v>
+        <v>4666.8586</v>
       </c>
       <c r="G128" t="n">
-        <v>12.59933333333333</v>
+        <v>12.6035</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>12.45</v>
       </c>
       <c r="F129" t="n">
-        <v>330252.2085</v>
+        <v>84869.787</v>
       </c>
       <c r="G129" t="n">
-        <v>12.59483333333333</v>
+        <v>12.59933333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="C130" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="D130" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="E130" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="F130" t="n">
-        <v>1791.9106</v>
+        <v>330252.2085</v>
       </c>
       <c r="G130" t="n">
-        <v>12.59233333333333</v>
+        <v>12.59483333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>12.55</v>
       </c>
       <c r="F131" t="n">
-        <v>13144.2526</v>
+        <v>1791.9106</v>
       </c>
       <c r="G131" t="n">
-        <v>12.585</v>
+        <v>12.59233333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.56</v>
+        <v>12.55</v>
       </c>
       <c r="C132" t="n">
-        <v>12.56</v>
+        <v>12.55</v>
       </c>
       <c r="D132" t="n">
-        <v>12.56</v>
+        <v>12.55</v>
       </c>
       <c r="E132" t="n">
-        <v>12.56</v>
+        <v>12.55</v>
       </c>
       <c r="F132" t="n">
-        <v>24000</v>
+        <v>13144.2526</v>
       </c>
       <c r="G132" t="n">
-        <v>12.582</v>
+        <v>12.585</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>12.56</v>
       </c>
       <c r="F133" t="n">
-        <v>11085.1914</v>
+        <v>24000</v>
       </c>
       <c r="G133" t="n">
-        <v>12.57883333333333</v>
+        <v>12.582</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
       <c r="C134" t="n">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
       <c r="D134" t="n">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
       <c r="E134" t="n">
-        <v>12.45</v>
+        <v>12.56</v>
       </c>
       <c r="F134" t="n">
-        <v>74389.478</v>
+        <v>11085.1914</v>
       </c>
       <c r="G134" t="n">
-        <v>12.57466666666666</v>
+        <v>12.57883333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>12.45</v>
       </c>
       <c r="F135" t="n">
-        <v>339.7803</v>
+        <v>74389.478</v>
       </c>
       <c r="G135" t="n">
-        <v>12.57133333333333</v>
+        <v>12.57466666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="C136" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="D136" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="E136" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="F136" t="n">
-        <v>3112.1442</v>
+        <v>339.7803</v>
       </c>
       <c r="G136" t="n">
-        <v>12.56866666666666</v>
+        <v>12.57133333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>12.49</v>
       </c>
       <c r="C137" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="D137" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="E137" t="n">
         <v>12.49</v>
       </c>
       <c r="F137" t="n">
-        <v>100219.7434</v>
+        <v>3112.1442</v>
       </c>
       <c r="G137" t="n">
-        <v>12.56533333333333</v>
+        <v>12.56866666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.59</v>
+        <v>12.49</v>
       </c>
       <c r="C138" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="D138" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="E138" t="n">
-        <v>12.59</v>
+        <v>12.49</v>
       </c>
       <c r="F138" t="n">
-        <v>71618.4281</v>
+        <v>100219.7434</v>
       </c>
       <c r="G138" t="n">
-        <v>12.56433333333333</v>
+        <v>12.56533333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="C139" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="D139" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="E139" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="F139" t="n">
-        <v>41363.9493</v>
+        <v>71618.4281</v>
       </c>
       <c r="G139" t="n">
-        <v>12.56183333333333</v>
+        <v>12.56433333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>12.5</v>
       </c>
       <c r="F140" t="n">
-        <v>16799.7862</v>
+        <v>41363.9493</v>
       </c>
       <c r="G140" t="n">
-        <v>12.55516666666666</v>
+        <v>12.56183333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>12.5</v>
       </c>
       <c r="F141" t="n">
-        <v>3502.7278</v>
+        <v>16799.7862</v>
       </c>
       <c r="G141" t="n">
-        <v>12.55266666666666</v>
+        <v>12.55516666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>12.5</v>
       </c>
       <c r="F142" t="n">
-        <v>146235</v>
+        <v>3502.7278</v>
       </c>
       <c r="G142" t="n">
-        <v>12.54933333333333</v>
+        <v>12.55266666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>12.5</v>
       </c>
       <c r="F143" t="n">
-        <v>24666.6533</v>
+        <v>146235</v>
       </c>
       <c r="G143" t="n">
-        <v>12.546</v>
+        <v>12.54933333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="C144" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="D144" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="E144" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="F144" t="n">
-        <v>906</v>
+        <v>24666.6533</v>
       </c>
       <c r="G144" t="n">
-        <v>12.54316666666666</v>
+        <v>12.546</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>12.49</v>
       </c>
       <c r="F145" t="n">
-        <v>100.7401</v>
+        <v>906</v>
       </c>
       <c r="G145" t="n">
-        <v>12.5405</v>
+        <v>12.54316666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>12.49</v>
       </c>
       <c r="F146" t="n">
-        <v>6184.9024</v>
+        <v>100.7401</v>
       </c>
       <c r="G146" t="n">
-        <v>12.53783333333333</v>
+        <v>12.5405</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.51</v>
+        <v>12.49</v>
       </c>
       <c r="C147" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="D147" t="n">
-        <v>12.51</v>
+        <v>12.49</v>
       </c>
       <c r="E147" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="F147" t="n">
-        <v>100000</v>
+        <v>6184.9024</v>
       </c>
       <c r="G147" t="n">
-        <v>12.53533333333333</v>
+        <v>12.53783333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="C148" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="D148" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="E148" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="F148" t="n">
-        <v>75302.0166</v>
+        <v>100000</v>
       </c>
       <c r="G148" t="n">
-        <v>12.53433333333333</v>
+        <v>12.53533333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="C149" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="D149" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="E149" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="F149" t="n">
-        <v>3897</v>
+        <v>75302.0166</v>
       </c>
       <c r="G149" t="n">
-        <v>12.532</v>
+        <v>12.53433333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>12.51</v>
       </c>
       <c r="C150" t="n">
-        <v>12.45</v>
+        <v>12.51</v>
       </c>
       <c r="D150" t="n">
         <v>12.51</v>
       </c>
       <c r="E150" t="n">
-        <v>12.45</v>
+        <v>12.51</v>
       </c>
       <c r="F150" t="n">
-        <v>159314</v>
+        <v>3897</v>
       </c>
       <c r="G150" t="n">
-        <v>12.52866666666667</v>
+        <v>12.532</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C151" t="n">
         <v>12.45</v>
       </c>
-      <c r="C151" t="n">
-        <v>12.4</v>
-      </c>
       <c r="D151" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E151" t="n">
         <v>12.45</v>
       </c>
-      <c r="E151" t="n">
-        <v>12.4</v>
-      </c>
       <c r="F151" t="n">
-        <v>90835.497</v>
+        <v>159314</v>
       </c>
       <c r="G151" t="n">
-        <v>12.5245</v>
+        <v>12.52866666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="C152" t="n">
         <v>12.4</v>
       </c>
       <c r="D152" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="E152" t="n">
         <v>12.4</v>
       </c>
       <c r="F152" t="n">
-        <v>70154.11629999999</v>
+        <v>90835.497</v>
       </c>
       <c r="G152" t="n">
-        <v>12.5195</v>
+        <v>12.5245</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>12.4</v>
       </c>
       <c r="C153" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D153" t="n">
         <v>12.4</v>
       </c>
       <c r="E153" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F153" t="n">
-        <v>97770.7309</v>
+        <v>70154.11629999999</v>
       </c>
       <c r="G153" t="n">
-        <v>12.5145</v>
+        <v>12.5195</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C154" t="n">
         <v>12.3</v>
       </c>
       <c r="D154" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E154" t="n">
         <v>12.3</v>
       </c>
       <c r="F154" t="n">
-        <v>14747.6652</v>
+        <v>97770.7309</v>
       </c>
       <c r="G154" t="n">
-        <v>12.5105</v>
+        <v>12.5145</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.24</v>
+        <v>12.3</v>
       </c>
       <c r="C155" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D155" t="n">
-        <v>12.24</v>
+        <v>12.3</v>
       </c>
       <c r="E155" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F155" t="n">
-        <v>88608.57490000001</v>
+        <v>14747.6652</v>
       </c>
       <c r="G155" t="n">
-        <v>12.50333333333333</v>
+        <v>12.5105</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.11</v>
+        <v>12.24</v>
       </c>
       <c r="C156" t="n">
         <v>12.1</v>
       </c>
       <c r="D156" t="n">
-        <v>12.11</v>
+        <v>12.24</v>
       </c>
       <c r="E156" t="n">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="F156" t="n">
-        <v>482125.336953719</v>
+        <v>88608.57490000001</v>
       </c>
       <c r="G156" t="n">
-        <v>12.496</v>
+        <v>12.50333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="C157" t="n">
         <v>12.1</v>
       </c>
       <c r="D157" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="E157" t="n">
-        <v>12.1</v>
+        <v>12.04</v>
       </c>
       <c r="F157" t="n">
-        <v>74877.65640000001</v>
+        <v>482125.336953719</v>
       </c>
       <c r="G157" t="n">
-        <v>12.48766666666667</v>
+        <v>12.496</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="C158" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="D158" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="E158" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="F158" t="n">
-        <v>405336.6056</v>
+        <v>74877.65640000001</v>
       </c>
       <c r="G158" t="n">
-        <v>12.4765</v>
+        <v>12.48766666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>12.02</v>
+        <v>12.09</v>
       </c>
       <c r="C159" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="D159" t="n">
-        <v>12.2</v>
+        <v>12.09</v>
       </c>
       <c r="E159" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="F159" t="n">
-        <v>141275.7071</v>
+        <v>405336.6056</v>
       </c>
       <c r="G159" t="n">
-        <v>12.46983333333333</v>
+        <v>12.4765</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="C160" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D160" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E160" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="F160" t="n">
-        <v>185161.7893</v>
+        <v>141275.7071</v>
       </c>
       <c r="G160" t="n">
-        <v>12.46316666666667</v>
+        <v>12.46983333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6001,19 @@
         <v>12.1</v>
       </c>
       <c r="C161" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="D161" t="n">
         <v>12.1</v>
       </c>
       <c r="E161" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="F161" t="n">
-        <v>138263.0901</v>
+        <v>185161.7893</v>
       </c>
       <c r="G161" t="n">
-        <v>12.455</v>
+        <v>12.46316666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="C162" t="n">
         <v>12.01</v>
       </c>
       <c r="D162" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="E162" t="n">
         <v>12.01</v>
       </c>
       <c r="F162" t="n">
-        <v>69872.8138</v>
+        <v>138263.0901</v>
       </c>
       <c r="G162" t="n">
-        <v>12.44683333333333</v>
+        <v>12.455</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>12.01</v>
       </c>
       <c r="F163" t="n">
-        <v>58904.8469</v>
+        <v>69872.8138</v>
       </c>
       <c r="G163" t="n">
-        <v>12.4395</v>
+        <v>12.44683333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.05</v>
+        <v>12.01</v>
       </c>
       <c r="C164" t="n">
-        <v>12.05</v>
+        <v>12.01</v>
       </c>
       <c r="D164" t="n">
-        <v>12.05</v>
+        <v>12.01</v>
       </c>
       <c r="E164" t="n">
-        <v>12.05</v>
+        <v>12.01</v>
       </c>
       <c r="F164" t="n">
-        <v>51780.0456</v>
+        <v>58904.8469</v>
       </c>
       <c r="G164" t="n">
-        <v>12.43033333333333</v>
+        <v>12.4395</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>12.05</v>
       </c>
       <c r="F165" t="n">
-        <v>99</v>
+        <v>51780.0456</v>
       </c>
       <c r="G165" t="n">
-        <v>12.42133333333333</v>
+        <v>12.43033333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>12.05</v>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G166" t="n">
-        <v>12.41333333333333</v>
+        <v>12.42133333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="C167" t="n">
-        <v>11.96</v>
+        <v>12.05</v>
       </c>
       <c r="D167" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E167" t="n">
-        <v>11.81</v>
+        <v>12.05</v>
       </c>
       <c r="F167" t="n">
-        <v>793440.9305</v>
+        <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>12.40383333333333</v>
+        <v>12.41333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>11.81</v>
+        <v>12</v>
       </c>
       <c r="C168" t="n">
-        <v>12.06</v>
+        <v>11.96</v>
       </c>
       <c r="D168" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="E168" t="n">
         <v>11.81</v>
       </c>
       <c r="F168" t="n">
-        <v>88156.62149999999</v>
+        <v>793440.9305</v>
       </c>
       <c r="G168" t="n">
-        <v>12.39616666666666</v>
+        <v>12.40383333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6281,19 @@
         <v>11.81</v>
       </c>
       <c r="C169" t="n">
-        <v>11.79</v>
+        <v>12.06</v>
       </c>
       <c r="D169" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E169" t="n">
         <v>11.81</v>
       </c>
-      <c r="E169" t="n">
-        <v>11.79</v>
-      </c>
       <c r="F169" t="n">
-        <v>151073.3536</v>
+        <v>88156.62149999999</v>
       </c>
       <c r="G169" t="n">
-        <v>12.38466666666666</v>
+        <v>12.39616666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.78</v>
+        <v>11.81</v>
       </c>
       <c r="C170" t="n">
         <v>11.79</v>
       </c>
       <c r="D170" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E170" t="n">
         <v>11.79</v>
       </c>
-      <c r="E170" t="n">
-        <v>11.78</v>
-      </c>
       <c r="F170" t="n">
-        <v>36692.5935</v>
+        <v>151073.3536</v>
       </c>
       <c r="G170" t="n">
-        <v>12.37283333333333</v>
+        <v>12.38466666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="C171" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="D171" t="n">
-        <v>11.8</v>
+        <v>11.79</v>
       </c>
       <c r="E171" t="n">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
       <c r="F171" t="n">
-        <v>19435.5304</v>
+        <v>36692.5935</v>
       </c>
       <c r="G171" t="n">
-        <v>12.36066666666666</v>
+        <v>12.37283333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>11.8</v>
       </c>
       <c r="F172" t="n">
-        <v>892.9973</v>
+        <v>19435.5304</v>
       </c>
       <c r="G172" t="n">
-        <v>12.3485</v>
+        <v>12.36066666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>11.8</v>
       </c>
       <c r="F173" t="n">
-        <v>198328.993</v>
+        <v>892.9973</v>
       </c>
       <c r="G173" t="n">
-        <v>12.33633333333333</v>
+        <v>12.3485</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6456,19 @@
         <v>11.8</v>
       </c>
       <c r="C174" t="n">
-        <v>11.72</v>
+        <v>11.8</v>
       </c>
       <c r="D174" t="n">
         <v>11.8</v>
       </c>
       <c r="E174" t="n">
-        <v>11.72</v>
+        <v>11.8</v>
       </c>
       <c r="F174" t="n">
-        <v>302464.1427</v>
+        <v>198328.993</v>
       </c>
       <c r="G174" t="n">
-        <v>12.32333333333333</v>
+        <v>12.33633333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,32 +6491,28 @@
         <v>11.8</v>
       </c>
       <c r="C175" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="D175" t="n">
         <v>11.8</v>
       </c>
       <c r="E175" t="n">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="F175" t="n">
-        <v>69639.98269999999</v>
+        <v>302464.1427</v>
       </c>
       <c r="G175" t="n">
-        <v>12.31116666666666</v>
+        <v>12.32333333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K175" t="n">
-        <v>11.72</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
@@ -6527,341 +6523,295 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>69639.98269999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>12.31116666666666</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>11.71</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C177" t="n">
         <v>11.7</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D177" t="n">
         <v>11.71</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E177" t="n">
         <v>11.7</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F177" t="n">
         <v>8690.7428</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G177" t="n">
         <v>12.29733333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K176" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>82213.7781</v>
+      </c>
+      <c r="G178" t="n">
+        <v>12.2835</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>76145.89845654009</v>
+      </c>
+      <c r="G179" t="n">
+        <v>12.27216666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>522.802</v>
+      </c>
+      <c r="G180" t="n">
+        <v>12.25866666666667</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F181" t="n">
+        <v>842.4599831508003</v>
+      </c>
+      <c r="G181" t="n">
+        <v>12.248</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K181" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>11758.6535</v>
+      </c>
+      <c r="G182" t="n">
+        <v>12.2345</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K182" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>937833.8819</v>
+      </c>
+      <c r="G183" t="n">
+        <v>12.21983333333333</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C177" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E177" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>82213.7781</v>
-      </c>
-      <c r="G177" t="n">
-        <v>12.2835</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K177" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D178" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F178" t="n">
-        <v>76145.89845654009</v>
-      </c>
-      <c r="G178" t="n">
-        <v>12.27216666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K178" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F179" t="n">
-        <v>522.802</v>
-      </c>
-      <c r="G179" t="n">
-        <v>12.25866666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K179" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C180" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E180" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F180" t="n">
-        <v>842.4599831508003</v>
-      </c>
-      <c r="G180" t="n">
-        <v>12.248</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K180" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11758.6535</v>
-      </c>
-      <c r="G181" t="n">
-        <v>12.2345</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K181" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D182" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E182" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F182" t="n">
-        <v>937833.8819</v>
-      </c>
-      <c r="G182" t="n">
-        <v>12.21983333333333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K182" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F183" t="n">
-        <v>17469.1453</v>
-      </c>
-      <c r="G183" t="n">
-        <v>12.20483333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K183" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6871,7 +6821,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>11.71</v>
+        <v>11.69</v>
       </c>
       <c r="C184" t="n">
         <v>11.71</v>
@@ -6880,13 +6830,13 @@
         <v>11.71</v>
       </c>
       <c r="E184" t="n">
-        <v>11.71</v>
+        <v>11.69</v>
       </c>
       <c r="F184" t="n">
-        <v>3060.874</v>
+        <v>17469.1453</v>
       </c>
       <c r="G184" t="n">
-        <v>12.1915</v>
+        <v>12.20483333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6896,7 +6846,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>11.72</v>
+        <v>11.7</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -6907,6 +6857,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3060.874</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12.1915</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>42.7653</v>
       </c>
       <c r="G2" t="n">
+        <v>12.59866666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.34783333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>56362.1866</v>
       </c>
       <c r="G3" t="n">
+        <v>12.58733333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.35216666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>142128.5481</v>
       </c>
       <c r="G4" t="n">
+        <v>12.59266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.35933333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>108652.3708</v>
       </c>
       <c r="G5" t="n">
+        <v>12.612</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.36850000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>116939.9019</v>
       </c>
       <c r="G6" t="n">
+        <v>12.61466666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.37416666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>22284.6726</v>
       </c>
       <c r="G7" t="n">
+        <v>12.612</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.37983333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>88216.9552</v>
       </c>
       <c r="G8" t="n">
+        <v>12.602</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.38533333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>238.0709</v>
       </c>
       <c r="G9" t="n">
+        <v>12.59866666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.39</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>20445.5502</v>
       </c>
       <c r="G10" t="n">
+        <v>12.602</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.39466666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>19637.9625</v>
       </c>
       <c r="G11" t="n">
+        <v>12.59266666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.39933333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>37852.1868</v>
       </c>
       <c r="G12" t="n">
+        <v>12.57733333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.40316666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>25801.508</v>
       </c>
       <c r="G13" t="n">
+        <v>12.56533333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.40716666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>9132.4282</v>
       </c>
       <c r="G14" t="n">
+        <v>12.55933333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.41116666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>12911.446</v>
       </c>
       <c r="G15" t="n">
+        <v>12.56533333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.41933333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8936</v>
       </c>
       <c r="G16" t="n">
+        <v>12.57066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.426</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>22906.06324479495</v>
       </c>
       <c r="G17" t="n">
+        <v>12.576</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.4345</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>11644.7395</v>
       </c>
       <c r="G18" t="n">
+        <v>12.58266666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.43883333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>27538.9274</v>
       </c>
       <c r="G19" t="n">
+        <v>12.572</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.44166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>100</v>
       </c>
       <c r="G20" t="n">
+        <v>12.562</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.44733333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>23164.8846</v>
       </c>
       <c r="G21" t="n">
+        <v>12.566</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.45283333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>482783.7708</v>
       </c>
       <c r="G22" t="n">
+        <v>12.57533333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.46</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>400.8031</v>
       </c>
       <c r="G23" t="n">
+        <v>12.584</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.46716666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>111201.3031</v>
       </c>
       <c r="G24" t="n">
+        <v>12.58133333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.473</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2406.3837</v>
       </c>
       <c r="G25" t="n">
+        <v>12.58466666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.47883333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>16548.2106</v>
       </c>
       <c r="G26" t="n">
+        <v>12.588</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.48616666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2948.3896</v>
       </c>
       <c r="G27" t="n">
+        <v>12.594</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.49450000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>12522.9145</v>
       </c>
       <c r="G28" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.50283333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>29140.1309</v>
       </c>
       <c r="G29" t="n">
+        <v>12.606</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.51116666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>39664.9746</v>
       </c>
       <c r="G30" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.51783333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4472.3047</v>
       </c>
       <c r="G31" t="n">
+        <v>12.59533333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.51983333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>36201.6181</v>
       </c>
       <c r="G32" t="n">
+        <v>12.59066666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.52666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>12425.2452</v>
       </c>
       <c r="G33" t="n">
+        <v>12.59533333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.53333333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1500</v>
       </c>
       <c r="G34" t="n">
+        <v>12.61266666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.54</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2000</v>
       </c>
       <c r="G35" t="n">
+        <v>12.61266666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.54666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1162.0271</v>
       </c>
       <c r="G36" t="n">
+        <v>12.61266666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.55166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>40</v>
       </c>
       <c r="G37" t="n">
+        <v>12.61333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.55983333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>267317.0216</v>
       </c>
       <c r="G38" t="n">
+        <v>12.60533333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.56583333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>27617.42350944882</v>
       </c>
       <c r="G39" t="n">
+        <v>12.608</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.56833333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>235.7384</v>
       </c>
       <c r="G40" t="n">
+        <v>12.614</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.57483333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>882.8262999999999</v>
       </c>
       <c r="G41" t="n">
+        <v>12.61066666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.57900000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>93061.10490000001</v>
       </c>
       <c r="G42" t="n">
+        <v>12.61666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.58516666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>10434.9715</v>
       </c>
       <c r="G43" t="n">
+        <v>12.618</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.58983333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>83430.5312</v>
       </c>
       <c r="G44" t="n">
+        <v>12.61933333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.59183333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>349.9212598425197</v>
       </c>
       <c r="G45" t="n">
+        <v>12.626</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.59483333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>3846.8382</v>
       </c>
       <c r="G46" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.59650000000001</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>49958.0259</v>
       </c>
       <c r="G47" t="n">
+        <v>12.62733333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.59816666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>22337.961</v>
       </c>
       <c r="G48" t="n">
+        <v>12.62533333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.59766666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2000</v>
       </c>
       <c r="G49" t="n">
+        <v>12.61666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.59850000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>43000</v>
       </c>
       <c r="G50" t="n">
+        <v>12.61466666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.60033333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>32000</v>
       </c>
       <c r="G51" t="n">
+        <v>12.61266666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.60150000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>45000</v>
       </c>
       <c r="G52" t="n">
+        <v>12.60333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.60100000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>44653.6918</v>
       </c>
       <c r="G53" t="n">
+        <v>12.60933333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.60016666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>52586.9232</v>
       </c>
       <c r="G54" t="n">
+        <v>12.61933333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.60183333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>101550.6523</v>
       </c>
       <c r="G55" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.60516666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>19950.5368</v>
       </c>
       <c r="G56" t="n">
+        <v>12.632</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.60583333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>27037.2146</v>
       </c>
       <c r="G57" t="n">
+        <v>12.63933333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.60683333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>657584.3741702344</v>
       </c>
       <c r="G58" t="n">
+        <v>12.64866666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.60800000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>108479.1007</v>
       </c>
       <c r="G59" t="n">
+        <v>12.65999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.61116666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>139564.0082</v>
       </c>
       <c r="G60" t="n">
+        <v>12.66533333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.61416666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1356.306429765625</v>
       </c>
       <c r="G61" t="n">
+        <v>12.67866666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.61783333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>698.4212</v>
       </c>
       <c r="G62" t="n">
+        <v>12.69266666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.62166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>107403.4052</v>
       </c>
       <c r="G63" t="n">
+        <v>12.72066666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.63100000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>461195.1466</v>
       </c>
       <c r="G64" t="n">
+        <v>12.724</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.63133333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>10672.3352</v>
       </c>
       <c r="G65" t="n">
+        <v>12.73266666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.63050000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>36048.8408</v>
       </c>
       <c r="G66" t="n">
+        <v>12.74266666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.63350000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>7498.351</v>
       </c>
       <c r="G67" t="n">
+        <v>12.756</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.63700000000001</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>30771.5248</v>
       </c>
       <c r="G68" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.63966666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>7454.351</v>
       </c>
       <c r="G69" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.64216666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>100033.1098</v>
       </c>
       <c r="G70" t="n">
+        <v>12.76133333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.64500000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>36945.5477</v>
       </c>
       <c r="G71" t="n">
+        <v>12.75933333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.64750000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>138071.9323032925</v>
       </c>
       <c r="G72" t="n">
+        <v>12.772</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.65550000000001</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>6747.1336</v>
       </c>
       <c r="G73" t="n">
+        <v>12.77066666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.65933333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>6347.3216</v>
       </c>
       <c r="G74" t="n">
+        <v>12.768</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.66333333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>92634.1744</v>
       </c>
       <c r="G75" t="n">
+        <v>12.76266666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.66350000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>12498.2752</v>
       </c>
       <c r="G76" t="n">
+        <v>12.75133333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.66300000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>160725.9826</v>
       </c>
       <c r="G77" t="n">
+        <v>12.73933333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.66250000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>64422.3064</v>
       </c>
       <c r="G78" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.66533333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>38440.547</v>
       </c>
       <c r="G79" t="n">
+        <v>12.722</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.66883333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>12989.8153</v>
       </c>
       <c r="G80" t="n">
+        <v>12.71866666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.66966666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>722.7172</v>
       </c>
       <c r="G81" t="n">
+        <v>12.73066666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.67466666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>88886.57490000001</v>
       </c>
       <c r="G82" t="n">
+        <v>12.724</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.67416666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>2458.4557</v>
       </c>
       <c r="G83" t="n">
+        <v>12.72333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.67450000000002</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1180</v>
       </c>
       <c r="G84" t="n">
+        <v>12.72333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.67766666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>20934.9721</v>
       </c>
       <c r="G85" t="n">
+        <v>12.71933333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.67866666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>184300.8593</v>
       </c>
       <c r="G86" t="n">
+        <v>12.716</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.67950000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>12274.0787</v>
       </c>
       <c r="G87" t="n">
+        <v>12.69333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.68033333333335</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>4509.5707</v>
       </c>
       <c r="G88" t="n">
+        <v>12.68733333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.68116666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>494.5997</v>
       </c>
       <c r="G89" t="n">
+        <v>12.68066666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.68200000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>234236.7493</v>
       </c>
       <c r="G90" t="n">
+        <v>12.67733333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.68283333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>18952.5</v>
       </c>
       <c r="G91" t="n">
+        <v>12.67733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.68350000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>22909.8728</v>
       </c>
       <c r="G92" t="n">
+        <v>12.67733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.68416666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>51761.9066</v>
       </c>
       <c r="G93" t="n">
+        <v>12.67733333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.68583333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>98976.1058</v>
       </c>
       <c r="G94" t="n">
+        <v>12.674</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.68416666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>23427.7976</v>
       </c>
       <c r="G95" t="n">
+        <v>12.66666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.68316666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>5621.9861</v>
       </c>
       <c r="G96" t="n">
+        <v>12.642</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.68200000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>6572.2024</v>
       </c>
       <c r="G97" t="n">
+        <v>12.63466666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.67950000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>108382</v>
       </c>
       <c r="G98" t="n">
+        <v>12.628</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.68016666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>78698.4203</v>
       </c>
       <c r="G99" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.68233333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>49000</v>
       </c>
       <c r="G100" t="n">
+        <v>12.62266666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.68083333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>77826.6753</v>
       </c>
       <c r="G101" t="n">
+        <v>12.61266666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.68000000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>70000</v>
       </c>
       <c r="G102" t="n">
+        <v>12.60266666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.67683333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>5125.2753</v>
       </c>
       <c r="G103" t="n">
+        <v>12.59266666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.67483333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>137838.368</v>
       </c>
       <c r="G104" t="n">
+        <v>12.57933333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.67200000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>793.7091</v>
       </c>
       <c r="G105" t="n">
+        <v>12.576</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.67033333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>13395.7374</v>
       </c>
       <c r="G106" t="n">
+        <v>12.572</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.66983333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>3333</v>
       </c>
       <c r="G107" t="n">
+        <v>12.56399999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.66833333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>188.7888</v>
       </c>
       <c r="G108" t="n">
+        <v>12.55266666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.66766666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>198328.993</v>
       </c>
       <c r="G109" t="n">
+        <v>12.54733333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.66683333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>118589.7427</v>
       </c>
       <c r="G110" t="n">
+        <v>12.54333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.66533333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>546035.9447</v>
       </c>
       <c r="G111" t="n">
+        <v>12.54133333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.66416666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>5737.1169</v>
       </c>
       <c r="G112" t="n">
+        <v>12.54066666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.66383333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
+        <v>12.536</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.66183333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>50771.3765</v>
       </c>
       <c r="G114" t="n">
+        <v>12.526</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.659</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>885.7344000000001</v>
       </c>
       <c r="G115" t="n">
+        <v>12.51933333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.65566666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>22674.6709</v>
       </c>
       <c r="G116" t="n">
+        <v>12.52133333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.65233333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>198.6048</v>
       </c>
       <c r="G117" t="n">
+        <v>12.52333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.64783333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>46958.4539</v>
       </c>
       <c r="G118" t="n">
+        <v>12.52533333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.644</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>0.0001</v>
       </c>
       <c r="G119" t="n">
+        <v>12.53066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.63966666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>94543.5436</v>
       </c>
       <c r="G120" t="n">
+        <v>12.52466666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.63516666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>1561.1059</v>
       </c>
       <c r="G121" t="n">
+        <v>12.51933333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.63</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>271461.6904</v>
       </c>
       <c r="G122" t="n">
+        <v>12.518</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.62466666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>237.6901</v>
       </c>
       <c r="G123" t="n">
+        <v>12.522</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.618</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>100000</v>
       </c>
       <c r="G124" t="n">
+        <v>12.528</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.61783333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>18231.0547</v>
       </c>
       <c r="G125" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.61466666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>91595.9822</v>
       </c>
       <c r="G126" t="n">
+        <v>12.53066666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.61116666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>80000</v>
       </c>
       <c r="G127" t="n">
+        <v>12.52866666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.607</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>4666.8586</v>
       </c>
       <c r="G128" t="n">
+        <v>12.52666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.6035</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>84869.787</v>
       </c>
       <c r="G129" t="n">
+        <v>12.52133333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.59933333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>330252.2085</v>
       </c>
       <c r="G130" t="n">
+        <v>12.51799999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.59483333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>1791.9106</v>
       </c>
       <c r="G131" t="n">
+        <v>12.51933333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.59233333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>13144.2526</v>
       </c>
       <c r="G132" t="n">
+        <v>12.52066666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>12.585</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>24000</v>
       </c>
       <c r="G133" t="n">
+        <v>12.52266666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>12.582</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>11085.1914</v>
       </c>
       <c r="G134" t="n">
+        <v>12.52466666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>12.57883333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>74389.478</v>
       </c>
       <c r="G135" t="n">
+        <v>12.52066666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>12.57466666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>339.7803</v>
       </c>
       <c r="G136" t="n">
+        <v>12.51666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>12.57133333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>3112.1442</v>
       </c>
       <c r="G137" t="n">
+        <v>12.51533333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>12.56866666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>100219.7434</v>
       </c>
       <c r="G138" t="n">
+        <v>12.50933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>12.56533333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>71618.4281</v>
       </c>
       <c r="G139" t="n">
+        <v>12.508</v>
+      </c>
+      <c r="H139" t="n">
         <v>12.56433333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>41363.9493</v>
       </c>
       <c r="G140" t="n">
+        <v>12.50733333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>12.56183333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>16799.7862</v>
       </c>
       <c r="G141" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>12.55516666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>3502.7278</v>
       </c>
       <c r="G142" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>12.55266666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>146235</v>
       </c>
       <c r="G143" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>12.54933333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>24666.6533</v>
       </c>
       <c r="G144" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="H144" t="n">
         <v>12.546</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>906</v>
       </c>
       <c r="G145" t="n">
+        <v>12.51266666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>12.54316666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>100.7401</v>
       </c>
       <c r="G146" t="n">
+        <v>12.50866666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>12.5405</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>6184.9024</v>
       </c>
       <c r="G147" t="n">
+        <v>12.50466666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>12.53783333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>100000</v>
       </c>
       <c r="G148" t="n">
+        <v>12.50066666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>12.53533333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>75302.0166</v>
       </c>
       <c r="G149" t="n">
+        <v>12.50266666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>12.53433333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>3897</v>
       </c>
       <c r="G150" t="n">
+        <v>12.50666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>12.532</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>159314</v>
       </c>
       <c r="G151" t="n">
+        <v>12.50666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>12.52866666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>90835.497</v>
       </c>
       <c r="G152" t="n">
+        <v>12.50066666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>12.5245</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>70154.11629999999</v>
       </c>
       <c r="G153" t="n">
+        <v>12.494</v>
+      </c>
+      <c r="H153" t="n">
         <v>12.5195</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>97770.7309</v>
       </c>
       <c r="G154" t="n">
+        <v>12.47466666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>12.5145</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>14747.6652</v>
       </c>
       <c r="G155" t="n">
+        <v>12.46133333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>12.5105</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>88608.57490000001</v>
       </c>
       <c r="G156" t="n">
+        <v>12.43466666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>12.50333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>482125.336953719</v>
       </c>
       <c r="G157" t="n">
+        <v>12.408</v>
+      </c>
+      <c r="H157" t="n">
         <v>12.496</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>74877.65640000001</v>
       </c>
       <c r="G158" t="n">
+        <v>12.38133333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>12.48766666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>405336.6056</v>
       </c>
       <c r="G159" t="n">
+        <v>12.34866666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>12.4765</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>141275.7071</v>
       </c>
       <c r="G160" t="n">
+        <v>12.32933333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>12.46983333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>185161.7893</v>
       </c>
       <c r="G161" t="n">
+        <v>12.30333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>12.46316666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>138263.0901</v>
       </c>
       <c r="G162" t="n">
+        <v>12.27133333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>12.455</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>69872.8138</v>
       </c>
       <c r="G163" t="n">
+        <v>12.23866666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>12.44683333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>58904.8469</v>
       </c>
       <c r="G164" t="n">
+        <v>12.19999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>12.4395</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>51780.0456</v>
       </c>
       <c r="G165" t="n">
+        <v>12.16933333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>12.43033333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>99</v>
       </c>
       <c r="G166" t="n">
+        <v>12.14266666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>12.42133333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
+        <v>12.11933333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>12.41333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>793440.9305</v>
       </c>
       <c r="G168" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="H168" t="n">
         <v>12.40383333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>88156.62149999999</v>
       </c>
       <c r="G169" t="n">
+        <v>12.074</v>
+      </c>
+      <c r="H169" t="n">
         <v>12.39616666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>151073.3536</v>
       </c>
       <c r="G170" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="H170" t="n">
         <v>12.38466666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>36692.5935</v>
       </c>
       <c r="G171" t="n">
+        <v>12.01933333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>12.37283333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>19435.5304</v>
       </c>
       <c r="G172" t="n">
+        <v>11.99933333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>12.36066666666666</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>892.9973</v>
       </c>
       <c r="G173" t="n">
+        <v>11.97933333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>12.3485</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>198328.993</v>
       </c>
       <c r="G174" t="n">
+        <v>11.96533333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>12.33633333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>302464.1427</v>
       </c>
       <c r="G175" t="n">
+        <v>11.93333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>12.32333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>69639.98269999999</v>
       </c>
       <c r="G176" t="n">
+        <v>11.91333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>12.31116666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>8690.7428</v>
       </c>
       <c r="G177" t="n">
+        <v>11.89266666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>12.29733333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>82213.7781</v>
       </c>
       <c r="G178" t="n">
+        <v>11.872</v>
+      </c>
+      <c r="H178" t="n">
         <v>12.2835</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>76145.89845654009</v>
       </c>
       <c r="G179" t="n">
+        <v>11.86133333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>12.27216666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>522.802</v>
       </c>
       <c r="G180" t="n">
+        <v>11.838</v>
+      </c>
+      <c r="H180" t="n">
         <v>12.25866666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,22 +7255,21 @@
         <v>842.4599831508003</v>
       </c>
       <c r="G181" t="n">
+        <v>11.826</v>
+      </c>
+      <c r="H181" t="n">
         <v>12.248</v>
       </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K181" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6752,26 +7293,21 @@
         <v>11758.6535</v>
       </c>
       <c r="G182" t="n">
+        <v>11.80266666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>12.2345</v>
       </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K182" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6795,106 +7331,525 @@
         <v>937833.8819</v>
       </c>
       <c r="G183" t="n">
+        <v>11.786</v>
+      </c>
+      <c r="H183" t="n">
         <v>12.21983333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F184" t="n">
+        <v>17469.1453</v>
+      </c>
+      <c r="G184" t="n">
+        <v>11.76266666666666</v>
+      </c>
+      <c r="H184" t="n">
+        <v>12.20483333333333</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3060.874</v>
+      </c>
+      <c r="G185" t="n">
+        <v>11.75733333333333</v>
+      </c>
+      <c r="H185" t="n">
+        <v>12.1915</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F186" t="n">
+        <v>779.3414</v>
+      </c>
+      <c r="G186" t="n">
+        <v>11.75266666666667</v>
+      </c>
+      <c r="H186" t="n">
+        <v>12.17833333333334</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F187" t="n">
+        <v>13310.5086</v>
+      </c>
+      <c r="G187" t="n">
+        <v>11.74666666666667</v>
+      </c>
+      <c r="H187" t="n">
+        <v>12.16516666666667</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F188" t="n">
+        <v>37217.475</v>
+      </c>
+      <c r="G188" t="n">
+        <v>11.73866666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>12.1515</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F184" t="n">
-        <v>17469.1453</v>
-      </c>
-      <c r="G184" t="n">
-        <v>12.20483333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>11.73066666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>12.13866666666667</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3060.874</v>
-      </c>
-      <c r="G185" t="n">
-        <v>12.1915</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19014.6945</v>
+      </c>
+      <c r="G190" t="n">
+        <v>11.728</v>
+      </c>
+      <c r="H190" t="n">
+        <v>12.12583333333333</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24910.9632</v>
+      </c>
+      <c r="G191" t="n">
+        <v>11.71866666666667</v>
+      </c>
+      <c r="H191" t="n">
+        <v>12.111</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F192" t="n">
+        <v>255.6855</v>
+      </c>
+      <c r="G192" t="n">
+        <v>11.71533333333333</v>
+      </c>
+      <c r="H192" t="n">
+        <v>12.096</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4663.5612</v>
+      </c>
+      <c r="G193" t="n">
+        <v>11.712</v>
+      </c>
+      <c r="H193" t="n">
+        <v>12.08083333333333</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3397</v>
+      </c>
+      <c r="G194" t="n">
+        <v>11.69866666666667</v>
+      </c>
+      <c r="H194" t="n">
+        <v>12.06566666666667</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F195" t="n">
+        <v>65.474</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11.69533333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>12.05233333333333</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.2</v>
+        <v>12.69</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2</v>
+        <v>12.69</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2</v>
+        <v>12.69</v>
       </c>
       <c r="E2" t="n">
-        <v>12.2</v>
+        <v>12.69</v>
       </c>
       <c r="F2" t="n">
-        <v>8115.294</v>
+        <v>12911.446</v>
       </c>
       <c r="G2" t="n">
-        <v>2678189.60388568</v>
+        <v>3394685.28998568</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="C3" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="D3" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>8936</v>
       </c>
       <c r="G3" t="n">
-        <v>2678689.60388568</v>
+        <v>3385749.28998568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2</v>
+        <v>12.68</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2</v>
+        <v>12.68</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2</v>
+        <v>12.68</v>
       </c>
       <c r="E4" t="n">
-        <v>12.2</v>
+        <v>12.68</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>22906.06324479495</v>
       </c>
       <c r="G4" t="n">
-        <v>2678589.60388568</v>
+        <v>3385749.28998568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3</v>
+        <v>12.53</v>
       </c>
       <c r="D5" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="E5" t="n">
-        <v>12.3</v>
+        <v>12.53</v>
       </c>
       <c r="F5" t="n">
-        <v>247909.6605</v>
+        <v>11644.7395</v>
       </c>
       <c r="G5" t="n">
-        <v>2926499.26438568</v>
+        <v>3374104.55048568</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3</v>
+        <v>12.53</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2</v>
+        <v>12.44</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3</v>
+        <v>12.53</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2</v>
+        <v>12.44</v>
       </c>
       <c r="F6" t="n">
-        <v>66669.5266</v>
+        <v>27538.9274</v>
       </c>
       <c r="G6" t="n">
-        <v>2859829.73778568</v>
+        <v>3346565.62308568</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="D7" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="E7" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="F7" t="n">
-        <v>5768.1997</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>2859829.73778568</v>
+        <v>3346665.62308568</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,67 +647,65 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F8" t="n">
-        <v>41.5343</v>
+        <v>23164.8846</v>
       </c>
       <c r="G8" t="n">
-        <v>2859871.27208568</v>
+        <v>3346665.62308568</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5</v>
+        <v>12.68</v>
       </c>
       <c r="E9" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="F9" t="n">
-        <v>245855.59</v>
+        <v>482783.7708</v>
       </c>
       <c r="G9" t="n">
-        <v>2614015.68208568</v>
+        <v>3829449.39388568</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -706,39 +714,34 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="D10" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="E10" t="n">
-        <v>12.3</v>
+        <v>12.68</v>
       </c>
       <c r="F10" t="n">
-        <v>6710</v>
+        <v>400.8031</v>
       </c>
       <c r="G10" t="n">
-        <v>2614015.68208568</v>
+        <v>3829449.39388568</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -747,39 +750,34 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.32</v>
+        <v>12.68</v>
       </c>
       <c r="C11" t="n">
-        <v>12.32</v>
+        <v>12.51</v>
       </c>
       <c r="D11" t="n">
-        <v>12.32</v>
+        <v>12.7</v>
       </c>
       <c r="E11" t="n">
-        <v>12.32</v>
+        <v>12.51</v>
       </c>
       <c r="F11" t="n">
-        <v>1216.098</v>
+        <v>111201.3031</v>
       </c>
       <c r="G11" t="n">
-        <v>2615231.78008568</v>
+        <v>3718248.09078568</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -793,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.34</v>
+        <v>12.6</v>
       </c>
       <c r="C12" t="n">
-        <v>12.34</v>
+        <v>12.6</v>
       </c>
       <c r="D12" t="n">
-        <v>12.34</v>
+        <v>12.6</v>
       </c>
       <c r="E12" t="n">
-        <v>12.34</v>
+        <v>12.6</v>
       </c>
       <c r="F12" t="n">
-        <v>22797.1963</v>
+        <v>2406.3837</v>
       </c>
       <c r="G12" t="n">
-        <v>2638028.97638568</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -828,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.48</v>
+        <v>12.6</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E13" t="n">
-        <v>12.48</v>
+        <v>12.6</v>
       </c>
       <c r="F13" t="n">
-        <v>190927.6693</v>
+        <v>16548.2106</v>
       </c>
       <c r="G13" t="n">
-        <v>2828956.64568568</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -863,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="C14" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F14" t="n">
-        <v>7697.5521</v>
+        <v>2948.3896</v>
       </c>
       <c r="G14" t="n">
-        <v>2836654.19778568</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="D15" t="n">
         <v>12.6</v>
       </c>
       <c r="E15" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="F15" t="n">
-        <v>8522.8199</v>
+        <v>12522.9145</v>
       </c>
       <c r="G15" t="n">
-        <v>2836654.19778568</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -933,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="C16" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="D16" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="E16" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="F16" t="n">
-        <v>3082.7574</v>
+        <v>29140.1309</v>
       </c>
       <c r="G16" t="n">
-        <v>2836654.19778568</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -968,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -986,10 +990,10 @@
         <v>12.6</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>39664.9746</v>
       </c>
       <c r="G17" t="n">
-        <v>2836694.19778568</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="C18" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="D18" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="E18" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="F18" t="n">
-        <v>21362.9138</v>
+        <v>4472.3047</v>
       </c>
       <c r="G18" t="n">
-        <v>2815331.28398568</v>
+        <v>3725126.77918568</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.46</v>
+        <v>12.61</v>
       </c>
       <c r="C19" t="n">
-        <v>12.46</v>
+        <v>12.61</v>
       </c>
       <c r="D19" t="n">
-        <v>12.46</v>
+        <v>12.61</v>
       </c>
       <c r="E19" t="n">
-        <v>12.46</v>
+        <v>12.61</v>
       </c>
       <c r="F19" t="n">
-        <v>3091.209</v>
+        <v>36201.6181</v>
       </c>
       <c r="G19" t="n">
-        <v>2812240.07498568</v>
+        <v>3725126.77918568</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.46</v>
+        <v>12.6</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D20" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="E20" t="n">
-        <v>12.46</v>
+        <v>12.6</v>
       </c>
       <c r="F20" t="n">
-        <v>56212.3282</v>
+        <v>12425.2452</v>
       </c>
       <c r="G20" t="n">
-        <v>2868452.40318568</v>
+        <v>3712701.53398568</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1108,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.58</v>
+        <v>12.7</v>
       </c>
       <c r="C21" t="n">
-        <v>12.58</v>
+        <v>12.7</v>
       </c>
       <c r="D21" t="n">
-        <v>12.58</v>
+        <v>12.7</v>
       </c>
       <c r="E21" t="n">
-        <v>12.58</v>
+        <v>12.7</v>
       </c>
       <c r="F21" t="n">
-        <v>208596.9462</v>
+        <v>1500</v>
       </c>
       <c r="G21" t="n">
-        <v>3077049.34938568</v>
+        <v>3714201.53398568</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1143,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.58</v>
+        <v>12.6</v>
       </c>
       <c r="C22" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D22" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E22" t="n">
-        <v>12.58</v>
+        <v>12.6</v>
       </c>
       <c r="F22" t="n">
-        <v>293141.1764</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>3370190.52578568</v>
+        <v>3712201.53398568</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1178,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1196,10 +1206,10 @@
         <v>12.6</v>
       </c>
       <c r="F23" t="n">
-        <v>4232</v>
+        <v>1162.0271</v>
       </c>
       <c r="G23" t="n">
-        <v>3365958.52578568</v>
+        <v>3712201.53398568</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1213,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="C24" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="D24" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="E24" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="F24" t="n">
-        <v>8066.1647</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>3357892.36108568</v>
+        <v>3712241.53398568</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1248,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.69</v>
+        <v>12.61</v>
       </c>
       <c r="C25" t="n">
-        <v>12.69</v>
+        <v>12.56</v>
       </c>
       <c r="D25" t="n">
-        <v>12.69</v>
+        <v>12.61</v>
       </c>
       <c r="E25" t="n">
-        <v>12.69</v>
+        <v>12.56</v>
       </c>
       <c r="F25" t="n">
-        <v>231484.9179</v>
+        <v>267317.0216</v>
       </c>
       <c r="G25" t="n">
-        <v>3589377.27898568</v>
+        <v>3444924.51238568</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1283,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1292,25 +1305,25 @@
         <v>12.69</v>
       </c>
       <c r="C26" t="n">
-        <v>12.74</v>
+        <v>12.55</v>
       </c>
       <c r="D26" t="n">
-        <v>12.74</v>
+        <v>12.7</v>
       </c>
       <c r="E26" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="F26" t="n">
-        <v>538780.1843</v>
+        <v>27617.42350944882</v>
       </c>
       <c r="G26" t="n">
-        <v>4128157.46328568</v>
+        <v>3417307.088876232</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1318,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="C27" t="n">
         <v>12.69</v>
       </c>
       <c r="D27" t="n">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="E27" t="n">
-        <v>12.59</v>
+        <v>12.69</v>
       </c>
       <c r="F27" t="n">
-        <v>203991.1874</v>
+        <v>235.7384</v>
       </c>
       <c r="G27" t="n">
-        <v>3924166.27588568</v>
+        <v>3417542.827276232</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1353,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="C28" t="n">
-        <v>12.6</v>
+        <v>12.55</v>
       </c>
       <c r="D28" t="n">
-        <v>12.69</v>
+        <v>12.55</v>
       </c>
       <c r="E28" t="n">
-        <v>12.6</v>
+        <v>12.55</v>
       </c>
       <c r="F28" t="n">
-        <v>670236.0307</v>
+        <v>882.8262999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>3253930.24518568</v>
+        <v>3416660.000976232</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1388,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="C29" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="D29" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="E29" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="F29" t="n">
-        <v>13870.2339</v>
+        <v>93061.10490000001</v>
       </c>
       <c r="G29" t="n">
-        <v>3253930.24518568</v>
+        <v>3509721.105876232</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1423,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="C30" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="D30" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="E30" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="F30" t="n">
-        <v>25801.50793650794</v>
+        <v>10434.9715</v>
       </c>
       <c r="G30" t="n">
-        <v>3253930.24518568</v>
+        <v>3499286.134376232</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1458,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="C31" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="D31" t="n">
-        <v>12.6</v>
+        <v>12.69</v>
       </c>
       <c r="E31" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="F31" t="n">
-        <v>42.7653</v>
+        <v>83430.5312</v>
       </c>
       <c r="G31" t="n">
-        <v>3253930.24518568</v>
+        <v>3499286.134376232</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1493,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C32" t="n">
-        <v>12.43</v>
+        <v>12.7</v>
       </c>
       <c r="D32" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E32" t="n">
-        <v>12.43</v>
+        <v>12.7</v>
       </c>
       <c r="F32" t="n">
-        <v>56362.1866</v>
+        <v>349.9212598425197</v>
       </c>
       <c r="G32" t="n">
-        <v>3197568.05858568</v>
+        <v>3499636.055636074</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1528,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="C33" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="D33" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="E33" t="n">
-        <v>12.42</v>
+        <v>12.62</v>
       </c>
       <c r="F33" t="n">
-        <v>142128.5481</v>
+        <v>3846.8382</v>
       </c>
       <c r="G33" t="n">
-        <v>3339696.606685679</v>
+        <v>3495789.217436074</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1563,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.7</v>
+        <v>12.62</v>
       </c>
       <c r="C34" t="n">
-        <v>12.75</v>
+        <v>12.62</v>
       </c>
       <c r="D34" t="n">
-        <v>12.75</v>
+        <v>12.62</v>
       </c>
       <c r="E34" t="n">
-        <v>12.7</v>
+        <v>12.62</v>
       </c>
       <c r="F34" t="n">
-        <v>108652.3708</v>
+        <v>49958.0259</v>
       </c>
       <c r="G34" t="n">
-        <v>3448348.97748568</v>
+        <v>3495789.217436074</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1598,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="C35" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="D35" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="E35" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="F35" t="n">
-        <v>116939.9019</v>
+        <v>22337.961</v>
       </c>
       <c r="G35" t="n">
-        <v>3331409.07558568</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1633,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="C36" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="D36" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="E36" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="F36" t="n">
-        <v>22284.6726</v>
+        <v>2000</v>
       </c>
       <c r="G36" t="n">
-        <v>3331409.07558568</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1668,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="C37" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="D37" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="E37" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="F37" t="n">
-        <v>88216.9552</v>
+        <v>43000</v>
       </c>
       <c r="G37" t="n">
-        <v>3419626.03078568</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1703,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="C38" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="D38" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="E38" t="n">
-        <v>12.55</v>
+        <v>12.57</v>
       </c>
       <c r="F38" t="n">
-        <v>238.0709</v>
+        <v>32000</v>
       </c>
       <c r="G38" t="n">
-        <v>3419626.03078568</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1738,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1756,16 +1782,16 @@
         <v>12.55</v>
       </c>
       <c r="F39" t="n">
-        <v>20445.5502</v>
+        <v>45000</v>
       </c>
       <c r="G39" t="n">
-        <v>3419626.03078568</v>
+        <v>3428451.256436074</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1773,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.55</v>
+        <v>12.62</v>
       </c>
       <c r="C40" t="n">
-        <v>12.55</v>
+        <v>12.65</v>
       </c>
       <c r="D40" t="n">
-        <v>12.55</v>
+        <v>12.65</v>
       </c>
       <c r="E40" t="n">
-        <v>12.55</v>
+        <v>12.62</v>
       </c>
       <c r="F40" t="n">
-        <v>19637.9625</v>
+        <v>44653.6918</v>
       </c>
       <c r="G40" t="n">
-        <v>3419626.03078568</v>
+        <v>3473104.948236074</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1808,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="C41" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="D41" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="E41" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="F41" t="n">
-        <v>37852.1868</v>
+        <v>52586.9232</v>
       </c>
       <c r="G41" t="n">
-        <v>3381773.84398568</v>
+        <v>3525691.871436074</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.53</v>
+        <v>12.7</v>
       </c>
       <c r="C42" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="D42" t="n">
-        <v>12.53</v>
+        <v>12.7</v>
       </c>
       <c r="E42" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="F42" t="n">
-        <v>25801.508</v>
+        <v>101550.6523</v>
       </c>
       <c r="G42" t="n">
-        <v>3381773.84398568</v>
+        <v>3525691.871436074</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.51</v>
+        <v>12.69</v>
       </c>
       <c r="C43" t="n">
-        <v>12.51</v>
+        <v>12.73</v>
       </c>
       <c r="D43" t="n">
-        <v>12.51</v>
+        <v>12.73</v>
       </c>
       <c r="E43" t="n">
-        <v>12.51</v>
+        <v>12.69</v>
       </c>
       <c r="F43" t="n">
-        <v>9132.4282</v>
+        <v>19950.5368</v>
       </c>
       <c r="G43" t="n">
-        <v>3381773.84398568</v>
+        <v>3545642.408236074</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1913,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.69</v>
+        <v>12.77</v>
       </c>
       <c r="C44" t="n">
-        <v>12.69</v>
+        <v>12.8</v>
       </c>
       <c r="D44" t="n">
-        <v>12.69</v>
+        <v>12.8</v>
       </c>
       <c r="E44" t="n">
-        <v>12.69</v>
+        <v>12.76</v>
       </c>
       <c r="F44" t="n">
-        <v>12911.446</v>
+        <v>27037.2146</v>
       </c>
       <c r="G44" t="n">
-        <v>3394685.28998568</v>
+        <v>3572679.622836074</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1948,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.68</v>
+        <v>12.78</v>
       </c>
       <c r="C45" t="n">
-        <v>12.68</v>
+        <v>12.76</v>
       </c>
       <c r="D45" t="n">
-        <v>12.68</v>
+        <v>12.8</v>
       </c>
       <c r="E45" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="F45" t="n">
-        <v>8936</v>
+        <v>657584.3741702344</v>
       </c>
       <c r="G45" t="n">
-        <v>3385749.28998568</v>
+        <v>2915095.24866584</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.68</v>
+        <v>12.77</v>
       </c>
       <c r="C46" t="n">
-        <v>12.68</v>
+        <v>12.79</v>
       </c>
       <c r="D46" t="n">
-        <v>12.68</v>
+        <v>12.8</v>
       </c>
       <c r="E46" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="F46" t="n">
-        <v>22906.06324479495</v>
+        <v>108479.1007</v>
       </c>
       <c r="G46" t="n">
-        <v>3385749.28998568</v>
+        <v>3023574.34936584</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2018,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.68</v>
+        <v>12.78</v>
       </c>
       <c r="C47" t="n">
-        <v>12.53</v>
+        <v>12.78</v>
       </c>
       <c r="D47" t="n">
-        <v>12.68</v>
+        <v>12.79</v>
       </c>
       <c r="E47" t="n">
-        <v>12.53</v>
+        <v>12.78</v>
       </c>
       <c r="F47" t="n">
-        <v>11644.7395</v>
+        <v>139564.0082</v>
       </c>
       <c r="G47" t="n">
-        <v>3374104.55048568</v>
+        <v>2884010.34116584</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.53</v>
+        <v>12.78</v>
       </c>
       <c r="C48" t="n">
-        <v>12.44</v>
+        <v>12.82</v>
       </c>
       <c r="D48" t="n">
-        <v>12.53</v>
+        <v>12.82</v>
       </c>
       <c r="E48" t="n">
-        <v>12.44</v>
+        <v>12.78</v>
       </c>
       <c r="F48" t="n">
-        <v>27538.9274</v>
+        <v>1356.306429765625</v>
       </c>
       <c r="G48" t="n">
-        <v>3346565.62308568</v>
+        <v>2885366.647595605</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2088,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.6</v>
+        <v>12.81</v>
       </c>
       <c r="C49" t="n">
-        <v>12.6</v>
+        <v>12.83</v>
       </c>
       <c r="D49" t="n">
-        <v>12.6</v>
+        <v>12.83</v>
       </c>
       <c r="E49" t="n">
-        <v>12.6</v>
+        <v>12.81</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>698.4212</v>
       </c>
       <c r="G49" t="n">
-        <v>3346665.62308568</v>
+        <v>2886065.068795606</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2123,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.6</v>
+        <v>12.83</v>
       </c>
       <c r="C50" t="n">
-        <v>12.6</v>
+        <v>12.99</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6</v>
+        <v>12.99</v>
       </c>
       <c r="E50" t="n">
-        <v>12.6</v>
+        <v>12.83</v>
       </c>
       <c r="F50" t="n">
-        <v>23164.8846</v>
+        <v>107403.4052</v>
       </c>
       <c r="G50" t="n">
-        <v>3346665.62308568</v>
+        <v>2993468.473995605</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2158,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.6</v>
+        <v>12.99</v>
       </c>
       <c r="C51" t="n">
-        <v>12.68</v>
+        <v>12.62</v>
       </c>
       <c r="D51" t="n">
-        <v>12.68</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="F51" t="n">
-        <v>482783.7708</v>
+        <v>461195.1466</v>
       </c>
       <c r="G51" t="n">
-        <v>3829449.39388568</v>
+        <v>2532273.327395605</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2193,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.68</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
       <c r="D52" t="n">
-        <v>12.68</v>
+        <v>13.04</v>
       </c>
       <c r="E52" t="n">
-        <v>12.68</v>
+        <v>12.7</v>
       </c>
       <c r="F52" t="n">
-        <v>400.8031</v>
+        <v>10672.3352</v>
       </c>
       <c r="G52" t="n">
-        <v>3829449.39388568</v>
+        <v>2542945.662595605</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2228,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.68</v>
+        <v>12.72</v>
       </c>
       <c r="C53" t="n">
-        <v>12.51</v>
+        <v>12.72</v>
       </c>
       <c r="D53" t="n">
-        <v>12.7</v>
+        <v>12.72</v>
       </c>
       <c r="E53" t="n">
-        <v>12.51</v>
+        <v>12.72</v>
       </c>
       <c r="F53" t="n">
-        <v>111201.3031</v>
+        <v>36048.8408</v>
       </c>
       <c r="G53" t="n">
-        <v>3718248.09078568</v>
+        <v>2578994.503395605</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2263,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.6</v>
+        <v>12.74</v>
       </c>
       <c r="C54" t="n">
-        <v>12.6</v>
+        <v>12.75</v>
       </c>
       <c r="D54" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E54" t="n">
-        <v>12.6</v>
+        <v>12.74</v>
       </c>
       <c r="F54" t="n">
-        <v>2406.3837</v>
+        <v>7498.351</v>
       </c>
       <c r="G54" t="n">
-        <v>3720654.47448568</v>
+        <v>2586492.854395605</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.6</v>
+        <v>12.77</v>
       </c>
       <c r="C55" t="n">
-        <v>12.6</v>
+        <v>12.71</v>
       </c>
       <c r="D55" t="n">
-        <v>12.6</v>
+        <v>12.77</v>
       </c>
       <c r="E55" t="n">
-        <v>12.6</v>
+        <v>12.71</v>
       </c>
       <c r="F55" t="n">
-        <v>16548.2106</v>
+        <v>30771.5248</v>
       </c>
       <c r="G55" t="n">
-        <v>3720654.47448568</v>
+        <v>2555721.329595605</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2333,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D56" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F56" t="n">
-        <v>2948.3896</v>
+        <v>7454.351</v>
       </c>
       <c r="G56" t="n">
-        <v>3720654.47448568</v>
+        <v>2548266.978595606</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2368,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C57" t="n">
-        <v>12.6</v>
+        <v>12.72</v>
       </c>
       <c r="D57" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F57" t="n">
-        <v>12522.9145</v>
+        <v>100033.1098</v>
       </c>
       <c r="G57" t="n">
-        <v>3720654.47448568</v>
+        <v>2648300.088395606</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2403,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F58" t="n">
-        <v>29140.1309</v>
+        <v>36945.5477</v>
       </c>
       <c r="G58" t="n">
-        <v>3720654.47448568</v>
+        <v>2611354.540695606</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2438,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.6</v>
+        <v>12.89</v>
       </c>
       <c r="C59" t="n">
-        <v>12.6</v>
+        <v>12.99</v>
       </c>
       <c r="D59" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>12.6</v>
+        <v>12.89</v>
       </c>
       <c r="F59" t="n">
-        <v>39664.9746</v>
+        <v>138071.9323032925</v>
       </c>
       <c r="G59" t="n">
-        <v>3720654.47448568</v>
+        <v>2749426.472998898</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2473,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.61</v>
+        <v>12.74</v>
       </c>
       <c r="C60" t="n">
-        <v>12.61</v>
+        <v>12.74</v>
       </c>
       <c r="D60" t="n">
-        <v>12.61</v>
+        <v>12.74</v>
       </c>
       <c r="E60" t="n">
-        <v>12.61</v>
+        <v>12.74</v>
       </c>
       <c r="F60" t="n">
-        <v>4472.3047</v>
+        <v>6747.1336</v>
       </c>
       <c r="G60" t="n">
-        <v>3725126.77918568</v>
+        <v>2742679.339398899</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2508,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.61</v>
+        <v>12.75</v>
       </c>
       <c r="C61" t="n">
-        <v>12.61</v>
+        <v>12.75</v>
       </c>
       <c r="D61" t="n">
-        <v>12.61</v>
+        <v>12.75</v>
       </c>
       <c r="E61" t="n">
-        <v>12.61</v>
+        <v>12.75</v>
       </c>
       <c r="F61" t="n">
-        <v>36201.6181</v>
+        <v>6347.3216</v>
       </c>
       <c r="G61" t="n">
-        <v>3725126.77918568</v>
+        <v>2749026.660998899</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2543,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.6</v>
+        <v>12.76</v>
       </c>
       <c r="C62" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D62" t="n">
-        <v>12.6</v>
+        <v>12.97</v>
       </c>
       <c r="E62" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F62" t="n">
-        <v>12425.2452</v>
+        <v>92634.1744</v>
       </c>
       <c r="G62" t="n">
-        <v>3712701.53398568</v>
+        <v>2656392.486598899</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2578,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.7</v>
+        <v>12.71</v>
       </c>
       <c r="C63" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="D63" t="n">
-        <v>12.7</v>
+        <v>12.71</v>
       </c>
       <c r="E63" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="F63" t="n">
-        <v>1500</v>
+        <v>12498.2752</v>
       </c>
       <c r="G63" t="n">
-        <v>3714201.53398568</v>
+        <v>2643894.211398899</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2613,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.6</v>
+        <v>12.71</v>
       </c>
       <c r="C64" t="n">
-        <v>12.6</v>
+        <v>12.65</v>
       </c>
       <c r="D64" t="n">
-        <v>12.6</v>
+        <v>12.71</v>
       </c>
       <c r="E64" t="n">
-        <v>12.6</v>
+        <v>12.65</v>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>160725.9826</v>
       </c>
       <c r="G64" t="n">
-        <v>3712201.53398568</v>
+        <v>2643894.211398899</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2648,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.6</v>
+        <v>12.71</v>
       </c>
       <c r="C65" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D65" t="n">
-        <v>12.6</v>
+        <v>12.71</v>
       </c>
       <c r="E65" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F65" t="n">
-        <v>1162.0271</v>
+        <v>64422.3064</v>
       </c>
       <c r="G65" t="n">
-        <v>3712201.53398568</v>
+        <v>2708316.517798899</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2683,34 +2735,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.69</v>
+        <v>12.65</v>
       </c>
       <c r="C66" t="n">
-        <v>12.69</v>
+        <v>12.65</v>
       </c>
       <c r="D66" t="n">
-        <v>12.69</v>
+        <v>12.65</v>
       </c>
       <c r="E66" t="n">
-        <v>12.69</v>
+        <v>12.65</v>
       </c>
       <c r="F66" t="n">
-        <v>40</v>
+        <v>38440.547</v>
       </c>
       <c r="G66" t="n">
-        <v>3712241.53398568</v>
+        <v>2669875.970798899</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2718,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.61</v>
+        <v>12.65</v>
       </c>
       <c r="C67" t="n">
-        <v>12.56</v>
+        <v>12.65</v>
       </c>
       <c r="D67" t="n">
-        <v>12.61</v>
+        <v>12.65</v>
       </c>
       <c r="E67" t="n">
-        <v>12.56</v>
+        <v>12.65</v>
       </c>
       <c r="F67" t="n">
-        <v>267317.0216</v>
+        <v>12989.8153</v>
       </c>
       <c r="G67" t="n">
-        <v>3444924.51238568</v>
+        <v>2669875.970798899</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2753,34 +2807,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.69</v>
+        <v>12.9</v>
       </c>
       <c r="C68" t="n">
-        <v>12.55</v>
+        <v>12.9</v>
       </c>
       <c r="D68" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E68" t="n">
-        <v>12.55</v>
+        <v>12.9</v>
       </c>
       <c r="F68" t="n">
-        <v>27617.42350944882</v>
+        <v>722.7172</v>
       </c>
       <c r="G68" t="n">
-        <v>3417307.088876232</v>
+        <v>2670598.687998899</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2788,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="C69" t="n">
-        <v>12.69</v>
+        <v>12.65</v>
       </c>
       <c r="D69" t="n">
-        <v>12.69</v>
+        <v>12.8</v>
       </c>
       <c r="E69" t="n">
-        <v>12.69</v>
+        <v>12.65</v>
       </c>
       <c r="F69" t="n">
-        <v>235.7384</v>
+        <v>88886.57490000001</v>
       </c>
       <c r="G69" t="n">
-        <v>3417542.827276232</v>
+        <v>2581712.113098899</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2823,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.55</v>
+        <v>12.7</v>
       </c>
       <c r="C70" t="n">
-        <v>12.55</v>
+        <v>12.7</v>
       </c>
       <c r="D70" t="n">
-        <v>12.55</v>
+        <v>12.7</v>
       </c>
       <c r="E70" t="n">
-        <v>12.55</v>
+        <v>12.7</v>
       </c>
       <c r="F70" t="n">
-        <v>882.8262999999999</v>
+        <v>2458.4557</v>
       </c>
       <c r="G70" t="n">
-        <v>3416660.000976232</v>
+        <v>2584170.568798899</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2858,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="C71" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="D71" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="E71" t="n">
-        <v>12.69</v>
+        <v>12.7</v>
       </c>
       <c r="F71" t="n">
-        <v>93061.10490000001</v>
+        <v>1180</v>
       </c>
       <c r="G71" t="n">
-        <v>3509721.105876232</v>
+        <v>2584170.568798899</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2893,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.62</v>
+        <v>12.66</v>
       </c>
       <c r="C72" t="n">
-        <v>12.62</v>
+        <v>12.66</v>
       </c>
       <c r="D72" t="n">
-        <v>12.62</v>
+        <v>12.66</v>
       </c>
       <c r="E72" t="n">
-        <v>12.62</v>
+        <v>12.66</v>
       </c>
       <c r="F72" t="n">
-        <v>10434.9715</v>
+        <v>20934.9721</v>
       </c>
       <c r="G72" t="n">
-        <v>3499286.134376232</v>
+        <v>2563235.596698899</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2928,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.69</v>
+        <v>12.66</v>
       </c>
       <c r="C73" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="D73" t="n">
-        <v>12.69</v>
+        <v>12.66</v>
       </c>
       <c r="E73" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="F73" t="n">
-        <v>83430.5312</v>
+        <v>184300.8593</v>
       </c>
       <c r="G73" t="n">
-        <v>3499286.134376232</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2963,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.7</v>
+        <v>12.69</v>
       </c>
       <c r="C74" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="D74" t="n">
         <v>12.7</v>
       </c>
       <c r="E74" t="n">
-        <v>12.7</v>
+        <v>12.65</v>
       </c>
       <c r="F74" t="n">
-        <v>349.9212598425197</v>
+        <v>12274.0787</v>
       </c>
       <c r="G74" t="n">
-        <v>3499636.055636074</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2998,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="C75" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="D75" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="E75" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="F75" t="n">
-        <v>3846.8382</v>
+        <v>4509.5707</v>
       </c>
       <c r="G75" t="n">
-        <v>3495789.217436074</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3033,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="C76" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="D76" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="E76" t="n">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="F76" t="n">
-        <v>49958.0259</v>
+        <v>494.5997</v>
       </c>
       <c r="G76" t="n">
-        <v>3495789.217436074</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3068,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="C77" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="D77" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="E77" t="n">
-        <v>12.57</v>
+        <v>12.62</v>
       </c>
       <c r="F77" t="n">
-        <v>22337.961</v>
+        <v>234236.7493</v>
       </c>
       <c r="G77" t="n">
-        <v>3473451.256436074</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3103,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="C78" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="D78" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="E78" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="F78" t="n">
-        <v>2000</v>
+        <v>18952.5</v>
       </c>
       <c r="G78" t="n">
-        <v>3473451.256436074</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3138,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.57</v>
+        <v>12.76</v>
       </c>
       <c r="C79" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="D79" t="n">
-        <v>12.57</v>
+        <v>12.76</v>
       </c>
       <c r="E79" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="F79" t="n">
-        <v>43000</v>
+        <v>22909.8728</v>
       </c>
       <c r="G79" t="n">
-        <v>3473451.256436074</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3173,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="C80" t="n">
-        <v>12.57</v>
+        <v>12.7</v>
       </c>
       <c r="D80" t="n">
-        <v>12.57</v>
+        <v>12.7</v>
       </c>
       <c r="E80" t="n">
-        <v>12.57</v>
+        <v>12.65</v>
       </c>
       <c r="F80" t="n">
-        <v>32000</v>
+        <v>51761.9066</v>
       </c>
       <c r="G80" t="n">
-        <v>3473451.256436074</v>
+        <v>2430696.643998899</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3208,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.55</v>
+        <v>12.6</v>
       </c>
       <c r="C81" t="n">
-        <v>12.55</v>
+        <v>12.6</v>
       </c>
       <c r="D81" t="n">
-        <v>12.55</v>
+        <v>12.6</v>
       </c>
       <c r="E81" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
       <c r="F81" t="n">
-        <v>45000</v>
+        <v>98976.1058</v>
       </c>
       <c r="G81" t="n">
-        <v>3428451.256436074</v>
+        <v>2331720.538198899</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3243,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.62</v>
+        <v>12.54</v>
       </c>
       <c r="C82" t="n">
-        <v>12.65</v>
+        <v>12.54</v>
       </c>
       <c r="D82" t="n">
-        <v>12.65</v>
+        <v>12.54</v>
       </c>
       <c r="E82" t="n">
-        <v>12.62</v>
+        <v>12.54</v>
       </c>
       <c r="F82" t="n">
-        <v>44653.6918</v>
+        <v>23427.7976</v>
       </c>
       <c r="G82" t="n">
-        <v>3473104.948236074</v>
+        <v>2308292.740598898</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3278,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="C83" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="D83" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="E83" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="F83" t="n">
-        <v>52586.9232</v>
+        <v>5621.9861</v>
       </c>
       <c r="G83" t="n">
-        <v>3525691.871436074</v>
+        <v>2302670.754498899</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3313,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
       <c r="C84" t="n">
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
       <c r="D84" t="n">
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
       <c r="E84" t="n">
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
       <c r="F84" t="n">
-        <v>101550.6523</v>
+        <v>6572.2024</v>
       </c>
       <c r="G84" t="n">
-        <v>3525691.871436074</v>
+        <v>2309242.956898898</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.69</v>
+        <v>12.6</v>
       </c>
       <c r="C85" t="n">
-        <v>12.73</v>
+        <v>12.6</v>
       </c>
       <c r="D85" t="n">
-        <v>12.73</v>
+        <v>12.6</v>
       </c>
       <c r="E85" t="n">
-        <v>12.69</v>
+        <v>12.6</v>
       </c>
       <c r="F85" t="n">
-        <v>19950.5368</v>
+        <v>108382</v>
       </c>
       <c r="G85" t="n">
-        <v>3545642.408236074</v>
+        <v>2417624.956898898</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3383,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.77</v>
+        <v>12.68</v>
       </c>
       <c r="C86" t="n">
-        <v>12.8</v>
+        <v>12.68</v>
       </c>
       <c r="D86" t="n">
-        <v>12.8</v>
+        <v>12.68</v>
       </c>
       <c r="E86" t="n">
-        <v>12.76</v>
+        <v>12.68</v>
       </c>
       <c r="F86" t="n">
-        <v>27037.2146</v>
+        <v>78698.4203</v>
       </c>
       <c r="G86" t="n">
-        <v>3572679.622836074</v>
+        <v>2496323.377198898</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3418,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.78</v>
+        <v>12.6</v>
       </c>
       <c r="C87" t="n">
-        <v>12.76</v>
+        <v>12.6</v>
       </c>
       <c r="D87" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E87" t="n">
         <v>12.6</v>
       </c>
       <c r="F87" t="n">
-        <v>657584.3741702344</v>
+        <v>49000</v>
       </c>
       <c r="G87" t="n">
-        <v>2915095.24866584</v>
+        <v>2447323.377198898</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.77</v>
+        <v>12.53</v>
       </c>
       <c r="C88" t="n">
-        <v>12.79</v>
+        <v>12.5</v>
       </c>
       <c r="D88" t="n">
-        <v>12.8</v>
+        <v>12.53</v>
       </c>
       <c r="E88" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F88" t="n">
-        <v>108479.1007</v>
+        <v>77826.6753</v>
       </c>
       <c r="G88" t="n">
-        <v>3023574.34936584</v>
+        <v>2369496.701898898</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.78</v>
+        <v>12.51</v>
       </c>
       <c r="C89" t="n">
-        <v>12.78</v>
+        <v>12.5</v>
       </c>
       <c r="D89" t="n">
-        <v>12.79</v>
+        <v>12.51</v>
       </c>
       <c r="E89" t="n">
-        <v>12.78</v>
+        <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>139564.0082</v>
+        <v>70000</v>
       </c>
       <c r="G89" t="n">
-        <v>2884010.34116584</v>
+        <v>2369496.701898898</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,34 +3599,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.78</v>
+        <v>12.5</v>
       </c>
       <c r="C90" t="n">
-        <v>12.82</v>
+        <v>12.5</v>
       </c>
       <c r="D90" t="n">
-        <v>12.82</v>
+        <v>12.5</v>
       </c>
       <c r="E90" t="n">
-        <v>12.78</v>
+        <v>12.5</v>
       </c>
       <c r="F90" t="n">
-        <v>1356.306429765625</v>
+        <v>5125.2753</v>
       </c>
       <c r="G90" t="n">
-        <v>2885366.647595605</v>
+        <v>2369496.701898898</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3558,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.81</v>
+        <v>12.5</v>
       </c>
       <c r="C91" t="n">
-        <v>12.83</v>
+        <v>12.45</v>
       </c>
       <c r="D91" t="n">
-        <v>12.83</v>
+        <v>12.5</v>
       </c>
       <c r="E91" t="n">
-        <v>12.81</v>
+        <v>12.45</v>
       </c>
       <c r="F91" t="n">
-        <v>698.4212</v>
+        <v>137838.368</v>
       </c>
       <c r="G91" t="n">
-        <v>2886065.068795606</v>
+        <v>2231658.333898898</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3593,34 +3671,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.83</v>
+        <v>12.6</v>
       </c>
       <c r="C92" t="n">
-        <v>12.99</v>
+        <v>12.6</v>
       </c>
       <c r="D92" t="n">
-        <v>12.99</v>
+        <v>12.6</v>
       </c>
       <c r="E92" t="n">
-        <v>12.83</v>
+        <v>12.6</v>
       </c>
       <c r="F92" t="n">
-        <v>107403.4052</v>
+        <v>793.7091</v>
       </c>
       <c r="G92" t="n">
-        <v>2993468.473995605</v>
+        <v>2232452.042998898</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3628,34 +3707,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.99</v>
+        <v>12.59</v>
       </c>
       <c r="C93" t="n">
-        <v>12.62</v>
+        <v>12.59</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>12.59</v>
       </c>
       <c r="E93" t="n">
-        <v>12.62</v>
+        <v>12.59</v>
       </c>
       <c r="F93" t="n">
-        <v>461195.1466</v>
+        <v>13395.7374</v>
       </c>
       <c r="G93" t="n">
-        <v>2532273.327395605</v>
+        <v>2219056.305598898</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3663,34 +3743,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13</v>
+        <v>12.53</v>
       </c>
       <c r="C94" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="D94" t="n">
-        <v>13.04</v>
+        <v>12.53</v>
       </c>
       <c r="E94" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="F94" t="n">
-        <v>10672.3352</v>
+        <v>3333</v>
       </c>
       <c r="G94" t="n">
-        <v>2542945.662595605</v>
+        <v>2215723.305598898</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3698,34 +3779,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.72</v>
+        <v>12.53</v>
       </c>
       <c r="C95" t="n">
-        <v>12.72</v>
+        <v>12.53</v>
       </c>
       <c r="D95" t="n">
-        <v>12.72</v>
+        <v>12.53</v>
       </c>
       <c r="E95" t="n">
-        <v>12.72</v>
+        <v>12.53</v>
       </c>
       <c r="F95" t="n">
-        <v>36048.8408</v>
+        <v>188.7888</v>
       </c>
       <c r="G95" t="n">
-        <v>2578994.503395605</v>
+        <v>2215723.305598898</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3733,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.74</v>
+        <v>12.52</v>
       </c>
       <c r="C96" t="n">
-        <v>12.75</v>
+        <v>12.52</v>
       </c>
       <c r="D96" t="n">
-        <v>12.8</v>
+        <v>12.52</v>
       </c>
       <c r="E96" t="n">
-        <v>12.74</v>
+        <v>12.52</v>
       </c>
       <c r="F96" t="n">
-        <v>7498.351</v>
+        <v>198328.993</v>
       </c>
       <c r="G96" t="n">
-        <v>2586492.854395605</v>
+        <v>2017394.312598898</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.77</v>
+        <v>12.48</v>
       </c>
       <c r="C97" t="n">
-        <v>12.71</v>
+        <v>12.48</v>
       </c>
       <c r="D97" t="n">
-        <v>12.77</v>
+        <v>12.48</v>
       </c>
       <c r="E97" t="n">
-        <v>12.71</v>
+        <v>12.48</v>
       </c>
       <c r="F97" t="n">
-        <v>30771.5248</v>
+        <v>118589.7427</v>
       </c>
       <c r="G97" t="n">
-        <v>2555721.329595605</v>
+        <v>1898804.569898898</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.9</v>
+        <v>12.47</v>
       </c>
       <c r="C98" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D98" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="E98" t="n">
-        <v>12.7</v>
+        <v>12.47</v>
       </c>
       <c r="F98" t="n">
-        <v>7454.351</v>
+        <v>546035.9447</v>
       </c>
       <c r="G98" t="n">
-        <v>2548266.978595606</v>
+        <v>2444840.514598898</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,34 +3923,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="C99" t="n">
-        <v>12.72</v>
+        <v>12.53</v>
       </c>
       <c r="D99" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="E99" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="F99" t="n">
-        <v>100033.1098</v>
+        <v>5737.1169</v>
       </c>
       <c r="G99" t="n">
-        <v>2648300.088395606</v>
+        <v>2450577.631498898</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3873,34 +3959,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="C100" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="D100" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="E100" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="F100" t="n">
-        <v>36945.5477</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>2611354.540695606</v>
+        <v>2450577.631498898</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3908,34 +3995,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.89</v>
+        <v>12.53</v>
       </c>
       <c r="C101" t="n">
-        <v>12.99</v>
+        <v>12.53</v>
       </c>
       <c r="D101" t="n">
-        <v>13</v>
+        <v>12.53</v>
       </c>
       <c r="E101" t="n">
-        <v>12.89</v>
+        <v>12.53</v>
       </c>
       <c r="F101" t="n">
-        <v>138071.9323032925</v>
+        <v>50771.3765</v>
       </c>
       <c r="G101" t="n">
-        <v>2749426.472998898</v>
+        <v>2450577.631498898</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3943,34 +4031,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.74</v>
+        <v>12.5</v>
       </c>
       <c r="C102" t="n">
-        <v>12.74</v>
+        <v>12.5</v>
       </c>
       <c r="D102" t="n">
-        <v>12.74</v>
+        <v>12.5</v>
       </c>
       <c r="E102" t="n">
-        <v>12.74</v>
+        <v>12.5</v>
       </c>
       <c r="F102" t="n">
-        <v>6747.1336</v>
+        <v>885.7344000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>2742679.339398899</v>
+        <v>2449691.897098898</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3978,34 +4067,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.75</v>
+        <v>12.52</v>
       </c>
       <c r="C103" t="n">
-        <v>12.75</v>
+        <v>12.53</v>
       </c>
       <c r="D103" t="n">
-        <v>12.75</v>
+        <v>12.53</v>
       </c>
       <c r="E103" t="n">
-        <v>12.75</v>
+        <v>12.52</v>
       </c>
       <c r="F103" t="n">
-        <v>6347.3216</v>
+        <v>22674.6709</v>
       </c>
       <c r="G103" t="n">
-        <v>2749026.660998899</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4013,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.76</v>
+        <v>12.53</v>
       </c>
       <c r="C104" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="D104" t="n">
-        <v>12.97</v>
+        <v>12.53</v>
       </c>
       <c r="E104" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="F104" t="n">
-        <v>92634.1744</v>
+        <v>198.6048</v>
       </c>
       <c r="G104" t="n">
-        <v>2656392.486598899</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,34 +4139,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.71</v>
+        <v>12.53</v>
       </c>
       <c r="C105" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="D105" t="n">
-        <v>12.71</v>
+        <v>12.53</v>
       </c>
       <c r="E105" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="F105" t="n">
-        <v>12498.2752</v>
+        <v>46958.4539</v>
       </c>
       <c r="G105" t="n">
-        <v>2643894.211398899</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4083,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.71</v>
+        <v>12.53</v>
       </c>
       <c r="C106" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="D106" t="n">
-        <v>12.71</v>
+        <v>12.53</v>
       </c>
       <c r="E106" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="F106" t="n">
-        <v>160725.9826</v>
+        <v>0.0001</v>
       </c>
       <c r="G106" t="n">
-        <v>2643894.211398899</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4118,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.71</v>
+        <v>12.52</v>
       </c>
       <c r="C107" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="D107" t="n">
-        <v>12.71</v>
+        <v>12.52</v>
       </c>
       <c r="E107" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="F107" t="n">
-        <v>64422.3064</v>
+        <v>94543.5436</v>
       </c>
       <c r="G107" t="n">
-        <v>2708316.517798899</v>
+        <v>2377823.024398898</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4153,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="C108" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="D108" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="E108" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="F108" t="n">
-        <v>38440.547</v>
+        <v>1561.1059</v>
       </c>
       <c r="G108" t="n">
-        <v>2669875.970798899</v>
+        <v>2377823.024398898</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4188,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="C109" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="D109" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="E109" t="n">
-        <v>12.65</v>
+        <v>12.51</v>
       </c>
       <c r="F109" t="n">
-        <v>12989.8153</v>
+        <v>271461.6904</v>
       </c>
       <c r="G109" t="n">
-        <v>2669875.970798899</v>
+        <v>2377823.024398898</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4223,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.9</v>
+        <v>12.59</v>
       </c>
       <c r="C110" t="n">
-        <v>12.9</v>
+        <v>12.59</v>
       </c>
       <c r="D110" t="n">
-        <v>12.9</v>
+        <v>12.59</v>
       </c>
       <c r="E110" t="n">
-        <v>12.9</v>
+        <v>12.59</v>
       </c>
       <c r="F110" t="n">
-        <v>722.7172</v>
+        <v>237.6901</v>
       </c>
       <c r="G110" t="n">
-        <v>2670598.687998899</v>
+        <v>2378060.714498898</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4258,34 +4355,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.7</v>
+        <v>12.59</v>
       </c>
       <c r="C111" t="n">
-        <v>12.65</v>
+        <v>12.61</v>
       </c>
       <c r="D111" t="n">
-        <v>12.8</v>
+        <v>12.61</v>
       </c>
       <c r="E111" t="n">
-        <v>12.65</v>
+        <v>12.59</v>
       </c>
       <c r="F111" t="n">
-        <v>88886.57490000001</v>
+        <v>100000</v>
       </c>
       <c r="G111" t="n">
-        <v>2581712.113098899</v>
+        <v>2478060.714498898</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4293,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="C112" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="D112" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="E112" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="F112" t="n">
-        <v>2458.4557</v>
+        <v>18231.0547</v>
       </c>
       <c r="G112" t="n">
-        <v>2584170.568798899</v>
+        <v>2459829.659798897</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4328,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="C113" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="D113" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="E113" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="F113" t="n">
-        <v>1180</v>
+        <v>91595.9822</v>
       </c>
       <c r="G113" t="n">
-        <v>2584170.568798899</v>
+        <v>2459829.659798897</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4363,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="C114" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="D114" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="E114" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="F114" t="n">
-        <v>20934.9721</v>
+        <v>80000</v>
       </c>
       <c r="G114" t="n">
-        <v>2563235.596698899</v>
+        <v>2379829.659798897</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4398,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="C115" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="D115" t="n">
-        <v>12.66</v>
+        <v>12.5</v>
       </c>
       <c r="E115" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="F115" t="n">
-        <v>184300.8593</v>
+        <v>4666.8586</v>
       </c>
       <c r="G115" t="n">
-        <v>2378934.737398899</v>
+        <v>2379829.659798897</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4433,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.69</v>
+        <v>12.45</v>
       </c>
       <c r="C116" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="D116" t="n">
-        <v>12.7</v>
+        <v>12.45</v>
       </c>
       <c r="E116" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="F116" t="n">
-        <v>12274.0787</v>
+        <v>84869.787</v>
       </c>
       <c r="G116" t="n">
-        <v>2378934.737398899</v>
+        <v>2294959.872798897</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4468,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="C117" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="D117" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="E117" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="F117" t="n">
-        <v>4509.5707</v>
+        <v>330252.2085</v>
       </c>
       <c r="G117" t="n">
-        <v>2378934.737398899</v>
+        <v>2294959.872798897</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4503,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="C118" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="D118" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="E118" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="F118" t="n">
-        <v>494.5997</v>
+        <v>1791.9106</v>
       </c>
       <c r="G118" t="n">
-        <v>2378934.737398899</v>
+        <v>2296751.783398897</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4538,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="C119" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="D119" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="E119" t="n">
-        <v>12.62</v>
+        <v>12.55</v>
       </c>
       <c r="F119" t="n">
-        <v>234236.7493</v>
+        <v>13144.2526</v>
       </c>
       <c r="G119" t="n">
-        <v>2378934.737398899</v>
+        <v>2296751.783398897</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4573,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.65</v>
+        <v>12.56</v>
       </c>
       <c r="C120" t="n">
-        <v>12.65</v>
+        <v>12.56</v>
       </c>
       <c r="D120" t="n">
-        <v>12.65</v>
+        <v>12.56</v>
       </c>
       <c r="E120" t="n">
-        <v>12.65</v>
+        <v>12.56</v>
       </c>
       <c r="F120" t="n">
-        <v>18952.5</v>
+        <v>24000</v>
       </c>
       <c r="G120" t="n">
-        <v>2378934.737398899</v>
+        <v>2320751.783398897</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4608,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.76</v>
+        <v>12.56</v>
       </c>
       <c r="C121" t="n">
-        <v>12.65</v>
+        <v>12.56</v>
       </c>
       <c r="D121" t="n">
-        <v>12.76</v>
+        <v>12.56</v>
       </c>
       <c r="E121" t="n">
-        <v>12.65</v>
+        <v>12.56</v>
       </c>
       <c r="F121" t="n">
-        <v>22909.8728</v>
+        <v>11085.1914</v>
       </c>
       <c r="G121" t="n">
-        <v>2378934.737398899</v>
+        <v>2320751.783398897</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4643,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="C122" t="n">
-        <v>12.7</v>
+        <v>12.45</v>
       </c>
       <c r="D122" t="n">
-        <v>12.7</v>
+        <v>12.45</v>
       </c>
       <c r="E122" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
       <c r="F122" t="n">
-        <v>51761.9066</v>
+        <v>74389.478</v>
       </c>
       <c r="G122" t="n">
-        <v>2430696.643998899</v>
+        <v>2246362.305398897</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4678,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.6</v>
+        <v>12.45</v>
       </c>
       <c r="C123" t="n">
-        <v>12.6</v>
+        <v>12.45</v>
       </c>
       <c r="D123" t="n">
-        <v>12.6</v>
+        <v>12.45</v>
       </c>
       <c r="E123" t="n">
-        <v>12.54</v>
+        <v>12.45</v>
       </c>
       <c r="F123" t="n">
-        <v>98976.1058</v>
+        <v>339.7803</v>
       </c>
       <c r="G123" t="n">
-        <v>2331720.538198899</v>
+        <v>2246362.305398897</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4713,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.54</v>
+        <v>12.49</v>
       </c>
       <c r="C124" t="n">
-        <v>12.54</v>
+        <v>12.49</v>
       </c>
       <c r="D124" t="n">
-        <v>12.54</v>
+        <v>12.49</v>
       </c>
       <c r="E124" t="n">
-        <v>12.54</v>
+        <v>12.49</v>
       </c>
       <c r="F124" t="n">
-        <v>23427.7976</v>
+        <v>3112.1442</v>
       </c>
       <c r="G124" t="n">
-        <v>2308292.740598898</v>
+        <v>2249474.449598897</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4748,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.53</v>
+        <v>12.49</v>
       </c>
       <c r="C125" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="D125" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="E125" t="n">
-        <v>12.53</v>
+        <v>12.49</v>
       </c>
       <c r="F125" t="n">
-        <v>5621.9861</v>
+        <v>100219.7434</v>
       </c>
       <c r="G125" t="n">
-        <v>2302670.754498899</v>
+        <v>2349694.192998897</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4783,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="C126" t="n">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="D126" t="n">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="E126" t="n">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="F126" t="n">
-        <v>6572.2024</v>
+        <v>71618.4281</v>
       </c>
       <c r="G126" t="n">
-        <v>2309242.956898898</v>
+        <v>2421312.621098897</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4818,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C127" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D127" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E127" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F127" t="n">
-        <v>108382</v>
+        <v>41363.9493</v>
       </c>
       <c r="G127" t="n">
-        <v>2417624.956898898</v>
+        <v>2379948.671798897</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4853,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.68</v>
+        <v>12.5</v>
       </c>
       <c r="C128" t="n">
-        <v>12.68</v>
+        <v>12.5</v>
       </c>
       <c r="D128" t="n">
-        <v>12.68</v>
+        <v>12.5</v>
       </c>
       <c r="E128" t="n">
-        <v>12.68</v>
+        <v>12.5</v>
       </c>
       <c r="F128" t="n">
-        <v>78698.4203</v>
+        <v>16799.7862</v>
       </c>
       <c r="G128" t="n">
-        <v>2496323.377198898</v>
+        <v>2379948.671798897</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4888,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C129" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D129" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E129" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F129" t="n">
-        <v>49000</v>
+        <v>3502.7278</v>
       </c>
       <c r="G129" t="n">
-        <v>2447323.377198898</v>
+        <v>2379948.671798897</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4923,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="C130" t="n">
         <v>12.5</v>
       </c>
       <c r="D130" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="E130" t="n">
         <v>12.5</v>
       </c>
       <c r="F130" t="n">
-        <v>77826.6753</v>
+        <v>146235</v>
       </c>
       <c r="G130" t="n">
-        <v>2369496.701898898</v>
+        <v>2379948.671798897</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4958,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="C131" t="n">
         <v>12.5</v>
       </c>
       <c r="D131" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="E131" t="n">
         <v>12.5</v>
       </c>
       <c r="F131" t="n">
-        <v>70000</v>
+        <v>24666.6533</v>
       </c>
       <c r="G131" t="n">
-        <v>2369496.701898898</v>
+        <v>2379948.671798897</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4993,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C132" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="D132" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="E132" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="F132" t="n">
-        <v>5125.2753</v>
+        <v>906</v>
       </c>
       <c r="G132" t="n">
-        <v>2369496.701898898</v>
+        <v>2379042.671798897</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5028,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C133" t="n">
-        <v>12.45</v>
+        <v>12.49</v>
       </c>
       <c r="D133" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="E133" t="n">
-        <v>12.45</v>
+        <v>12.49</v>
       </c>
       <c r="F133" t="n">
-        <v>137838.368</v>
+        <v>100.7401</v>
       </c>
       <c r="G133" t="n">
-        <v>2231658.333898898</v>
+        <v>2379042.671798897</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5063,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.6</v>
+        <v>12.49</v>
       </c>
       <c r="C134" t="n">
-        <v>12.6</v>
+        <v>12.49</v>
       </c>
       <c r="D134" t="n">
-        <v>12.6</v>
+        <v>12.49</v>
       </c>
       <c r="E134" t="n">
-        <v>12.6</v>
+        <v>12.49</v>
       </c>
       <c r="F134" t="n">
-        <v>793.7091</v>
+        <v>6184.9024</v>
       </c>
       <c r="G134" t="n">
-        <v>2232452.042998898</v>
+        <v>2379042.671798897</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5098,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="C135" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="D135" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="E135" t="n">
-        <v>12.59</v>
+        <v>12.5</v>
       </c>
       <c r="F135" t="n">
-        <v>13395.7374</v>
+        <v>100000</v>
       </c>
       <c r="G135" t="n">
-        <v>2219056.305598898</v>
+        <v>2479042.671798897</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5133,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="C136" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="D136" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="E136" t="n">
-        <v>12.53</v>
+        <v>12.59</v>
       </c>
       <c r="F136" t="n">
-        <v>3333</v>
+        <v>75302.0166</v>
       </c>
       <c r="G136" t="n">
-        <v>2215723.305598898</v>
+        <v>2554344.688398898</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5168,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="C137" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="D137" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="E137" t="n">
-        <v>12.53</v>
+        <v>12.51</v>
       </c>
       <c r="F137" t="n">
-        <v>188.7888</v>
+        <v>3897</v>
       </c>
       <c r="G137" t="n">
-        <v>2215723.305598898</v>
+        <v>2550447.688398898</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5203,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="C138" t="n">
-        <v>12.52</v>
+        <v>12.45</v>
       </c>
       <c r="D138" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="E138" t="n">
-        <v>12.52</v>
+        <v>12.45</v>
       </c>
       <c r="F138" t="n">
-        <v>198328.993</v>
+        <v>159314</v>
       </c>
       <c r="G138" t="n">
-        <v>2017394.312598898</v>
+        <v>2391133.688398898</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5238,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.48</v>
+        <v>12.45</v>
       </c>
       <c r="C139" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="D139" t="n">
-        <v>12.48</v>
+        <v>12.45</v>
       </c>
       <c r="E139" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="F139" t="n">
-        <v>118589.7427</v>
+        <v>90835.497</v>
       </c>
       <c r="G139" t="n">
-        <v>1898804.569898898</v>
+        <v>2300298.191398898</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5273,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.47</v>
+        <v>12.4</v>
       </c>
       <c r="C140" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D140" t="n">
-        <v>12.53</v>
+        <v>12.4</v>
       </c>
       <c r="E140" t="n">
-        <v>12.47</v>
+        <v>12.4</v>
       </c>
       <c r="F140" t="n">
-        <v>546035.9447</v>
+        <v>70154.11629999999</v>
       </c>
       <c r="G140" t="n">
-        <v>2444840.514598898</v>
+        <v>2300298.191398898</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5308,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.53</v>
+        <v>12.4</v>
       </c>
       <c r="C141" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
       <c r="D141" t="n">
-        <v>12.53</v>
+        <v>12.4</v>
       </c>
       <c r="E141" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
       <c r="F141" t="n">
-        <v>5737.1169</v>
+        <v>97770.7309</v>
       </c>
       <c r="G141" t="n">
-        <v>2450577.631498898</v>
+        <v>2202527.460498898</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5343,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
       <c r="C142" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
       <c r="D142" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
       <c r="E142" t="n">
-        <v>12.53</v>
+        <v>12.3</v>
       </c>
       <c r="F142" t="n">
-        <v>100</v>
+        <v>14747.6652</v>
       </c>
       <c r="G142" t="n">
-        <v>2450577.631498898</v>
+        <v>2202527.460498898</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5378,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.53</v>
+        <v>12.24</v>
       </c>
       <c r="C143" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="D143" t="n">
-        <v>12.53</v>
+        <v>12.24</v>
       </c>
       <c r="E143" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="F143" t="n">
-        <v>50771.3765</v>
+        <v>88608.57490000001</v>
       </c>
       <c r="G143" t="n">
-        <v>2450577.631498898</v>
+        <v>2113918.885598898</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5413,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.5</v>
+        <v>12.11</v>
       </c>
       <c r="C144" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D144" t="n">
-        <v>12.5</v>
+        <v>12.11</v>
       </c>
       <c r="E144" t="n">
-        <v>12.5</v>
+        <v>12.04</v>
       </c>
       <c r="F144" t="n">
-        <v>885.7344000000001</v>
+        <v>482125.336953719</v>
       </c>
       <c r="G144" t="n">
-        <v>2449691.897098898</v>
+        <v>2113918.885598898</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5448,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.52</v>
+        <v>12.1</v>
       </c>
       <c r="C145" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="D145" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="E145" t="n">
-        <v>12.52</v>
+        <v>12.1</v>
       </c>
       <c r="F145" t="n">
-        <v>22674.6709</v>
+        <v>74877.65640000001</v>
       </c>
       <c r="G145" t="n">
-        <v>2472366.567998898</v>
+        <v>2113918.885598898</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5483,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.53</v>
+        <v>12.09</v>
       </c>
       <c r="C146" t="n">
-        <v>12.53</v>
+        <v>12.01</v>
       </c>
       <c r="D146" t="n">
-        <v>12.53</v>
+        <v>12.09</v>
       </c>
       <c r="E146" t="n">
-        <v>12.53</v>
+        <v>12.01</v>
       </c>
       <c r="F146" t="n">
-        <v>198.6048</v>
+        <v>405336.6056</v>
       </c>
       <c r="G146" t="n">
-        <v>2472366.567998898</v>
+        <v>1708582.279998898</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5518,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.53</v>
+        <v>12.02</v>
       </c>
       <c r="C147" t="n">
-        <v>12.53</v>
+        <v>12.2</v>
       </c>
       <c r="D147" t="n">
-        <v>12.53</v>
+        <v>12.2</v>
       </c>
       <c r="E147" t="n">
-        <v>12.53</v>
+        <v>12.02</v>
       </c>
       <c r="F147" t="n">
-        <v>46958.4539</v>
+        <v>141275.7071</v>
       </c>
       <c r="G147" t="n">
-        <v>2472366.567998898</v>
+        <v>1849857.987098898</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5553,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="C148" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="D148" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="E148" t="n">
-        <v>12.53</v>
+        <v>12.1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0001</v>
+        <v>185161.7893</v>
       </c>
       <c r="G148" t="n">
-        <v>2472366.567998898</v>
+        <v>1664696.197798898</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5588,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.52</v>
+        <v>12.1</v>
       </c>
       <c r="C149" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="D149" t="n">
-        <v>12.52</v>
+        <v>12.1</v>
       </c>
       <c r="E149" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="F149" t="n">
-        <v>94543.5436</v>
+        <v>138263.0901</v>
       </c>
       <c r="G149" t="n">
-        <v>2377823.024398898</v>
+        <v>1526433.107698898</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5623,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="C150" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="D150" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="E150" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="F150" t="n">
-        <v>1561.1059</v>
+        <v>69872.8138</v>
       </c>
       <c r="G150" t="n">
-        <v>2377823.024398898</v>
+        <v>1526433.107698898</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5658,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="C151" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="D151" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="E151" t="n">
-        <v>12.51</v>
+        <v>12.01</v>
       </c>
       <c r="F151" t="n">
-        <v>271461.6904</v>
+        <v>58904.8469</v>
       </c>
       <c r="G151" t="n">
-        <v>2377823.024398898</v>
+        <v>1526433.107698898</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5693,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12.59</v>
+        <v>12.05</v>
       </c>
       <c r="C152" t="n">
-        <v>12.59</v>
+        <v>12.05</v>
       </c>
       <c r="D152" t="n">
-        <v>12.59</v>
+        <v>12.05</v>
       </c>
       <c r="E152" t="n">
-        <v>12.59</v>
+        <v>12.05</v>
       </c>
       <c r="F152" t="n">
-        <v>237.6901</v>
+        <v>51780.0456</v>
       </c>
       <c r="G152" t="n">
-        <v>2378060.714498898</v>
+        <v>1578213.153298898</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5728,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12.59</v>
+        <v>12.05</v>
       </c>
       <c r="C153" t="n">
-        <v>12.61</v>
+        <v>12.05</v>
       </c>
       <c r="D153" t="n">
-        <v>12.61</v>
+        <v>12.05</v>
       </c>
       <c r="E153" t="n">
-        <v>12.59</v>
+        <v>12.05</v>
       </c>
       <c r="F153" t="n">
-        <v>100000</v>
+        <v>99</v>
       </c>
       <c r="G153" t="n">
-        <v>2478060.714498898</v>
+        <v>1578213.153298898</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5763,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>12.51</v>
+        <v>12.05</v>
       </c>
       <c r="C154" t="n">
-        <v>12.51</v>
+        <v>12.05</v>
       </c>
       <c r="D154" t="n">
-        <v>12.51</v>
+        <v>12.05</v>
       </c>
       <c r="E154" t="n">
-        <v>12.51</v>
+        <v>12.05</v>
       </c>
       <c r="F154" t="n">
-        <v>18231.0547</v>
+        <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>2459829.659798897</v>
+        <v>1578213.153298898</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5798,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.51</v>
+        <v>12</v>
       </c>
       <c r="C155" t="n">
-        <v>12.51</v>
+        <v>11.96</v>
       </c>
       <c r="D155" t="n">
-        <v>12.51</v>
+        <v>12</v>
       </c>
       <c r="E155" t="n">
-        <v>12.51</v>
+        <v>11.81</v>
       </c>
       <c r="F155" t="n">
-        <v>91595.9822</v>
+        <v>793440.9305</v>
       </c>
       <c r="G155" t="n">
-        <v>2459829.659798897</v>
+        <v>784772.2227988981</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5833,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.5</v>
+        <v>11.81</v>
       </c>
       <c r="C156" t="n">
-        <v>12.5</v>
+        <v>12.06</v>
       </c>
       <c r="D156" t="n">
-        <v>12.5</v>
+        <v>12.06</v>
       </c>
       <c r="E156" t="n">
-        <v>12.5</v>
+        <v>11.81</v>
       </c>
       <c r="F156" t="n">
-        <v>80000</v>
+        <v>88156.62149999999</v>
       </c>
       <c r="G156" t="n">
-        <v>2379829.659798897</v>
+        <v>872928.8442988981</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5868,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>12.5</v>
+        <v>11.81</v>
       </c>
       <c r="C157" t="n">
-        <v>12.5</v>
+        <v>11.79</v>
       </c>
       <c r="D157" t="n">
-        <v>12.5</v>
+        <v>11.81</v>
       </c>
       <c r="E157" t="n">
-        <v>12.5</v>
+        <v>11.79</v>
       </c>
       <c r="F157" t="n">
-        <v>4666.8586</v>
+        <v>151073.3536</v>
       </c>
       <c r="G157" t="n">
-        <v>2379829.659798897</v>
+        <v>721855.4906988981</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5903,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12.45</v>
+        <v>11.78</v>
       </c>
       <c r="C158" t="n">
-        <v>12.45</v>
+        <v>11.79</v>
       </c>
       <c r="D158" t="n">
-        <v>12.45</v>
+        <v>11.79</v>
       </c>
       <c r="E158" t="n">
-        <v>12.45</v>
+        <v>11.78</v>
       </c>
       <c r="F158" t="n">
-        <v>84869.787</v>
+        <v>36692.5935</v>
       </c>
       <c r="G158" t="n">
-        <v>2294959.872798897</v>
+        <v>721855.4906988981</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5938,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>12.45</v>
+        <v>11.8</v>
       </c>
       <c r="C159" t="n">
-        <v>12.45</v>
+        <v>11.8</v>
       </c>
       <c r="D159" t="n">
-        <v>12.45</v>
+        <v>11.8</v>
       </c>
       <c r="E159" t="n">
-        <v>12.45</v>
+        <v>11.8</v>
       </c>
       <c r="F159" t="n">
-        <v>330252.2085</v>
+        <v>19435.5304</v>
       </c>
       <c r="G159" t="n">
-        <v>2294959.872798897</v>
+        <v>741291.0210988981</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5973,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="C160" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="D160" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="E160" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="F160" t="n">
-        <v>1791.9106</v>
+        <v>892.9973</v>
       </c>
       <c r="G160" t="n">
-        <v>2296751.783398897</v>
+        <v>741291.0210988981</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6008,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="C161" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="D161" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="E161" t="n">
-        <v>12.55</v>
+        <v>11.8</v>
       </c>
       <c r="F161" t="n">
-        <v>13144.2526</v>
+        <v>198328.993</v>
       </c>
       <c r="G161" t="n">
-        <v>2296751.783398897</v>
+        <v>741291.0210988981</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6043,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12.56</v>
+        <v>11.8</v>
       </c>
       <c r="C162" t="n">
-        <v>12.56</v>
+        <v>11.72</v>
       </c>
       <c r="D162" t="n">
-        <v>12.56</v>
+        <v>11.8</v>
       </c>
       <c r="E162" t="n">
-        <v>12.56</v>
+        <v>11.72</v>
       </c>
       <c r="F162" t="n">
-        <v>24000</v>
+        <v>302464.1427</v>
       </c>
       <c r="G162" t="n">
-        <v>2320751.783398897</v>
+        <v>438826.8783988981</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6078,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>12.56</v>
+        <v>11.8</v>
       </c>
       <c r="C163" t="n">
-        <v>12.56</v>
+        <v>11.8</v>
       </c>
       <c r="D163" t="n">
-        <v>12.56</v>
+        <v>11.8</v>
       </c>
       <c r="E163" t="n">
-        <v>12.56</v>
+        <v>11.8</v>
       </c>
       <c r="F163" t="n">
-        <v>11085.1914</v>
+        <v>69639.98269999999</v>
       </c>
       <c r="G163" t="n">
-        <v>2320751.783398897</v>
+        <v>508466.8610988981</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6113,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.45</v>
+        <v>11.71</v>
       </c>
       <c r="C164" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="D164" t="n">
-        <v>12.45</v>
+        <v>11.71</v>
       </c>
       <c r="E164" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="F164" t="n">
-        <v>74389.478</v>
+        <v>8690.7428</v>
       </c>
       <c r="G164" t="n">
-        <v>2246362.305398897</v>
+        <v>499776.1182988981</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6148,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12.45</v>
+        <v>11.71</v>
       </c>
       <c r="C165" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="D165" t="n">
-        <v>12.45</v>
+        <v>11.71</v>
       </c>
       <c r="E165" t="n">
-        <v>12.45</v>
+        <v>11.7</v>
       </c>
       <c r="F165" t="n">
-        <v>339.7803</v>
+        <v>82213.7781</v>
       </c>
       <c r="G165" t="n">
-        <v>2246362.305398897</v>
+        <v>499776.1182988981</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6183,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.49</v>
+        <v>11.7</v>
       </c>
       <c r="C166" t="n">
-        <v>12.49</v>
+        <v>11.85</v>
       </c>
       <c r="D166" t="n">
-        <v>12.49</v>
+        <v>11.85</v>
       </c>
       <c r="E166" t="n">
-        <v>12.49</v>
+        <v>11.7</v>
       </c>
       <c r="F166" t="n">
-        <v>3112.1442</v>
+        <v>76145.89845654009</v>
       </c>
       <c r="G166" t="n">
-        <v>2249474.449598897</v>
+        <v>575922.0167554382</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6218,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12.49</v>
+        <v>11.7</v>
       </c>
       <c r="C167" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="D167" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="E167" t="n">
-        <v>12.49</v>
+        <v>11.7</v>
       </c>
       <c r="F167" t="n">
-        <v>100219.7434</v>
+        <v>522.802</v>
       </c>
       <c r="G167" t="n">
-        <v>2349694.192998897</v>
+        <v>575399.2147554382</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6253,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12.59</v>
+        <v>11.87</v>
       </c>
       <c r="C168" t="n">
-        <v>12.59</v>
+        <v>11.87</v>
       </c>
       <c r="D168" t="n">
-        <v>12.59</v>
+        <v>11.87</v>
       </c>
       <c r="E168" t="n">
-        <v>12.59</v>
+        <v>11.87</v>
       </c>
       <c r="F168" t="n">
-        <v>71618.4281</v>
+        <v>842.4599831508003</v>
       </c>
       <c r="G168" t="n">
-        <v>2421312.621098897</v>
+        <v>576241.674738589</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6288,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="C169" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="D169" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="E169" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="F169" t="n">
-        <v>41363.9493</v>
+        <v>11758.6535</v>
       </c>
       <c r="G169" t="n">
-        <v>2379948.671798897</v>
+        <v>564483.021238589</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6323,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="C170" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="D170" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="E170" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="F170" t="n">
-        <v>16799.7862</v>
+        <v>937833.8819</v>
       </c>
       <c r="G170" t="n">
-        <v>2379948.671798897</v>
+        <v>1502316.903138589</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6358,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>12.5</v>
+        <v>11.69</v>
       </c>
       <c r="C171" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="D171" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="E171" t="n">
-        <v>12.5</v>
+        <v>11.69</v>
       </c>
       <c r="F171" t="n">
-        <v>3502.7278</v>
+        <v>17469.1453</v>
       </c>
       <c r="G171" t="n">
-        <v>2379948.671798897</v>
+        <v>1502316.903138589</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6393,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="C172" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="D172" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="E172" t="n">
-        <v>12.5</v>
+        <v>11.71</v>
       </c>
       <c r="F172" t="n">
-        <v>146235</v>
+        <v>3060.874</v>
       </c>
       <c r="G172" t="n">
-        <v>2379948.671798897</v>
+        <v>1502316.903138589</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6428,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>12.5</v>
+        <v>11.73</v>
       </c>
       <c r="C173" t="n">
-        <v>12.5</v>
+        <v>11.72</v>
       </c>
       <c r="D173" t="n">
-        <v>12.5</v>
+        <v>11.73</v>
       </c>
       <c r="E173" t="n">
-        <v>12.5</v>
+        <v>11.72</v>
       </c>
       <c r="F173" t="n">
-        <v>24666.6533</v>
+        <v>779.3414</v>
       </c>
       <c r="G173" t="n">
-        <v>2379948.671798897</v>
+        <v>1503096.244538589</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6463,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12.49</v>
+        <v>11.71</v>
       </c>
       <c r="C174" t="n">
-        <v>12.49</v>
+        <v>11.71</v>
       </c>
       <c r="D174" t="n">
-        <v>12.49</v>
+        <v>11.71</v>
       </c>
       <c r="E174" t="n">
-        <v>12.49</v>
+        <v>11.71</v>
       </c>
       <c r="F174" t="n">
-        <v>906</v>
+        <v>13310.5086</v>
       </c>
       <c r="G174" t="n">
-        <v>2379042.671798897</v>
+        <v>1489785.735938589</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6498,28 +6659,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>12.49</v>
+        <v>11.69</v>
       </c>
       <c r="C175" t="n">
-        <v>12.49</v>
+        <v>11.68</v>
       </c>
       <c r="D175" t="n">
-        <v>12.49</v>
+        <v>11.69</v>
       </c>
       <c r="E175" t="n">
-        <v>12.49</v>
+        <v>11.68</v>
       </c>
       <c r="F175" t="n">
-        <v>100.7401</v>
+        <v>37217.475</v>
       </c>
       <c r="G175" t="n">
-        <v>2379042.671798897</v>
+        <v>1452568.260938589</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6533,1973 +6695,311 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>12.49</v>
+        <v>11.68</v>
       </c>
       <c r="C176" t="n">
-        <v>12.49</v>
+        <v>11.68</v>
       </c>
       <c r="D176" t="n">
-        <v>12.49</v>
+        <v>11.68</v>
       </c>
       <c r="E176" t="n">
-        <v>12.49</v>
+        <v>11.68</v>
       </c>
       <c r="F176" t="n">
-        <v>6184.9024</v>
+        <v>24000</v>
       </c>
       <c r="G176" t="n">
-        <v>2379042.671798897</v>
+        <v>1452568.260938589</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K176" t="n">
+        <v>11.68</v>
+      </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12.51</v>
+        <v>11.68</v>
       </c>
       <c r="C177" t="n">
-        <v>12.5</v>
+        <v>11.68</v>
       </c>
       <c r="D177" t="n">
-        <v>12.51</v>
+        <v>11.68</v>
       </c>
       <c r="E177" t="n">
-        <v>12.5</v>
+        <v>11.68</v>
       </c>
       <c r="F177" t="n">
-        <v>100000</v>
+        <v>19014.6945</v>
       </c>
       <c r="G177" t="n">
-        <v>2479042.671798897</v>
+        <v>1452568.260938589</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K177" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>12.59</v>
+        <v>11.67</v>
       </c>
       <c r="C178" t="n">
-        <v>12.59</v>
+        <v>11.66</v>
       </c>
       <c r="D178" t="n">
-        <v>12.59</v>
+        <v>11.67</v>
       </c>
       <c r="E178" t="n">
-        <v>12.59</v>
+        <v>11.66</v>
       </c>
       <c r="F178" t="n">
-        <v>75302.0166</v>
+        <v>24910.9632</v>
       </c>
       <c r="G178" t="n">
-        <v>2554344.688398898</v>
+        <v>1427657.297738589</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K178" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>12.51</v>
+        <v>11.65</v>
       </c>
       <c r="C179" t="n">
-        <v>12.51</v>
+        <v>11.65</v>
       </c>
       <c r="D179" t="n">
-        <v>12.51</v>
+        <v>11.65</v>
       </c>
       <c r="E179" t="n">
-        <v>12.51</v>
+        <v>11.65</v>
       </c>
       <c r="F179" t="n">
-        <v>3897</v>
+        <v>255.6855</v>
       </c>
       <c r="G179" t="n">
-        <v>2550447.688398898</v>
+        <v>1427401.612238589</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K179" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.51</v>
+        <v>11.65</v>
       </c>
       <c r="C180" t="n">
-        <v>12.45</v>
+        <v>11.65</v>
       </c>
       <c r="D180" t="n">
-        <v>12.51</v>
+        <v>11.65</v>
       </c>
       <c r="E180" t="n">
-        <v>12.45</v>
+        <v>11.65</v>
       </c>
       <c r="F180" t="n">
-        <v>159314</v>
+        <v>4663.5612</v>
       </c>
       <c r="G180" t="n">
-        <v>2391133.688398898</v>
+        <v>1427401.612238589</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K180" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>12.45</v>
+        <v>11.65</v>
       </c>
       <c r="C181" t="n">
-        <v>12.4</v>
+        <v>11.65</v>
       </c>
       <c r="D181" t="n">
-        <v>12.45</v>
+        <v>11.65</v>
       </c>
       <c r="E181" t="n">
-        <v>12.4</v>
+        <v>11.65</v>
       </c>
       <c r="F181" t="n">
-        <v>90835.497</v>
+        <v>3397</v>
       </c>
       <c r="G181" t="n">
-        <v>2300298.191398898</v>
+        <v>1427401.612238589</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K181" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.4</v>
+        <v>11.65</v>
       </c>
       <c r="C182" t="n">
-        <v>12.4</v>
+        <v>11.65</v>
       </c>
       <c r="D182" t="n">
-        <v>12.4</v>
+        <v>11.65</v>
       </c>
       <c r="E182" t="n">
-        <v>12.4</v>
+        <v>11.65</v>
       </c>
       <c r="F182" t="n">
-        <v>70154.11629999999</v>
+        <v>65.474</v>
       </c>
       <c r="G182" t="n">
-        <v>2300298.191398898</v>
+        <v>1427401.612238589</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C183" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E183" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>97770.7309</v>
-      </c>
-      <c r="G183" t="n">
-        <v>2202527.460498898</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D184" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>14747.6652</v>
-      </c>
-      <c r="G184" t="n">
-        <v>2202527.460498898</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="C185" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D185" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="E185" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F185" t="n">
-        <v>88608.57490000001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>2113918.885598898</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E186" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F186" t="n">
-        <v>482125.336953719</v>
-      </c>
-      <c r="G186" t="n">
-        <v>2113918.885598898</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F187" t="n">
-        <v>74877.65640000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2113918.885598898</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="C188" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D188" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F188" t="n">
-        <v>405336.6056</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1708582.279998898</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C189" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F189" t="n">
-        <v>141275.7071</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1849857.987098898</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K189" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>185161.7893</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1664696.197798898</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K190" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D191" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F191" t="n">
-        <v>138263.0901</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1526433.107698898</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K191" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C192" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D192" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E192" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F192" t="n">
-        <v>69872.8138</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1526433.107698898</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K192" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="J182" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K182" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C193" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D193" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F193" t="n">
-        <v>58904.8469</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1526433.107698898</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K193" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F194" t="n">
-        <v>51780.0456</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1578213.153298898</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K194" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F195" t="n">
-        <v>99</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1578213.153298898</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K195" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C196" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D196" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E196" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F196" t="n">
-        <v>100</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1578213.153298898</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K196" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12</v>
-      </c>
-      <c r="C197" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12</v>
-      </c>
-      <c r="E197" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F197" t="n">
-        <v>793440.9305</v>
-      </c>
-      <c r="G197" t="n">
-        <v>784772.2227988981</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K197" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C198" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D198" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E198" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F198" t="n">
-        <v>88156.62149999999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>872928.8442988981</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="K198" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D199" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="E199" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F199" t="n">
-        <v>151073.3536</v>
-      </c>
-      <c r="G199" t="n">
-        <v>721855.4906988981</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="K199" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E200" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F200" t="n">
-        <v>36692.5935</v>
-      </c>
-      <c r="G200" t="n">
-        <v>721855.4906988981</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="K200" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D201" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E201" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>19435.5304</v>
-      </c>
-      <c r="G201" t="n">
-        <v>741291.0210988981</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="K201" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F202" t="n">
-        <v>892.9973</v>
-      </c>
-      <c r="G202" t="n">
-        <v>741291.0210988981</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K202" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D203" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E203" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F203" t="n">
-        <v>198328.993</v>
-      </c>
-      <c r="G203" t="n">
-        <v>741291.0210988981</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K203" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C204" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="D204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E204" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="F204" t="n">
-        <v>302464.1427</v>
-      </c>
-      <c r="G204" t="n">
-        <v>438826.8783988981</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K204" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C205" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D205" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E205" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F205" t="n">
-        <v>69639.98269999999</v>
-      </c>
-      <c r="G205" t="n">
-        <v>508466.8610988981</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K205" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C206" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D206" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E206" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>8690.7428</v>
-      </c>
-      <c r="G206" t="n">
-        <v>499776.1182988981</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K206" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C207" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D207" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E207" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F207" t="n">
-        <v>82213.7781</v>
-      </c>
-      <c r="G207" t="n">
-        <v>499776.1182988981</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C208" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D208" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E208" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F208" t="n">
-        <v>76145.89845654009</v>
-      </c>
-      <c r="G208" t="n">
-        <v>575922.0167554382</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C209" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D209" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E209" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F209" t="n">
-        <v>522.802</v>
-      </c>
-      <c r="G209" t="n">
-        <v>575399.2147554382</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C210" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="D210" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E210" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F210" t="n">
-        <v>842.4599831508003</v>
-      </c>
-      <c r="G210" t="n">
-        <v>576241.674738589</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C211" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D211" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E211" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F211" t="n">
-        <v>11758.6535</v>
-      </c>
-      <c r="G211" t="n">
-        <v>564483.021238589</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C212" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D212" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E212" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F212" t="n">
-        <v>937833.8819</v>
-      </c>
-      <c r="G212" t="n">
-        <v>1502316.903138589</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C213" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D213" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E213" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F213" t="n">
-        <v>17469.1453</v>
-      </c>
-      <c r="G213" t="n">
-        <v>1502316.903138589</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C214" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D214" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E214" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3060.874</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1502316.903138589</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="C215" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="D215" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="E215" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="F215" t="n">
-        <v>779.3414</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1503096.244538589</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C216" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D216" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E216" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F216" t="n">
-        <v>13310.5086</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1489785.735938589</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C217" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D217" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E217" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F217" t="n">
-        <v>37217.475</v>
-      </c>
-      <c r="G217" t="n">
-        <v>1452568.260938589</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C218" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D218" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E218" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F218" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1452568.260938589</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C219" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D219" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="E219" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F219" t="n">
-        <v>19014.6945</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1452568.260938589</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C220" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="D220" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E220" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="F220" t="n">
-        <v>24910.9632</v>
-      </c>
-      <c r="G220" t="n">
-        <v>1427657.297738589</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K220" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C221" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D221" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E221" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F221" t="n">
-        <v>255.6855</v>
-      </c>
-      <c r="G221" t="n">
-        <v>1427401.612238589</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K221" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C222" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D222" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E222" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4663.5612</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1427401.612238589</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C223" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D223" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E223" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3397</v>
-      </c>
-      <c r="G223" t="n">
-        <v>1427401.612238589</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="C224" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D224" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E224" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F224" t="n">
-        <v>65.474</v>
-      </c>
-      <c r="G224" t="n">
-        <v>1427401.612238589</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.69</v>
+        <v>12.17</v>
       </c>
       <c r="C2" t="n">
-        <v>12.69</v>
+        <v>12.17</v>
       </c>
       <c r="D2" t="n">
-        <v>12.69</v>
+        <v>12.17</v>
       </c>
       <c r="E2" t="n">
-        <v>12.69</v>
+        <v>12.17</v>
       </c>
       <c r="F2" t="n">
-        <v>12911.446</v>
+        <v>4711.6036</v>
       </c>
       <c r="G2" t="n">
-        <v>3394685.28998568</v>
+        <v>-226587.0226990801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="D3" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="F3" t="n">
-        <v>8936</v>
+        <v>68436.5048</v>
       </c>
       <c r="G3" t="n">
-        <v>3385749.28998568</v>
+        <v>-158150.5178990801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="C4" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="D4" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="E4" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="F4" t="n">
-        <v>22906.06324479495</v>
+        <v>4545.0996</v>
       </c>
       <c r="G4" t="n">
-        <v>3385749.28998568</v>
+        <v>-158150.5178990801</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,32 +550,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="C5" t="n">
-        <v>12.53</v>
+        <v>12.2</v>
       </c>
       <c r="D5" t="n">
-        <v>12.68</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="n">
-        <v>12.53</v>
+        <v>12.2</v>
       </c>
       <c r="F5" t="n">
-        <v>11644.7395</v>
+        <v>6411.0858</v>
       </c>
       <c r="G5" t="n">
-        <v>3374104.55048568</v>
+        <v>-158150.5178990801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +594,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.53</v>
+        <v>12.21</v>
       </c>
       <c r="C6" t="n">
-        <v>12.44</v>
+        <v>12.22</v>
       </c>
       <c r="D6" t="n">
-        <v>12.53</v>
+        <v>12.22</v>
       </c>
       <c r="E6" t="n">
-        <v>12.44</v>
+        <v>12.21</v>
       </c>
       <c r="F6" t="n">
-        <v>27538.9274</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>3346565.62308568</v>
+        <v>-157950.5178990801</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,31 +638,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="C7" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="D7" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="E7" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>449152.303</v>
       </c>
       <c r="G7" t="n">
-        <v>3346665.62308568</v>
+        <v>291201.78510092</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.22</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -654,22 +678,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="C8" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="D8" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="E8" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="F8" t="n">
-        <v>23164.8846</v>
+        <v>27500</v>
       </c>
       <c r="G8" t="n">
-        <v>3346665.62308568</v>
+        <v>291201.78510092</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +702,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="C9" t="n">
-        <v>12.68</v>
+        <v>12.27</v>
       </c>
       <c r="D9" t="n">
-        <v>12.68</v>
+        <v>12.27</v>
       </c>
       <c r="E9" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="F9" t="n">
-        <v>482783.7708</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="n">
-        <v>3829449.39388568</v>
+        <v>291201.78510092</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +744,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +762,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.68</v>
+        <v>12.28</v>
       </c>
       <c r="C10" t="n">
-        <v>12.68</v>
+        <v>12.28</v>
       </c>
       <c r="D10" t="n">
-        <v>12.68</v>
+        <v>12.28</v>
       </c>
       <c r="E10" t="n">
-        <v>12.68</v>
+        <v>12.28</v>
       </c>
       <c r="F10" t="n">
-        <v>400.8031</v>
+        <v>3806.7851</v>
       </c>
       <c r="G10" t="n">
-        <v>3829449.39388568</v>
+        <v>295008.5702009199</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +798,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.68</v>
+        <v>12.27</v>
       </c>
       <c r="C11" t="n">
-        <v>12.51</v>
+        <v>12.27</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7</v>
+        <v>12.27</v>
       </c>
       <c r="E11" t="n">
-        <v>12.51</v>
+        <v>12.27</v>
       </c>
       <c r="F11" t="n">
-        <v>111201.3031</v>
+        <v>63775</v>
       </c>
       <c r="G11" t="n">
-        <v>3718248.09078568</v>
+        <v>231233.5702009199</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,31 +834,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="C12" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="D12" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="E12" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="F12" t="n">
-        <v>2406.3837</v>
+        <v>1018.479</v>
       </c>
       <c r="G12" t="n">
-        <v>3720654.47448568</v>
+        <v>231233.5702009199</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.27</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -834,22 +874,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D13" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="E13" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="F13" t="n">
-        <v>16548.2106</v>
+        <v>48981.521</v>
       </c>
       <c r="G13" t="n">
-        <v>3720654.47448568</v>
+        <v>182252.0492009199</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +898,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +916,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.6</v>
+        <v>12.28</v>
       </c>
       <c r="C14" t="n">
-        <v>12.6</v>
+        <v>12.28</v>
       </c>
       <c r="D14" t="n">
-        <v>12.6</v>
+        <v>12.28</v>
       </c>
       <c r="E14" t="n">
-        <v>12.6</v>
+        <v>12.28</v>
       </c>
       <c r="F14" t="n">
-        <v>2948.3896</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>3720654.47448568</v>
+        <v>182352.0492009199</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +960,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.6</v>
+        <v>12.23</v>
       </c>
       <c r="C15" t="n">
-        <v>12.6</v>
+        <v>12.17</v>
       </c>
       <c r="D15" t="n">
-        <v>12.6</v>
+        <v>12.23</v>
       </c>
       <c r="E15" t="n">
-        <v>12.6</v>
+        <v>12.17</v>
       </c>
       <c r="F15" t="n">
-        <v>12522.9145</v>
+        <v>566445.782</v>
       </c>
       <c r="G15" t="n">
-        <v>3720654.47448568</v>
+        <v>-384093.7327990801</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1004,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.6</v>
+        <v>12.24</v>
       </c>
       <c r="C16" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="D16" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="E16" t="n">
-        <v>12.6</v>
+        <v>12.24</v>
       </c>
       <c r="F16" t="n">
-        <v>29140.1309</v>
+        <v>93901.39928475958</v>
       </c>
       <c r="G16" t="n">
-        <v>3720654.47448568</v>
+        <v>-290192.3335143205</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1048,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="C17" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="D17" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="E17" t="n">
-        <v>12.6</v>
+        <v>12.27</v>
       </c>
       <c r="F17" t="n">
-        <v>39664.9746</v>
+        <v>300.7965</v>
       </c>
       <c r="G17" t="n">
-        <v>3720654.47448568</v>
+        <v>-290192.3335143205</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1092,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.61</v>
+        <v>12.26</v>
       </c>
       <c r="C18" t="n">
-        <v>12.61</v>
+        <v>12.26</v>
       </c>
       <c r="D18" t="n">
-        <v>12.61</v>
+        <v>12.26</v>
       </c>
       <c r="E18" t="n">
-        <v>12.61</v>
+        <v>12.26</v>
       </c>
       <c r="F18" t="n">
-        <v>4472.3047</v>
+        <v>70000</v>
       </c>
       <c r="G18" t="n">
-        <v>3725126.77918568</v>
+        <v>-360192.3335143205</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1136,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.61</v>
+        <v>12.15</v>
       </c>
       <c r="C19" t="n">
-        <v>12.61</v>
+        <v>12.27</v>
       </c>
       <c r="D19" t="n">
-        <v>12.61</v>
+        <v>12.27</v>
       </c>
       <c r="E19" t="n">
-        <v>12.61</v>
+        <v>12.15</v>
       </c>
       <c r="F19" t="n">
-        <v>36201.6181</v>
+        <v>118902.6337</v>
       </c>
       <c r="G19" t="n">
-        <v>3725126.77918568</v>
+        <v>-241289.6998143205</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1180,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="C20" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="D20" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="E20" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="F20" t="n">
-        <v>12425.2452</v>
+        <v>78391.80899999999</v>
       </c>
       <c r="G20" t="n">
-        <v>3712701.53398568</v>
+        <v>-319681.5088143205</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1224,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.7</v>
+        <v>12.25</v>
       </c>
       <c r="C21" t="n">
-        <v>12.7</v>
+        <v>12.25</v>
       </c>
       <c r="D21" t="n">
-        <v>12.7</v>
+        <v>12.25</v>
       </c>
       <c r="E21" t="n">
-        <v>12.7</v>
+        <v>12.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>195.4908</v>
       </c>
       <c r="G21" t="n">
-        <v>3714201.53398568</v>
+        <v>-319681.5088143205</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1268,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.6</v>
+        <v>12.16</v>
       </c>
       <c r="C22" t="n">
-        <v>12.6</v>
+        <v>12.16</v>
       </c>
       <c r="D22" t="n">
-        <v>12.6</v>
+        <v>12.16</v>
       </c>
       <c r="E22" t="n">
-        <v>12.6</v>
+        <v>12.16</v>
       </c>
       <c r="F22" t="n">
-        <v>2000</v>
+        <v>26354.8747</v>
       </c>
       <c r="G22" t="n">
-        <v>3712201.53398568</v>
+        <v>-346036.3835143205</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1312,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="C23" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="D23" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="E23" t="n">
-        <v>12.6</v>
+        <v>12.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1162.0271</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>3712201.53398568</v>
+        <v>-345036.3835143205</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1356,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.69</v>
+        <v>12.16</v>
       </c>
       <c r="C24" t="n">
-        <v>12.69</v>
+        <v>12.16</v>
       </c>
       <c r="D24" t="n">
-        <v>12.69</v>
+        <v>12.16</v>
       </c>
       <c r="E24" t="n">
-        <v>12.69</v>
+        <v>12.16</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>43975.2825</v>
       </c>
       <c r="G24" t="n">
-        <v>3712241.53398568</v>
+        <v>-389011.6660143204</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1400,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.61</v>
+        <v>12.16</v>
       </c>
       <c r="C25" t="n">
-        <v>12.56</v>
+        <v>12.1</v>
       </c>
       <c r="D25" t="n">
-        <v>12.61</v>
+        <v>12.16</v>
       </c>
       <c r="E25" t="n">
-        <v>12.56</v>
+        <v>12.1</v>
       </c>
       <c r="F25" t="n">
-        <v>267317.0216</v>
+        <v>85824.12699999999</v>
       </c>
       <c r="G25" t="n">
-        <v>3444924.51238568</v>
+        <v>-474835.7930143204</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1444,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.69</v>
+        <v>12.1</v>
       </c>
       <c r="C26" t="n">
-        <v>12.55</v>
+        <v>12.1</v>
       </c>
       <c r="D26" t="n">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="E26" t="n">
-        <v>12.55</v>
+        <v>12.1</v>
       </c>
       <c r="F26" t="n">
-        <v>27617.42350944882</v>
+        <v>59596.7919</v>
       </c>
       <c r="G26" t="n">
-        <v>3417307.088876232</v>
+        <v>-474835.7930143204</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1488,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.69</v>
+        <v>12.1</v>
       </c>
       <c r="C27" t="n">
-        <v>12.69</v>
+        <v>12.1</v>
       </c>
       <c r="D27" t="n">
-        <v>12.69</v>
+        <v>12.1</v>
       </c>
       <c r="E27" t="n">
-        <v>12.69</v>
+        <v>12.1</v>
       </c>
       <c r="F27" t="n">
-        <v>235.7384</v>
+        <v>109190.5853</v>
       </c>
       <c r="G27" t="n">
-        <v>3417542.827276232</v>
+        <v>-474835.7930143204</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1532,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.55</v>
+        <v>12.15</v>
       </c>
       <c r="C28" t="n">
-        <v>12.55</v>
+        <v>12.2</v>
       </c>
       <c r="D28" t="n">
-        <v>12.55</v>
+        <v>12.2</v>
       </c>
       <c r="E28" t="n">
-        <v>12.55</v>
+        <v>12.15</v>
       </c>
       <c r="F28" t="n">
-        <v>882.8262999999999</v>
+        <v>156619.4907</v>
       </c>
       <c r="G28" t="n">
-        <v>3416660.000976232</v>
+        <v>-318216.3023143205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1576,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.69</v>
+        <v>12.24</v>
       </c>
       <c r="C29" t="n">
-        <v>12.69</v>
+        <v>12.49</v>
       </c>
       <c r="D29" t="n">
-        <v>12.69</v>
+        <v>12.5</v>
       </c>
       <c r="E29" t="n">
-        <v>12.69</v>
+        <v>12.24</v>
       </c>
       <c r="F29" t="n">
-        <v>93061.10490000001</v>
+        <v>3001600</v>
       </c>
       <c r="G29" t="n">
-        <v>3509721.105876232</v>
+        <v>2683383.697685679</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1620,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="C30" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="D30" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="E30" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="F30" t="n">
-        <v>10434.9715</v>
+        <v>5194.0938</v>
       </c>
       <c r="G30" t="n">
-        <v>3499286.134376232</v>
+        <v>2678189.60388568</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1662,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.69</v>
+        <v>12.2</v>
       </c>
       <c r="C31" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="D31" t="n">
-        <v>12.69</v>
+        <v>12.2</v>
       </c>
       <c r="E31" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="F31" t="n">
-        <v>83430.5312</v>
+        <v>8115.294</v>
       </c>
       <c r="G31" t="n">
-        <v>3499286.134376232</v>
+        <v>2678189.60388568</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1704,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="C32" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="D32" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="E32" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="F32" t="n">
-        <v>349.9212598425197</v>
+        <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>3499636.055636074</v>
+        <v>2678689.60388568</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1746,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="C33" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="D33" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="E33" t="n">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3846.8382</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>3495789.217436074</v>
+        <v>2678589.60388568</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1788,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.62</v>
+        <v>12.3</v>
       </c>
       <c r="C34" t="n">
-        <v>12.62</v>
+        <v>12.3</v>
       </c>
       <c r="D34" t="n">
-        <v>12.62</v>
+        <v>12.3</v>
       </c>
       <c r="E34" t="n">
-        <v>12.62</v>
+        <v>12.3</v>
       </c>
       <c r="F34" t="n">
-        <v>49958.0259</v>
+        <v>247909.6605</v>
       </c>
       <c r="G34" t="n">
-        <v>3495789.217436074</v>
+        <v>2926499.26438568</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1830,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.57</v>
+        <v>12.3</v>
       </c>
       <c r="C35" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="D35" t="n">
-        <v>12.57</v>
+        <v>12.3</v>
       </c>
       <c r="E35" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="F35" t="n">
-        <v>22337.961</v>
+        <v>66669.5266</v>
       </c>
       <c r="G35" t="n">
-        <v>3473451.256436074</v>
+        <v>2859829.73778568</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1872,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="C36" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="D36" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="E36" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="F36" t="n">
-        <v>2000</v>
+        <v>5768.1997</v>
       </c>
       <c r="G36" t="n">
-        <v>3473451.256436074</v>
+        <v>2859829.73778568</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1914,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="C37" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="D37" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="E37" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="F37" t="n">
-        <v>43000</v>
+        <v>41.5343</v>
       </c>
       <c r="G37" t="n">
-        <v>3473451.256436074</v>
+        <v>2859871.27208568</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1956,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.57</v>
+        <v>12.4</v>
       </c>
       <c r="C38" t="n">
-        <v>12.57</v>
+        <v>12.3</v>
       </c>
       <c r="D38" t="n">
-        <v>12.57</v>
+        <v>12.5</v>
       </c>
       <c r="E38" t="n">
-        <v>12.57</v>
+        <v>12.3</v>
       </c>
       <c r="F38" t="n">
-        <v>32000</v>
+        <v>245855.59</v>
       </c>
       <c r="G38" t="n">
-        <v>3473451.256436074</v>
+        <v>2614015.68208568</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1980,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1998,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.55</v>
+        <v>12.3</v>
       </c>
       <c r="C39" t="n">
-        <v>12.55</v>
+        <v>12.3</v>
       </c>
       <c r="D39" t="n">
-        <v>12.55</v>
+        <v>12.3</v>
       </c>
       <c r="E39" t="n">
-        <v>12.55</v>
+        <v>12.3</v>
       </c>
       <c r="F39" t="n">
-        <v>45000</v>
+        <v>6710</v>
       </c>
       <c r="G39" t="n">
-        <v>3428451.256436074</v>
+        <v>2614015.68208568</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2040,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.62</v>
+        <v>12.32</v>
       </c>
       <c r="C40" t="n">
-        <v>12.65</v>
+        <v>12.32</v>
       </c>
       <c r="D40" t="n">
-        <v>12.65</v>
+        <v>12.32</v>
       </c>
       <c r="E40" t="n">
-        <v>12.62</v>
+        <v>12.32</v>
       </c>
       <c r="F40" t="n">
-        <v>44653.6918</v>
+        <v>1216.098</v>
       </c>
       <c r="G40" t="n">
-        <v>3473104.948236074</v>
+        <v>2615231.78008568</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2064,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2082,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.65</v>
+        <v>12.34</v>
       </c>
       <c r="C41" t="n">
-        <v>12.7</v>
+        <v>12.34</v>
       </c>
       <c r="D41" t="n">
-        <v>12.7</v>
+        <v>12.34</v>
       </c>
       <c r="E41" t="n">
-        <v>12.65</v>
+        <v>12.34</v>
       </c>
       <c r="F41" t="n">
-        <v>52586.9232</v>
+        <v>22797.1963</v>
       </c>
       <c r="G41" t="n">
-        <v>3525691.871436074</v>
+        <v>2638028.97638568</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2124,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.7</v>
+        <v>12.48</v>
       </c>
       <c r="C42" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D42" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E42" t="n">
-        <v>12.7</v>
+        <v>12.48</v>
       </c>
       <c r="F42" t="n">
-        <v>101550.6523</v>
+        <v>190927.6693</v>
       </c>
       <c r="G42" t="n">
-        <v>3525691.871436074</v>
+        <v>2828956.64568568</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2148,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2166,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.69</v>
+        <v>12.52</v>
       </c>
       <c r="C43" t="n">
-        <v>12.73</v>
+        <v>12.52</v>
       </c>
       <c r="D43" t="n">
-        <v>12.73</v>
+        <v>12.52</v>
       </c>
       <c r="E43" t="n">
-        <v>12.69</v>
+        <v>12.5</v>
       </c>
       <c r="F43" t="n">
-        <v>19950.5368</v>
+        <v>7697.5521</v>
       </c>
       <c r="G43" t="n">
-        <v>3545642.408236074</v>
+        <v>2836654.19778568</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2208,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.77</v>
+        <v>12.52</v>
       </c>
       <c r="C44" t="n">
-        <v>12.8</v>
+        <v>12.52</v>
       </c>
       <c r="D44" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E44" t="n">
-        <v>12.76</v>
+        <v>12.52</v>
       </c>
       <c r="F44" t="n">
-        <v>27037.2146</v>
+        <v>8522.8199</v>
       </c>
       <c r="G44" t="n">
-        <v>3572679.622836074</v>
+        <v>2836654.19778568</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2250,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="C45" t="n">
-        <v>12.76</v>
+        <v>12.52</v>
       </c>
       <c r="D45" t="n">
-        <v>12.8</v>
+        <v>12.52</v>
       </c>
       <c r="E45" t="n">
-        <v>12.6</v>
+        <v>12.52</v>
       </c>
       <c r="F45" t="n">
-        <v>657584.3741702344</v>
+        <v>3082.7574</v>
       </c>
       <c r="G45" t="n">
-        <v>2915095.24866584</v>
+        <v>2836654.19778568</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2292,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.77</v>
+        <v>12.6</v>
       </c>
       <c r="C46" t="n">
-        <v>12.79</v>
+        <v>12.6</v>
       </c>
       <c r="D46" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E46" t="n">
         <v>12.6</v>
       </c>
       <c r="F46" t="n">
-        <v>108479.1007</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>3023574.34936584</v>
+        <v>2836694.19778568</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2334,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="C47" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="D47" t="n">
-        <v>12.79</v>
+        <v>12.52</v>
       </c>
       <c r="E47" t="n">
-        <v>12.78</v>
+        <v>12.52</v>
       </c>
       <c r="F47" t="n">
-        <v>139564.0082</v>
+        <v>21362.9138</v>
       </c>
       <c r="G47" t="n">
-        <v>2884010.34116584</v>
+        <v>2815331.28398568</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2358,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2376,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.78</v>
+        <v>12.46</v>
       </c>
       <c r="C48" t="n">
-        <v>12.82</v>
+        <v>12.46</v>
       </c>
       <c r="D48" t="n">
-        <v>12.82</v>
+        <v>12.46</v>
       </c>
       <c r="E48" t="n">
-        <v>12.78</v>
+        <v>12.46</v>
       </c>
       <c r="F48" t="n">
-        <v>1356.306429765625</v>
+        <v>3091.209</v>
       </c>
       <c r="G48" t="n">
-        <v>2885366.647595605</v>
+        <v>2812240.07498568</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2418,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.81</v>
+        <v>12.46</v>
       </c>
       <c r="C49" t="n">
-        <v>12.83</v>
+        <v>12.5</v>
       </c>
       <c r="D49" t="n">
-        <v>12.83</v>
+        <v>12.59</v>
       </c>
       <c r="E49" t="n">
-        <v>12.81</v>
+        <v>12.46</v>
       </c>
       <c r="F49" t="n">
-        <v>698.4212</v>
+        <v>56212.3282</v>
       </c>
       <c r="G49" t="n">
-        <v>2886065.068795606</v>
+        <v>2868452.40318568</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2460,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.83</v>
+        <v>12.58</v>
       </c>
       <c r="C50" t="n">
-        <v>12.99</v>
+        <v>12.58</v>
       </c>
       <c r="D50" t="n">
-        <v>12.99</v>
+        <v>12.58</v>
       </c>
       <c r="E50" t="n">
-        <v>12.83</v>
+        <v>12.58</v>
       </c>
       <c r="F50" t="n">
-        <v>107403.4052</v>
+        <v>208596.9462</v>
       </c>
       <c r="G50" t="n">
-        <v>2993468.473995605</v>
+        <v>3077049.34938568</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2502,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.99</v>
+        <v>12.58</v>
       </c>
       <c r="C51" t="n">
-        <v>12.62</v>
+        <v>12.7</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E51" t="n">
-        <v>12.62</v>
+        <v>12.58</v>
       </c>
       <c r="F51" t="n">
-        <v>461195.1466</v>
+        <v>293141.1764</v>
       </c>
       <c r="G51" t="n">
-        <v>2532273.327395605</v>
+        <v>3370190.52578568</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2544,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C52" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D52" t="n">
-        <v>13.04</v>
+        <v>12.6</v>
       </c>
       <c r="E52" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F52" t="n">
-        <v>10672.3352</v>
+        <v>4232</v>
       </c>
       <c r="G52" t="n">
-        <v>2542945.662595605</v>
+        <v>3365958.52578568</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2586,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.72</v>
+        <v>12.6</v>
       </c>
       <c r="C53" t="n">
-        <v>12.72</v>
+        <v>12.5</v>
       </c>
       <c r="D53" t="n">
-        <v>12.72</v>
+        <v>12.6</v>
       </c>
       <c r="E53" t="n">
-        <v>12.72</v>
+        <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>36048.8408</v>
+        <v>8066.1647</v>
       </c>
       <c r="G53" t="n">
-        <v>2578994.503395605</v>
+        <v>3357892.36108568</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2628,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="C54" t="n">
-        <v>12.75</v>
+        <v>12.69</v>
       </c>
       <c r="D54" t="n">
-        <v>12.8</v>
+        <v>12.69</v>
       </c>
       <c r="E54" t="n">
-        <v>12.74</v>
+        <v>12.69</v>
       </c>
       <c r="F54" t="n">
-        <v>7498.351</v>
+        <v>231484.9179</v>
       </c>
       <c r="G54" t="n">
-        <v>2586492.854395605</v>
+        <v>3589377.27898568</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2670,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.77</v>
+        <v>12.69</v>
       </c>
       <c r="C55" t="n">
-        <v>12.71</v>
+        <v>12.74</v>
       </c>
       <c r="D55" t="n">
-        <v>12.77</v>
+        <v>12.74</v>
       </c>
       <c r="E55" t="n">
-        <v>12.71</v>
+        <v>12.69</v>
       </c>
       <c r="F55" t="n">
-        <v>30771.5248</v>
+        <v>538780.1843</v>
       </c>
       <c r="G55" t="n">
-        <v>2555721.329595605</v>
+        <v>4128157.46328568</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2712,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.9</v>
+        <v>12.74</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>12.69</v>
       </c>
       <c r="D56" t="n">
-        <v>12.9</v>
+        <v>12.74</v>
       </c>
       <c r="E56" t="n">
-        <v>12.7</v>
+        <v>12.59</v>
       </c>
       <c r="F56" t="n">
-        <v>7454.351</v>
+        <v>203991.1874</v>
       </c>
       <c r="G56" t="n">
-        <v>2548266.978595606</v>
+        <v>3924166.27588568</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2754,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.9</v>
+        <v>12.69</v>
       </c>
       <c r="C57" t="n">
-        <v>12.72</v>
+        <v>12.6</v>
       </c>
       <c r="D57" t="n">
-        <v>12.9</v>
+        <v>12.69</v>
       </c>
       <c r="E57" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F57" t="n">
-        <v>100033.1098</v>
+        <v>670236.0307</v>
       </c>
       <c r="G57" t="n">
-        <v>2648300.088395606</v>
+        <v>3253930.24518568</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2796,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>36945.5477</v>
+        <v>13870.2339</v>
       </c>
       <c r="G58" t="n">
-        <v>2611354.540695606</v>
+        <v>3253930.24518568</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2838,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.89</v>
+        <v>12.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12.99</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.89</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>138071.9323032925</v>
+        <v>25801.50793650794</v>
       </c>
       <c r="G59" t="n">
-        <v>2749426.472998898</v>
+        <v>3253930.24518568</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2880,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.74</v>
+        <v>12.6</v>
       </c>
       <c r="C60" t="n">
-        <v>12.74</v>
+        <v>12.6</v>
       </c>
       <c r="D60" t="n">
-        <v>12.74</v>
+        <v>12.6</v>
       </c>
       <c r="E60" t="n">
-        <v>12.74</v>
+        <v>12.6</v>
       </c>
       <c r="F60" t="n">
-        <v>6747.1336</v>
+        <v>42.7653</v>
       </c>
       <c r="G60" t="n">
-        <v>2742679.339398899</v>
+        <v>3253930.24518568</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2922,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.75</v>
+        <v>12.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.75</v>
+        <v>12.43</v>
       </c>
       <c r="D61" t="n">
-        <v>12.75</v>
+        <v>12.6</v>
       </c>
       <c r="E61" t="n">
-        <v>12.75</v>
+        <v>12.43</v>
       </c>
       <c r="F61" t="n">
-        <v>6347.3216</v>
+        <v>56362.1866</v>
       </c>
       <c r="G61" t="n">
-        <v>2749026.660998899</v>
+        <v>3197568.05858568</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2964,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.76</v>
+        <v>12.6</v>
       </c>
       <c r="C62" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D62" t="n">
-        <v>12.97</v>
+        <v>12.6</v>
       </c>
       <c r="E62" t="n">
-        <v>12.7</v>
+        <v>12.42</v>
       </c>
       <c r="F62" t="n">
-        <v>92634.1744</v>
+        <v>142128.5481</v>
       </c>
       <c r="G62" t="n">
-        <v>2656392.486598899</v>
+        <v>3339696.606685679</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +3006,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.71</v>
+        <v>12.7</v>
       </c>
       <c r="C63" t="n">
-        <v>12.65</v>
+        <v>12.75</v>
       </c>
       <c r="D63" t="n">
-        <v>12.71</v>
+        <v>12.75</v>
       </c>
       <c r="E63" t="n">
-        <v>12.65</v>
+        <v>12.7</v>
       </c>
       <c r="F63" t="n">
-        <v>12498.2752</v>
+        <v>108652.3708</v>
       </c>
       <c r="G63" t="n">
-        <v>2643894.211398899</v>
+        <v>3448348.97748568</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +3048,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.71</v>
+        <v>12.54</v>
       </c>
       <c r="C64" t="n">
-        <v>12.65</v>
+        <v>12.54</v>
       </c>
       <c r="D64" t="n">
-        <v>12.71</v>
+        <v>12.54</v>
       </c>
       <c r="E64" t="n">
-        <v>12.65</v>
+        <v>12.54</v>
       </c>
       <c r="F64" t="n">
-        <v>160725.9826</v>
+        <v>116939.9019</v>
       </c>
       <c r="G64" t="n">
-        <v>2643894.211398899</v>
+        <v>3331409.07558568</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,32 +3090,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.71</v>
+        <v>12.54</v>
       </c>
       <c r="C65" t="n">
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
       <c r="D65" t="n">
-        <v>12.71</v>
+        <v>12.54</v>
       </c>
       <c r="E65" t="n">
-        <v>12.7</v>
+        <v>12.54</v>
       </c>
       <c r="F65" t="n">
-        <v>64422.3064</v>
+        <v>22284.6726</v>
       </c>
       <c r="G65" t="n">
-        <v>2708316.517798899</v>
+        <v>3331409.07558568</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,32 +3132,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.65</v>
+        <v>12.54</v>
       </c>
       <c r="C66" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="D66" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="E66" t="n">
-        <v>12.65</v>
+        <v>12.54</v>
       </c>
       <c r="F66" t="n">
-        <v>38440.547</v>
+        <v>88216.9552</v>
       </c>
       <c r="G66" t="n">
-        <v>2669875.970798899</v>
+        <v>3419626.03078568</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +3174,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="C67" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="D67" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="E67" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="F67" t="n">
-        <v>12989.8153</v>
+        <v>238.0709</v>
       </c>
       <c r="G67" t="n">
-        <v>2669875.970798899</v>
+        <v>3419626.03078568</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,32 +3216,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.9</v>
+        <v>12.55</v>
       </c>
       <c r="C68" t="n">
-        <v>12.9</v>
+        <v>12.55</v>
       </c>
       <c r="D68" t="n">
-        <v>12.9</v>
+        <v>12.55</v>
       </c>
       <c r="E68" t="n">
-        <v>12.9</v>
+        <v>12.55</v>
       </c>
       <c r="F68" t="n">
-        <v>722.7172</v>
+        <v>20445.5502</v>
       </c>
       <c r="G68" t="n">
-        <v>2670598.687998899</v>
+        <v>3419626.03078568</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +3258,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.7</v>
+        <v>12.55</v>
       </c>
       <c r="C69" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="D69" t="n">
-        <v>12.8</v>
+        <v>12.55</v>
       </c>
       <c r="E69" t="n">
-        <v>12.65</v>
+        <v>12.55</v>
       </c>
       <c r="F69" t="n">
-        <v>88886.57490000001</v>
+        <v>19637.9625</v>
       </c>
       <c r="G69" t="n">
-        <v>2581712.113098899</v>
+        <v>3419626.03078568</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,32 +3300,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="C70" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="D70" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="E70" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="F70" t="n">
-        <v>2458.4557</v>
+        <v>37852.1868</v>
       </c>
       <c r="G70" t="n">
-        <v>2584170.568798899</v>
+        <v>3381773.84398568</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3342,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="C71" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="D71" t="n">
-        <v>12.7</v>
+        <v>12.53</v>
       </c>
       <c r="E71" t="n">
-        <v>12.7</v>
+        <v>12.51</v>
       </c>
       <c r="F71" t="n">
-        <v>1180</v>
+        <v>25801.508</v>
       </c>
       <c r="G71" t="n">
-        <v>2584170.568798899</v>
+        <v>3381773.84398568</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,32 +3384,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.66</v>
+        <v>12.51</v>
       </c>
       <c r="C72" t="n">
-        <v>12.66</v>
+        <v>12.51</v>
       </c>
       <c r="D72" t="n">
-        <v>12.66</v>
+        <v>12.51</v>
       </c>
       <c r="E72" t="n">
-        <v>12.66</v>
+        <v>12.51</v>
       </c>
       <c r="F72" t="n">
-        <v>20934.9721</v>
+        <v>9132.4282</v>
       </c>
       <c r="G72" t="n">
-        <v>2563235.596698899</v>
+        <v>3381773.84398568</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,32 +3426,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.66</v>
+        <v>12.69</v>
       </c>
       <c r="C73" t="n">
-        <v>12.65</v>
+        <v>12.69</v>
       </c>
       <c r="D73" t="n">
-        <v>12.66</v>
+        <v>12.69</v>
       </c>
       <c r="E73" t="n">
-        <v>12.65</v>
+        <v>12.69</v>
       </c>
       <c r="F73" t="n">
-        <v>184300.8593</v>
+        <v>12911.446</v>
       </c>
       <c r="G73" t="n">
-        <v>2378934.737398899</v>
+        <v>3394685.28998568</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,32 +3468,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.69</v>
+        <v>12.68</v>
       </c>
       <c r="C74" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="D74" t="n">
-        <v>12.7</v>
+        <v>12.68</v>
       </c>
       <c r="E74" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="F74" t="n">
-        <v>12274.0787</v>
+        <v>8936</v>
       </c>
       <c r="G74" t="n">
-        <v>2378934.737398899</v>
+        <v>3385749.28998568</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,32 +3510,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="C75" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="D75" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="E75" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="F75" t="n">
-        <v>4509.5707</v>
+        <v>22906.06324479495</v>
       </c>
       <c r="G75" t="n">
-        <v>2378934.737398899</v>
+        <v>3385749.28998568</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,32 +3552,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="C76" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="D76" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
       </c>
       <c r="E76" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="F76" t="n">
-        <v>494.5997</v>
+        <v>11644.7395</v>
       </c>
       <c r="G76" t="n">
-        <v>2378934.737398899</v>
+        <v>3374104.55048568</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,32 +3594,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="C77" t="n">
-        <v>12.65</v>
+        <v>12.44</v>
       </c>
       <c r="D77" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="E77" t="n">
-        <v>12.62</v>
+        <v>12.44</v>
       </c>
       <c r="F77" t="n">
-        <v>234236.7493</v>
+        <v>27538.9274</v>
       </c>
       <c r="G77" t="n">
-        <v>2378934.737398899</v>
+        <v>3346565.62308568</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,32 +3636,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="C78" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="D78" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="E78" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="F78" t="n">
-        <v>18952.5</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>2378934.737398899</v>
+        <v>3346665.62308568</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,32 +3678,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.76</v>
+        <v>12.6</v>
       </c>
       <c r="C79" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="D79" t="n">
-        <v>12.76</v>
+        <v>12.6</v>
       </c>
       <c r="E79" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="F79" t="n">
-        <v>22909.8728</v>
+        <v>23164.8846</v>
       </c>
       <c r="G79" t="n">
-        <v>2378934.737398899</v>
+        <v>3346665.62308568</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,32 +3720,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="C80" t="n">
-        <v>12.7</v>
+        <v>12.68</v>
       </c>
       <c r="D80" t="n">
-        <v>12.7</v>
+        <v>12.68</v>
       </c>
       <c r="E80" t="n">
-        <v>12.65</v>
+        <v>12.6</v>
       </c>
       <c r="F80" t="n">
-        <v>51761.9066</v>
+        <v>482783.7708</v>
       </c>
       <c r="G80" t="n">
-        <v>2430696.643998899</v>
+        <v>3829449.39388568</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3762,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="C81" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="D81" t="n">
-        <v>12.6</v>
+        <v>12.68</v>
       </c>
       <c r="E81" t="n">
-        <v>12.54</v>
+        <v>12.68</v>
       </c>
       <c r="F81" t="n">
-        <v>98976.1058</v>
+        <v>400.8031</v>
       </c>
       <c r="G81" t="n">
-        <v>2331720.538198899</v>
+        <v>3829449.39388568</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3306,10 +3786,16 @@
         <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>1.028414832925836</v>
       </c>
       <c r="N81" t="inlineStr"/>
     </row>
@@ -3318,22 +3804,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.54</v>
+        <v>12.68</v>
       </c>
       <c r="C82" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="D82" t="n">
-        <v>12.54</v>
+        <v>12.7</v>
       </c>
       <c r="E82" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="F82" t="n">
-        <v>23427.7976</v>
+        <v>111201.3031</v>
       </c>
       <c r="G82" t="n">
-        <v>2308292.740598898</v>
+        <v>3718248.09078568</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3840,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="C83" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="D83" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="E83" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="F83" t="n">
-        <v>5621.9861</v>
+        <v>2406.3837</v>
       </c>
       <c r="G83" t="n">
-        <v>2302670.754498899</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,28 +3876,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="C84" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="D84" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="E84" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="F84" t="n">
-        <v>6572.2024</v>
+        <v>16548.2106</v>
       </c>
       <c r="G84" t="n">
-        <v>2309242.956898898</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3438,16 +3924,16 @@
         <v>12.6</v>
       </c>
       <c r="F85" t="n">
-        <v>108382</v>
+        <v>2948.3896</v>
       </c>
       <c r="G85" t="n">
-        <v>2417624.956898898</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3948,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="C86" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="D86" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="E86" t="n">
-        <v>12.68</v>
+        <v>12.6</v>
       </c>
       <c r="F86" t="n">
-        <v>78698.4203</v>
+        <v>12522.9145</v>
       </c>
       <c r="G86" t="n">
-        <v>2496323.377198898</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3510,10 +3996,10 @@
         <v>12.6</v>
       </c>
       <c r="F87" t="n">
-        <v>49000</v>
+        <v>29140.1309</v>
       </c>
       <c r="G87" t="n">
-        <v>2447323.377198898</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +4020,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="C88" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D88" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="E88" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F88" t="n">
-        <v>77826.6753</v>
+        <v>39664.9746</v>
       </c>
       <c r="G88" t="n">
-        <v>2369496.701898898</v>
+        <v>3720654.47448568</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,28 +4056,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="C89" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="D89" t="n">
-        <v>12.51</v>
+        <v>12.61</v>
       </c>
       <c r="E89" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="F89" t="n">
-        <v>70000</v>
+        <v>4472.3047</v>
       </c>
       <c r="G89" t="n">
-        <v>2369496.701898898</v>
+        <v>3725126.77918568</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +4092,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="C90" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="D90" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="E90" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="F90" t="n">
-        <v>5125.2753</v>
+        <v>36201.6181</v>
       </c>
       <c r="G90" t="n">
-        <v>2369496.701898898</v>
+        <v>3725126.77918568</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +4128,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C91" t="n">
-        <v>12.45</v>
+        <v>12.6</v>
       </c>
       <c r="D91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E91" t="n">
-        <v>12.45</v>
+        <v>12.6</v>
       </c>
       <c r="F91" t="n">
-        <v>137838.368</v>
+        <v>12425.2452</v>
       </c>
       <c r="G91" t="n">
-        <v>2231658.333898898</v>
+        <v>3712701.53398568</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +4164,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C92" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D92" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E92" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F92" t="n">
-        <v>793.7091</v>
+        <v>1500</v>
       </c>
       <c r="G92" t="n">
-        <v>2232452.042998898</v>
+        <v>3714201.53398568</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +4200,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="C93" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="D93" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="E93" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="F93" t="n">
-        <v>13395.7374</v>
+        <v>2000</v>
       </c>
       <c r="G93" t="n">
-        <v>2219056.305598898</v>
+        <v>3712201.53398568</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +4236,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="C94" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="D94" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="E94" t="n">
-        <v>12.53</v>
+        <v>12.6</v>
       </c>
       <c r="F94" t="n">
-        <v>3333</v>
+        <v>1162.0271</v>
       </c>
       <c r="G94" t="n">
-        <v>2215723.305598898</v>
+        <v>3712201.53398568</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +4272,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="C95" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="D95" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="E95" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="F95" t="n">
-        <v>188.7888</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>2215723.305598898</v>
+        <v>3712241.53398568</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,28 +4308,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="C96" t="n">
-        <v>12.52</v>
+        <v>12.56</v>
       </c>
       <c r="D96" t="n">
-        <v>12.52</v>
+        <v>12.61</v>
       </c>
       <c r="E96" t="n">
-        <v>12.52</v>
+        <v>12.56</v>
       </c>
       <c r="F96" t="n">
-        <v>198328.993</v>
+        <v>267317.0216</v>
       </c>
       <c r="G96" t="n">
-        <v>2017394.312598898</v>
+        <v>3444924.51238568</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3858,22 +4344,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.48</v>
+        <v>12.69</v>
       </c>
       <c r="C97" t="n">
-        <v>12.48</v>
+        <v>12.55</v>
       </c>
       <c r="D97" t="n">
-        <v>12.48</v>
+        <v>12.7</v>
       </c>
       <c r="E97" t="n">
-        <v>12.48</v>
+        <v>12.55</v>
       </c>
       <c r="F97" t="n">
-        <v>118589.7427</v>
+        <v>27617.42350944882</v>
       </c>
       <c r="G97" t="n">
-        <v>1898804.569898898</v>
+        <v>3417307.088876232</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +4380,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.47</v>
+        <v>12.69</v>
       </c>
       <c r="C98" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="D98" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="E98" t="n">
-        <v>12.47</v>
+        <v>12.69</v>
       </c>
       <c r="F98" t="n">
-        <v>546035.9447</v>
+        <v>235.7384</v>
       </c>
       <c r="G98" t="n">
-        <v>2444840.514598898</v>
+        <v>3417542.827276232</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,28 +4416,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="C99" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="D99" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="E99" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="F99" t="n">
-        <v>5737.1169</v>
+        <v>882.8262999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>2450577.631498898</v>
+        <v>3416660.000976232</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3966,28 +4452,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="C100" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="D100" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="E100" t="n">
-        <v>12.53</v>
+        <v>12.69</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>93061.10490000001</v>
       </c>
       <c r="G100" t="n">
-        <v>2450577.631498898</v>
+        <v>3509721.105876232</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4002,28 +4488,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="C101" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="D101" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="E101" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="F101" t="n">
-        <v>50771.3765</v>
+        <v>10434.9715</v>
       </c>
       <c r="G101" t="n">
-        <v>2450577.631498898</v>
+        <v>3499286.134376232</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,28 +4524,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="C102" t="n">
-        <v>12.5</v>
+        <v>12.62</v>
       </c>
       <c r="D102" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="E102" t="n">
-        <v>12.5</v>
+        <v>12.62</v>
       </c>
       <c r="F102" t="n">
-        <v>885.7344000000001</v>
+        <v>83430.5312</v>
       </c>
       <c r="G102" t="n">
-        <v>2449691.897098898</v>
+        <v>3499286.134376232</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4560,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.52</v>
+        <v>12.7</v>
       </c>
       <c r="C103" t="n">
-        <v>12.53</v>
+        <v>12.7</v>
       </c>
       <c r="D103" t="n">
-        <v>12.53</v>
+        <v>12.7</v>
       </c>
       <c r="E103" t="n">
-        <v>12.52</v>
+        <v>12.7</v>
       </c>
       <c r="F103" t="n">
-        <v>22674.6709</v>
+        <v>349.9212598425197</v>
       </c>
       <c r="G103" t="n">
-        <v>2472366.567998898</v>
+        <v>3499636.055636074</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4596,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="C104" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="D104" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="E104" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="F104" t="n">
-        <v>198.6048</v>
+        <v>3846.8382</v>
       </c>
       <c r="G104" t="n">
-        <v>2472366.567998898</v>
+        <v>3495789.217436074</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4632,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="C105" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="D105" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="E105" t="n">
-        <v>12.53</v>
+        <v>12.62</v>
       </c>
       <c r="F105" t="n">
-        <v>46958.4539</v>
+        <v>49958.0259</v>
       </c>
       <c r="G105" t="n">
-        <v>2472366.567998898</v>
+        <v>3495789.217436074</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4668,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.53</v>
+        <v>12.57</v>
       </c>
       <c r="C106" t="n">
-        <v>12.53</v>
+        <v>12.57</v>
       </c>
       <c r="D106" t="n">
-        <v>12.53</v>
+        <v>12.57</v>
       </c>
       <c r="E106" t="n">
-        <v>12.53</v>
+        <v>12.57</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0001</v>
+        <v>22337.961</v>
       </c>
       <c r="G106" t="n">
-        <v>2472366.567998898</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,22 +4704,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.52</v>
+        <v>12.57</v>
       </c>
       <c r="C107" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="D107" t="n">
-        <v>12.52</v>
+        <v>12.57</v>
       </c>
       <c r="E107" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="F107" t="n">
-        <v>94543.5436</v>
+        <v>2000</v>
       </c>
       <c r="G107" t="n">
-        <v>2377823.024398898</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4740,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="C108" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="D108" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="E108" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="F108" t="n">
-        <v>1561.1059</v>
+        <v>43000</v>
       </c>
       <c r="G108" t="n">
-        <v>2377823.024398898</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,28 +4776,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="C109" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="D109" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="E109" t="n">
-        <v>12.51</v>
+        <v>12.57</v>
       </c>
       <c r="F109" t="n">
-        <v>271461.6904</v>
+        <v>32000</v>
       </c>
       <c r="G109" t="n">
-        <v>2377823.024398898</v>
+        <v>3473451.256436074</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4326,22 +4812,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.59</v>
+        <v>12.55</v>
       </c>
       <c r="C110" t="n">
-        <v>12.59</v>
+        <v>12.55</v>
       </c>
       <c r="D110" t="n">
-        <v>12.59</v>
+        <v>12.55</v>
       </c>
       <c r="E110" t="n">
-        <v>12.59</v>
+        <v>12.55</v>
       </c>
       <c r="F110" t="n">
-        <v>237.6901</v>
+        <v>45000</v>
       </c>
       <c r="G110" t="n">
-        <v>2378060.714498898</v>
+        <v>3428451.256436074</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,28 +4848,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.59</v>
+        <v>12.62</v>
       </c>
       <c r="C111" t="n">
-        <v>12.61</v>
+        <v>12.65</v>
       </c>
       <c r="D111" t="n">
-        <v>12.61</v>
+        <v>12.65</v>
       </c>
       <c r="E111" t="n">
-        <v>12.59</v>
+        <v>12.62</v>
       </c>
       <c r="F111" t="n">
-        <v>100000</v>
+        <v>44653.6918</v>
       </c>
       <c r="G111" t="n">
-        <v>2478060.714498898</v>
+        <v>3473104.948236074</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4398,28 +4884,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="C112" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="D112" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="E112" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="F112" t="n">
-        <v>18231.0547</v>
+        <v>52586.9232</v>
       </c>
       <c r="G112" t="n">
-        <v>2459829.659798897</v>
+        <v>3525691.871436074</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4434,28 +4920,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="C113" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="D113" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="E113" t="n">
-        <v>12.51</v>
+        <v>12.7</v>
       </c>
       <c r="F113" t="n">
-        <v>91595.9822</v>
+        <v>101550.6523</v>
       </c>
       <c r="G113" t="n">
-        <v>2459829.659798897</v>
+        <v>3525691.871436074</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4470,28 +4956,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="C114" t="n">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="D114" t="n">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="E114" t="n">
-        <v>12.5</v>
+        <v>12.69</v>
       </c>
       <c r="F114" t="n">
-        <v>80000</v>
+        <v>19950.5368</v>
       </c>
       <c r="G114" t="n">
-        <v>2379829.659798897</v>
+        <v>3545642.408236074</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4506,28 +4992,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.5</v>
+        <v>12.77</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D115" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.76</v>
       </c>
       <c r="F115" t="n">
-        <v>4666.8586</v>
+        <v>27037.2146</v>
       </c>
       <c r="G115" t="n">
-        <v>2379829.659798897</v>
+        <v>3572679.622836074</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +5028,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.45</v>
+        <v>12.78</v>
       </c>
       <c r="C116" t="n">
-        <v>12.45</v>
+        <v>12.76</v>
       </c>
       <c r="D116" t="n">
-        <v>12.45</v>
+        <v>12.8</v>
       </c>
       <c r="E116" t="n">
-        <v>12.45</v>
+        <v>12.6</v>
       </c>
       <c r="F116" t="n">
-        <v>84869.787</v>
+        <v>657584.3741702344</v>
       </c>
       <c r="G116" t="n">
-        <v>2294959.872798897</v>
+        <v>2915095.24866584</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +5064,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.45</v>
+        <v>12.77</v>
       </c>
       <c r="C117" t="n">
-        <v>12.45</v>
+        <v>12.79</v>
       </c>
       <c r="D117" t="n">
-        <v>12.45</v>
+        <v>12.8</v>
       </c>
       <c r="E117" t="n">
-        <v>12.45</v>
+        <v>12.6</v>
       </c>
       <c r="F117" t="n">
-        <v>330252.2085</v>
+        <v>108479.1007</v>
       </c>
       <c r="G117" t="n">
-        <v>2294959.872798897</v>
+        <v>3023574.34936584</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,28 +5100,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.55</v>
+        <v>12.78</v>
       </c>
       <c r="C118" t="n">
-        <v>12.55</v>
+        <v>12.78</v>
       </c>
       <c r="D118" t="n">
-        <v>12.55</v>
+        <v>12.79</v>
       </c>
       <c r="E118" t="n">
-        <v>12.55</v>
+        <v>12.78</v>
       </c>
       <c r="F118" t="n">
-        <v>1791.9106</v>
+        <v>139564.0082</v>
       </c>
       <c r="G118" t="n">
-        <v>2296751.783398897</v>
+        <v>2884010.34116584</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,28 +5136,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.55</v>
+        <v>12.78</v>
       </c>
       <c r="C119" t="n">
-        <v>12.55</v>
+        <v>12.82</v>
       </c>
       <c r="D119" t="n">
-        <v>12.55</v>
+        <v>12.82</v>
       </c>
       <c r="E119" t="n">
-        <v>12.55</v>
+        <v>12.78</v>
       </c>
       <c r="F119" t="n">
-        <v>13144.2526</v>
+        <v>1356.306429765625</v>
       </c>
       <c r="G119" t="n">
-        <v>2296751.783398897</v>
+        <v>2885366.647595605</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4686,28 +5172,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.56</v>
+        <v>12.81</v>
       </c>
       <c r="C120" t="n">
-        <v>12.56</v>
+        <v>12.83</v>
       </c>
       <c r="D120" t="n">
-        <v>12.56</v>
+        <v>12.83</v>
       </c>
       <c r="E120" t="n">
-        <v>12.56</v>
+        <v>12.81</v>
       </c>
       <c r="F120" t="n">
-        <v>24000</v>
+        <v>698.4212</v>
       </c>
       <c r="G120" t="n">
-        <v>2320751.783398897</v>
+        <v>2886065.068795606</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4722,28 +5208,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.56</v>
+        <v>12.83</v>
       </c>
       <c r="C121" t="n">
-        <v>12.56</v>
+        <v>12.99</v>
       </c>
       <c r="D121" t="n">
-        <v>12.56</v>
+        <v>12.99</v>
       </c>
       <c r="E121" t="n">
-        <v>12.56</v>
+        <v>12.83</v>
       </c>
       <c r="F121" t="n">
-        <v>11085.1914</v>
+        <v>107403.4052</v>
       </c>
       <c r="G121" t="n">
-        <v>2320751.783398897</v>
+        <v>2993468.473995605</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4758,28 +5244,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.45</v>
+        <v>12.99</v>
       </c>
       <c r="C122" t="n">
-        <v>12.45</v>
+        <v>12.62</v>
       </c>
       <c r="D122" t="n">
-        <v>12.45</v>
+        <v>13</v>
       </c>
       <c r="E122" t="n">
-        <v>12.45</v>
+        <v>12.62</v>
       </c>
       <c r="F122" t="n">
-        <v>74389.478</v>
+        <v>461195.1466</v>
       </c>
       <c r="G122" t="n">
-        <v>2246362.305398897</v>
+        <v>2532273.327395605</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4794,28 +5280,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.45</v>
+        <v>13</v>
       </c>
       <c r="C123" t="n">
-        <v>12.45</v>
+        <v>12.7</v>
       </c>
       <c r="D123" t="n">
-        <v>12.45</v>
+        <v>13.04</v>
       </c>
       <c r="E123" t="n">
-        <v>12.45</v>
+        <v>12.7</v>
       </c>
       <c r="F123" t="n">
-        <v>339.7803</v>
+        <v>10672.3352</v>
       </c>
       <c r="G123" t="n">
-        <v>2246362.305398897</v>
+        <v>2542945.662595605</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4830,28 +5316,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.49</v>
+        <v>12.72</v>
       </c>
       <c r="C124" t="n">
-        <v>12.49</v>
+        <v>12.72</v>
       </c>
       <c r="D124" t="n">
-        <v>12.49</v>
+        <v>12.72</v>
       </c>
       <c r="E124" t="n">
-        <v>12.49</v>
+        <v>12.72</v>
       </c>
       <c r="F124" t="n">
-        <v>3112.1442</v>
+        <v>36048.8408</v>
       </c>
       <c r="G124" t="n">
-        <v>2249474.449598897</v>
+        <v>2578994.503395605</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4866,28 +5352,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.49</v>
+        <v>12.74</v>
       </c>
       <c r="C125" t="n">
-        <v>12.5</v>
+        <v>12.75</v>
       </c>
       <c r="D125" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E125" t="n">
-        <v>12.49</v>
+        <v>12.74</v>
       </c>
       <c r="F125" t="n">
-        <v>100219.7434</v>
+        <v>7498.351</v>
       </c>
       <c r="G125" t="n">
-        <v>2349694.192998897</v>
+        <v>2586492.854395605</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4902,28 +5388,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.59</v>
+        <v>12.77</v>
       </c>
       <c r="C126" t="n">
-        <v>12.59</v>
+        <v>12.71</v>
       </c>
       <c r="D126" t="n">
-        <v>12.59</v>
+        <v>12.77</v>
       </c>
       <c r="E126" t="n">
-        <v>12.59</v>
+        <v>12.71</v>
       </c>
       <c r="F126" t="n">
-        <v>71618.4281</v>
+        <v>30771.5248</v>
       </c>
       <c r="G126" t="n">
-        <v>2421312.621098897</v>
+        <v>2555721.329595605</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4938,28 +5424,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="C127" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D127" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E127" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F127" t="n">
-        <v>41363.9493</v>
+        <v>7454.351</v>
       </c>
       <c r="G127" t="n">
-        <v>2379948.671798897</v>
+        <v>2548266.978595606</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4974,28 +5460,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="C128" t="n">
-        <v>12.5</v>
+        <v>12.72</v>
       </c>
       <c r="D128" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E128" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F128" t="n">
-        <v>16799.7862</v>
+        <v>100033.1098</v>
       </c>
       <c r="G128" t="n">
-        <v>2379948.671798897</v>
+        <v>2648300.088395606</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5010,28 +5496,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C129" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D129" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E129" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F129" t="n">
-        <v>3502.7278</v>
+        <v>36945.5477</v>
       </c>
       <c r="G129" t="n">
-        <v>2379948.671798897</v>
+        <v>2611354.540695606</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5046,28 +5532,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.5</v>
+        <v>12.89</v>
       </c>
       <c r="C130" t="n">
-        <v>12.5</v>
+        <v>12.99</v>
       </c>
       <c r="D130" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="E130" t="n">
-        <v>12.5</v>
+        <v>12.89</v>
       </c>
       <c r="F130" t="n">
-        <v>146235</v>
+        <v>138071.9323032925</v>
       </c>
       <c r="G130" t="n">
-        <v>2379948.671798897</v>
+        <v>2749426.472998898</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5082,28 +5568,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.5</v>
+        <v>12.74</v>
       </c>
       <c r="C131" t="n">
-        <v>12.5</v>
+        <v>12.74</v>
       </c>
       <c r="D131" t="n">
-        <v>12.5</v>
+        <v>12.74</v>
       </c>
       <c r="E131" t="n">
-        <v>12.5</v>
+        <v>12.74</v>
       </c>
       <c r="F131" t="n">
-        <v>24666.6533</v>
+        <v>6747.1336</v>
       </c>
       <c r="G131" t="n">
-        <v>2379948.671798897</v>
+        <v>2742679.339398899</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5118,28 +5604,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.49</v>
+        <v>12.75</v>
       </c>
       <c r="C132" t="n">
-        <v>12.49</v>
+        <v>12.75</v>
       </c>
       <c r="D132" t="n">
-        <v>12.49</v>
+        <v>12.75</v>
       </c>
       <c r="E132" t="n">
-        <v>12.49</v>
+        <v>12.75</v>
       </c>
       <c r="F132" t="n">
-        <v>906</v>
+        <v>6347.3216</v>
       </c>
       <c r="G132" t="n">
-        <v>2379042.671798897</v>
+        <v>2749026.660998899</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5154,28 +5640,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.49</v>
+        <v>12.76</v>
       </c>
       <c r="C133" t="n">
-        <v>12.49</v>
+        <v>12.7</v>
       </c>
       <c r="D133" t="n">
-        <v>12.49</v>
+        <v>12.97</v>
       </c>
       <c r="E133" t="n">
-        <v>12.49</v>
+        <v>12.7</v>
       </c>
       <c r="F133" t="n">
-        <v>100.7401</v>
+        <v>92634.1744</v>
       </c>
       <c r="G133" t="n">
-        <v>2379042.671798897</v>
+        <v>2656392.486598899</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5190,28 +5676,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.49</v>
+        <v>12.71</v>
       </c>
       <c r="C134" t="n">
-        <v>12.49</v>
+        <v>12.65</v>
       </c>
       <c r="D134" t="n">
-        <v>12.49</v>
+        <v>12.71</v>
       </c>
       <c r="E134" t="n">
-        <v>12.49</v>
+        <v>12.65</v>
       </c>
       <c r="F134" t="n">
-        <v>6184.9024</v>
+        <v>12498.2752</v>
       </c>
       <c r="G134" t="n">
-        <v>2379042.671798897</v>
+        <v>2643894.211398899</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5226,28 +5712,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.51</v>
+        <v>12.71</v>
       </c>
       <c r="C135" t="n">
-        <v>12.5</v>
+        <v>12.65</v>
       </c>
       <c r="D135" t="n">
-        <v>12.51</v>
+        <v>12.71</v>
       </c>
       <c r="E135" t="n">
-        <v>12.5</v>
+        <v>12.65</v>
       </c>
       <c r="F135" t="n">
-        <v>100000</v>
+        <v>160725.9826</v>
       </c>
       <c r="G135" t="n">
-        <v>2479042.671798897</v>
+        <v>2643894.211398899</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5262,28 +5748,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.59</v>
+        <v>12.71</v>
       </c>
       <c r="C136" t="n">
-        <v>12.59</v>
+        <v>12.7</v>
       </c>
       <c r="D136" t="n">
-        <v>12.59</v>
+        <v>12.71</v>
       </c>
       <c r="E136" t="n">
-        <v>12.59</v>
+        <v>12.7</v>
       </c>
       <c r="F136" t="n">
-        <v>75302.0166</v>
+        <v>64422.3064</v>
       </c>
       <c r="G136" t="n">
-        <v>2554344.688398898</v>
+        <v>2708316.517798899</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5298,22 +5784,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="C137" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="D137" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="E137" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="F137" t="n">
-        <v>3897</v>
+        <v>38440.547</v>
       </c>
       <c r="G137" t="n">
-        <v>2550447.688398898</v>
+        <v>2669875.970798899</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5820,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="C138" t="n">
-        <v>12.45</v>
+        <v>12.65</v>
       </c>
       <c r="D138" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="E138" t="n">
-        <v>12.45</v>
+        <v>12.65</v>
       </c>
       <c r="F138" t="n">
-        <v>159314</v>
+        <v>12989.8153</v>
       </c>
       <c r="G138" t="n">
-        <v>2391133.688398898</v>
+        <v>2669875.970798899</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5856,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.45</v>
+        <v>12.9</v>
       </c>
       <c r="C139" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="D139" t="n">
-        <v>12.45</v>
+        <v>12.9</v>
       </c>
       <c r="E139" t="n">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="F139" t="n">
-        <v>90835.497</v>
+        <v>722.7172</v>
       </c>
       <c r="G139" t="n">
-        <v>2300298.191398898</v>
+        <v>2670598.687998899</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,28 +5892,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C140" t="n">
-        <v>12.4</v>
+        <v>12.65</v>
       </c>
       <c r="D140" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E140" t="n">
-        <v>12.4</v>
+        <v>12.65</v>
       </c>
       <c r="F140" t="n">
-        <v>70154.11629999999</v>
+        <v>88886.57490000001</v>
       </c>
       <c r="G140" t="n">
-        <v>2300298.191398898</v>
+        <v>2581712.113098899</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5442,22 +5928,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C141" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="D141" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E141" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F141" t="n">
-        <v>97770.7309</v>
+        <v>2458.4557</v>
       </c>
       <c r="G141" t="n">
-        <v>2202527.460498898</v>
+        <v>2584170.568798899</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5964,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="C142" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="D142" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="E142" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="F142" t="n">
-        <v>14747.6652</v>
+        <v>1180</v>
       </c>
       <c r="G142" t="n">
-        <v>2202527.460498898</v>
+        <v>2584170.568798899</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +6000,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.24</v>
+        <v>12.66</v>
       </c>
       <c r="C143" t="n">
-        <v>12.1</v>
+        <v>12.66</v>
       </c>
       <c r="D143" t="n">
-        <v>12.24</v>
+        <v>12.66</v>
       </c>
       <c r="E143" t="n">
-        <v>12.1</v>
+        <v>12.66</v>
       </c>
       <c r="F143" t="n">
-        <v>88608.57490000001</v>
+        <v>20934.9721</v>
       </c>
       <c r="G143" t="n">
-        <v>2113918.885598898</v>
+        <v>2563235.596698899</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +6036,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.11</v>
+        <v>12.66</v>
       </c>
       <c r="C144" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="D144" t="n">
-        <v>12.11</v>
+        <v>12.66</v>
       </c>
       <c r="E144" t="n">
-        <v>12.04</v>
+        <v>12.65</v>
       </c>
       <c r="F144" t="n">
-        <v>482125.336953719</v>
+        <v>184300.8593</v>
       </c>
       <c r="G144" t="n">
-        <v>2113918.885598898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +6072,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.1</v>
+        <v>12.69</v>
       </c>
       <c r="C145" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="D145" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="E145" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="F145" t="n">
-        <v>74877.65640000001</v>
+        <v>12274.0787</v>
       </c>
       <c r="G145" t="n">
-        <v>2113918.885598898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +6108,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.09</v>
+        <v>12.65</v>
       </c>
       <c r="C146" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="D146" t="n">
-        <v>12.09</v>
+        <v>12.65</v>
       </c>
       <c r="E146" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="F146" t="n">
-        <v>405336.6056</v>
+        <v>4509.5707</v>
       </c>
       <c r="G146" t="n">
-        <v>1708582.279998898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +6144,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.02</v>
+        <v>12.65</v>
       </c>
       <c r="C147" t="n">
-        <v>12.2</v>
+        <v>12.65</v>
       </c>
       <c r="D147" t="n">
-        <v>12.2</v>
+        <v>12.65</v>
       </c>
       <c r="E147" t="n">
-        <v>12.02</v>
+        <v>12.65</v>
       </c>
       <c r="F147" t="n">
-        <v>141275.7071</v>
+        <v>494.5997</v>
       </c>
       <c r="G147" t="n">
-        <v>1849857.987098898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +6180,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="C148" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="D148" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="E148" t="n">
-        <v>12.1</v>
+        <v>12.62</v>
       </c>
       <c r="F148" t="n">
-        <v>185161.7893</v>
+        <v>234236.7493</v>
       </c>
       <c r="G148" t="n">
-        <v>1664696.197798898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +6216,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="C149" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="D149" t="n">
-        <v>12.1</v>
+        <v>12.65</v>
       </c>
       <c r="E149" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="F149" t="n">
-        <v>138263.0901</v>
+        <v>18952.5</v>
       </c>
       <c r="G149" t="n">
-        <v>1526433.107698898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +6252,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12.01</v>
+        <v>12.76</v>
       </c>
       <c r="C150" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="D150" t="n">
-        <v>12.01</v>
+        <v>12.76</v>
       </c>
       <c r="E150" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="F150" t="n">
-        <v>69872.8138</v>
+        <v>22909.8728</v>
       </c>
       <c r="G150" t="n">
-        <v>1526433.107698898</v>
+        <v>2378934.737398899</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +6288,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="C151" t="n">
-        <v>12.01</v>
+        <v>12.7</v>
       </c>
       <c r="D151" t="n">
-        <v>12.01</v>
+        <v>12.7</v>
       </c>
       <c r="E151" t="n">
-        <v>12.01</v>
+        <v>12.65</v>
       </c>
       <c r="F151" t="n">
-        <v>58904.8469</v>
+        <v>51761.9066</v>
       </c>
       <c r="G151" t="n">
-        <v>1526433.107698898</v>
+        <v>2430696.643998899</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +6324,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12.05</v>
+        <v>12.6</v>
       </c>
       <c r="C152" t="n">
-        <v>12.05</v>
+        <v>12.6</v>
       </c>
       <c r="D152" t="n">
-        <v>12.05</v>
+        <v>12.6</v>
       </c>
       <c r="E152" t="n">
-        <v>12.05</v>
+        <v>12.54</v>
       </c>
       <c r="F152" t="n">
-        <v>51780.0456</v>
+        <v>98976.1058</v>
       </c>
       <c r="G152" t="n">
-        <v>1578213.153298898</v>
+        <v>2331720.538198899</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,22 +6360,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12.05</v>
+        <v>12.54</v>
       </c>
       <c r="C153" t="n">
-        <v>12.05</v>
+        <v>12.54</v>
       </c>
       <c r="D153" t="n">
-        <v>12.05</v>
+        <v>12.54</v>
       </c>
       <c r="E153" t="n">
-        <v>12.05</v>
+        <v>12.54</v>
       </c>
       <c r="F153" t="n">
-        <v>99</v>
+        <v>23427.7976</v>
       </c>
       <c r="G153" t="n">
-        <v>1578213.153298898</v>
+        <v>2308292.740598898</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +6396,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>12.05</v>
+        <v>12.53</v>
       </c>
       <c r="C154" t="n">
-        <v>12.05</v>
+        <v>12.53</v>
       </c>
       <c r="D154" t="n">
-        <v>12.05</v>
+        <v>12.53</v>
       </c>
       <c r="E154" t="n">
-        <v>12.05</v>
+        <v>12.53</v>
       </c>
       <c r="F154" t="n">
-        <v>100</v>
+        <v>5621.9861</v>
       </c>
       <c r="G154" t="n">
-        <v>1578213.153298898</v>
+        <v>2302670.754498899</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +6432,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12</v>
+        <v>12.54</v>
       </c>
       <c r="C155" t="n">
-        <v>11.96</v>
+        <v>12.54</v>
       </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>12.54</v>
       </c>
       <c r="E155" t="n">
-        <v>11.81</v>
+        <v>12.54</v>
       </c>
       <c r="F155" t="n">
-        <v>793440.9305</v>
+        <v>6572.2024</v>
       </c>
       <c r="G155" t="n">
-        <v>784772.2227988981</v>
+        <v>2309242.956898898</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +6468,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.81</v>
+        <v>12.6</v>
       </c>
       <c r="C156" t="n">
-        <v>12.06</v>
+        <v>12.6</v>
       </c>
       <c r="D156" t="n">
-        <v>12.06</v>
+        <v>12.6</v>
       </c>
       <c r="E156" t="n">
-        <v>11.81</v>
+        <v>12.6</v>
       </c>
       <c r="F156" t="n">
-        <v>88156.62149999999</v>
+        <v>108382</v>
       </c>
       <c r="G156" t="n">
-        <v>872928.8442988981</v>
+        <v>2417624.956898898</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6504,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.81</v>
+        <v>12.68</v>
       </c>
       <c r="C157" t="n">
-        <v>11.79</v>
+        <v>12.68</v>
       </c>
       <c r="D157" t="n">
-        <v>11.81</v>
+        <v>12.68</v>
       </c>
       <c r="E157" t="n">
-        <v>11.79</v>
+        <v>12.68</v>
       </c>
       <c r="F157" t="n">
-        <v>151073.3536</v>
+        <v>78698.4203</v>
       </c>
       <c r="G157" t="n">
-        <v>721855.4906988981</v>
+        <v>2496323.377198898</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6054,22 +6540,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.78</v>
+        <v>12.6</v>
       </c>
       <c r="C158" t="n">
-        <v>11.79</v>
+        <v>12.6</v>
       </c>
       <c r="D158" t="n">
-        <v>11.79</v>
+        <v>12.6</v>
       </c>
       <c r="E158" t="n">
-        <v>11.78</v>
+        <v>12.6</v>
       </c>
       <c r="F158" t="n">
-        <v>36692.5935</v>
+        <v>49000</v>
       </c>
       <c r="G158" t="n">
-        <v>721855.4906988981</v>
+        <v>2447323.377198898</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6576,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.8</v>
+        <v>12.53</v>
       </c>
       <c r="C159" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D159" t="n">
-        <v>11.8</v>
+        <v>12.53</v>
       </c>
       <c r="E159" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="F159" t="n">
-        <v>19435.5304</v>
+        <v>77826.6753</v>
       </c>
       <c r="G159" t="n">
-        <v>741291.0210988981</v>
+        <v>2369496.701898898</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6612,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.8</v>
+        <v>12.51</v>
       </c>
       <c r="C160" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D160" t="n">
-        <v>11.8</v>
+        <v>12.51</v>
       </c>
       <c r="E160" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="F160" t="n">
-        <v>892.9973</v>
+        <v>70000</v>
       </c>
       <c r="G160" t="n">
-        <v>741291.0210988981</v>
+        <v>2369496.701898898</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6648,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="C161" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="D161" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E161" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="F161" t="n">
-        <v>198328.993</v>
+        <v>5125.2753</v>
       </c>
       <c r="G161" t="n">
-        <v>741291.0210988981</v>
+        <v>2369496.701898898</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6684,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="C162" t="n">
-        <v>11.72</v>
+        <v>12.45</v>
       </c>
       <c r="D162" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="E162" t="n">
-        <v>11.72</v>
+        <v>12.45</v>
       </c>
       <c r="F162" t="n">
-        <v>302464.1427</v>
+        <v>137838.368</v>
       </c>
       <c r="G162" t="n">
-        <v>438826.8783988981</v>
+        <v>2231658.333898898</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,22 +6720,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="C163" t="n">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="D163" t="n">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="E163" t="n">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="F163" t="n">
-        <v>69639.98269999999</v>
+        <v>793.7091</v>
       </c>
       <c r="G163" t="n">
-        <v>508466.8610988981</v>
+        <v>2232452.042998898</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6756,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.71</v>
+        <v>12.59</v>
       </c>
       <c r="C164" t="n">
-        <v>11.7</v>
+        <v>12.59</v>
       </c>
       <c r="D164" t="n">
-        <v>11.71</v>
+        <v>12.59</v>
       </c>
       <c r="E164" t="n">
-        <v>11.7</v>
+        <v>12.59</v>
       </c>
       <c r="F164" t="n">
-        <v>8690.7428</v>
+        <v>13395.7374</v>
       </c>
       <c r="G164" t="n">
-        <v>499776.1182988981</v>
+        <v>2219056.305598898</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,22 +6792,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="C165" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="D165" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="E165" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="F165" t="n">
-        <v>82213.7781</v>
+        <v>3333</v>
       </c>
       <c r="G165" t="n">
-        <v>499776.1182988981</v>
+        <v>2215723.305598898</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,22 +6828,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="C166" t="n">
-        <v>11.85</v>
+        <v>12.53</v>
       </c>
       <c r="D166" t="n">
-        <v>11.85</v>
+        <v>12.53</v>
       </c>
       <c r="E166" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="F166" t="n">
-        <v>76145.89845654009</v>
+        <v>188.7888</v>
       </c>
       <c r="G166" t="n">
-        <v>575922.0167554382</v>
+        <v>2215723.305598898</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,22 +6864,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>11.7</v>
+        <v>12.52</v>
       </c>
       <c r="C167" t="n">
-        <v>11.7</v>
+        <v>12.52</v>
       </c>
       <c r="D167" t="n">
-        <v>11.7</v>
+        <v>12.52</v>
       </c>
       <c r="E167" t="n">
-        <v>11.7</v>
+        <v>12.52</v>
       </c>
       <c r="F167" t="n">
-        <v>522.802</v>
+        <v>198328.993</v>
       </c>
       <c r="G167" t="n">
-        <v>575399.2147554382</v>
+        <v>2017394.312598898</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6414,22 +6900,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>11.87</v>
+        <v>12.48</v>
       </c>
       <c r="C168" t="n">
-        <v>11.87</v>
+        <v>12.48</v>
       </c>
       <c r="D168" t="n">
-        <v>11.87</v>
+        <v>12.48</v>
       </c>
       <c r="E168" t="n">
-        <v>11.87</v>
+        <v>12.48</v>
       </c>
       <c r="F168" t="n">
-        <v>842.4599831508003</v>
+        <v>118589.7427</v>
       </c>
       <c r="G168" t="n">
-        <v>576241.674738589</v>
+        <v>1898804.569898898</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6450,22 +6936,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>11.7</v>
+        <v>12.47</v>
       </c>
       <c r="C169" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="D169" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="E169" t="n">
-        <v>11.7</v>
+        <v>12.47</v>
       </c>
       <c r="F169" t="n">
-        <v>11758.6535</v>
+        <v>546035.9447</v>
       </c>
       <c r="G169" t="n">
-        <v>564483.021238589</v>
+        <v>2444840.514598898</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6486,22 +6972,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="C170" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="D170" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="E170" t="n">
-        <v>11.7</v>
+        <v>12.53</v>
       </c>
       <c r="F170" t="n">
-        <v>937833.8819</v>
+        <v>5737.1169</v>
       </c>
       <c r="G170" t="n">
-        <v>1502316.903138589</v>
+        <v>2450577.631498898</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6522,22 +7008,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.69</v>
+        <v>12.53</v>
       </c>
       <c r="C171" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="D171" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="E171" t="n">
-        <v>11.69</v>
+        <v>12.53</v>
       </c>
       <c r="F171" t="n">
-        <v>17469.1453</v>
+        <v>100</v>
       </c>
       <c r="G171" t="n">
-        <v>1502316.903138589</v>
+        <v>2450577.631498898</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6558,22 +7044,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="C172" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="D172" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="E172" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="F172" t="n">
-        <v>3060.874</v>
+        <v>50771.3765</v>
       </c>
       <c r="G172" t="n">
-        <v>1502316.903138589</v>
+        <v>2450577.631498898</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6594,22 +7080,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>11.73</v>
+        <v>12.5</v>
       </c>
       <c r="C173" t="n">
-        <v>11.72</v>
+        <v>12.5</v>
       </c>
       <c r="D173" t="n">
-        <v>11.73</v>
+        <v>12.5</v>
       </c>
       <c r="E173" t="n">
-        <v>11.72</v>
+        <v>12.5</v>
       </c>
       <c r="F173" t="n">
-        <v>779.3414</v>
+        <v>885.7344000000001</v>
       </c>
       <c r="G173" t="n">
-        <v>1503096.244538589</v>
+        <v>2449691.897098898</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6630,22 +7116,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>11.71</v>
+        <v>12.52</v>
       </c>
       <c r="C174" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="D174" t="n">
-        <v>11.71</v>
+        <v>12.53</v>
       </c>
       <c r="E174" t="n">
-        <v>11.71</v>
+        <v>12.52</v>
       </c>
       <c r="F174" t="n">
-        <v>13310.5086</v>
+        <v>22674.6709</v>
       </c>
       <c r="G174" t="n">
-        <v>1489785.735938589</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6666,22 +7152,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.69</v>
+        <v>12.53</v>
       </c>
       <c r="C175" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="D175" t="n">
-        <v>11.69</v>
+        <v>12.53</v>
       </c>
       <c r="E175" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="F175" t="n">
-        <v>37217.475</v>
+        <v>198.6048</v>
       </c>
       <c r="G175" t="n">
-        <v>1452568.260938589</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6702,35 +7188,31 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="C176" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="D176" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="E176" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="F176" t="n">
-        <v>24000</v>
+        <v>46958.4539</v>
       </c>
       <c r="G176" t="n">
-        <v>1452568.260938589</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K176" t="n">
-        <v>11.68</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
@@ -6742,40 +7224,32 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="C177" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="D177" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="E177" t="n">
-        <v>11.68</v>
+        <v>12.53</v>
       </c>
       <c r="F177" t="n">
-        <v>19014.6945</v>
+        <v>0.0001</v>
       </c>
       <c r="G177" t="n">
-        <v>1452568.260938589</v>
+        <v>2472366.567998898</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K177" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6786,40 +7260,32 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>11.67</v>
+        <v>12.52</v>
       </c>
       <c r="C178" t="n">
-        <v>11.66</v>
+        <v>12.51</v>
       </c>
       <c r="D178" t="n">
-        <v>11.67</v>
+        <v>12.52</v>
       </c>
       <c r="E178" t="n">
-        <v>11.66</v>
+        <v>12.51</v>
       </c>
       <c r="F178" t="n">
-        <v>24910.9632</v>
+        <v>94543.5436</v>
       </c>
       <c r="G178" t="n">
-        <v>1427657.297738589</v>
+        <v>2377823.024398898</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K178" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6830,40 +7296,32 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="C179" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="D179" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="E179" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="F179" t="n">
-        <v>255.6855</v>
+        <v>1561.1059</v>
       </c>
       <c r="G179" t="n">
-        <v>1427401.612238589</v>
+        <v>2377823.024398898</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K179" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6874,40 +7332,32 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="C180" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="D180" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="E180" t="n">
-        <v>11.65</v>
+        <v>12.51</v>
       </c>
       <c r="F180" t="n">
-        <v>4663.5612</v>
+        <v>271461.6904</v>
       </c>
       <c r="G180" t="n">
-        <v>1427401.612238589</v>
+        <v>2377823.024398898</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K180" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6918,40 +7368,32 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11.65</v>
+        <v>12.59</v>
       </c>
       <c r="C181" t="n">
-        <v>11.65</v>
+        <v>12.59</v>
       </c>
       <c r="D181" t="n">
-        <v>11.65</v>
+        <v>12.59</v>
       </c>
       <c r="E181" t="n">
-        <v>11.65</v>
+        <v>12.59</v>
       </c>
       <c r="F181" t="n">
-        <v>3397</v>
+        <v>237.6901</v>
       </c>
       <c r="G181" t="n">
-        <v>1427401.612238589</v>
+        <v>2378060.714498898</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K181" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6962,44 +7404,2758 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2478060.714498898</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F183" t="n">
+        <v>18231.0547</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2459829.659798897</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F184" t="n">
+        <v>91595.9822</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2459829.659798897</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2379829.659798897</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4666.8586</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2379829.659798897</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F187" t="n">
+        <v>84869.787</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2294959.872798897</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F188" t="n">
+        <v>330252.2085</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2294959.872798897</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1791.9106</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2296751.783398897</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="F190" t="n">
+        <v>13144.2526</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2296751.783398897</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2320751.783398897</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11085.1914</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2320751.783398897</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C193" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E193" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F193" t="n">
+        <v>74389.478</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2246362.305398897</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F194" t="n">
+        <v>339.7803</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2246362.305398897</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3112.1442</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2249474.449598897</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100219.7434</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2349694.192998897</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F197" t="n">
+        <v>71618.4281</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2421312.621098897</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>41363.9493</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2379948.671798897</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>16799.7862</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2379948.671798897</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3502.7278</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2379948.671798897</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>146235</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2379948.671798897</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>24666.6533</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2379948.671798897</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F203" t="n">
+        <v>906</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2379042.671798897</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C204" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E204" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F204" t="n">
+        <v>100.7401</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2379042.671798897</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6184.9024</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2379042.671798897</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2479042.671798897</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="C207" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D207" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E207" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F207" t="n">
+        <v>75302.0166</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2554344.688398898</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C208" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D208" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E208" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3897</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2550447.688398898</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C209" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D209" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E209" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="F209" t="n">
+        <v>159314</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2391133.688398898</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C210" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D210" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E210" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F210" t="n">
+        <v>90835.497</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2300298.191398898</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D211" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>70154.11629999999</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2300298.191398898</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C212" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E212" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>97770.7309</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2202527.460498898</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D213" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>14747.6652</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2202527.460498898</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>88608.57490000001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2113918.885598898</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C215" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F215" t="n">
+        <v>482125.336953719</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2113918.885598898</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>74877.65640000001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2113918.885598898</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C217" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D217" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="E217" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F217" t="n">
+        <v>405336.6056</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1708582.279998898</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C218" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E218" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F218" t="n">
+        <v>141275.7071</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1849857.987098898</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>185161.7893</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1664696.197798898</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F220" t="n">
+        <v>138263.0901</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1526433.107698898</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E221" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F221" t="n">
+        <v>69872.8138</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1526433.107698898</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C222" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E222" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F222" t="n">
+        <v>58904.8469</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1526433.107698898</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C223" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D223" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E223" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F223" t="n">
+        <v>51780.0456</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1578213.153298898</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C224" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D224" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E224" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F224" t="n">
+        <v>99</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1578213.153298898</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C225" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D225" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E225" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F225" t="n">
+        <v>100</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1578213.153298898</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>12</v>
+      </c>
+      <c r="C226" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D226" t="n">
+        <v>12</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F226" t="n">
+        <v>793440.9305</v>
+      </c>
+      <c r="G226" t="n">
+        <v>784772.2227988981</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C227" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D227" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F227" t="n">
+        <v>88156.62149999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>872928.8442988981</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F228" t="n">
+        <v>151073.3536</v>
+      </c>
+      <c r="G228" t="n">
+        <v>721855.4906988981</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C229" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D229" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F229" t="n">
+        <v>36692.5935</v>
+      </c>
+      <c r="G229" t="n">
+        <v>721855.4906988981</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D230" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>19435.5304</v>
+      </c>
+      <c r="G230" t="n">
+        <v>741291.0210988981</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C231" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E231" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F231" t="n">
+        <v>892.9973</v>
+      </c>
+      <c r="G231" t="n">
+        <v>741291.0210988981</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F232" t="n">
+        <v>198328.993</v>
+      </c>
+      <c r="G232" t="n">
+        <v>741291.0210988981</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K232" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C233" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F233" t="n">
+        <v>302464.1427</v>
+      </c>
+      <c r="G233" t="n">
+        <v>438826.8783988981</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K233" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C234" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D234" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E234" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>69639.98269999999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>508466.8610988981</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="K234" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C235" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D235" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E235" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F235" t="n">
+        <v>8690.7428</v>
+      </c>
+      <c r="G235" t="n">
+        <v>499776.1182988981</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K235" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C236" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D236" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E236" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F236" t="n">
+        <v>82213.7781</v>
+      </c>
+      <c r="G236" t="n">
+        <v>499776.1182988981</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K236" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C237" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D237" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E237" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F237" t="n">
+        <v>76145.89845654009</v>
+      </c>
+      <c r="G237" t="n">
+        <v>575922.0167554382</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K237" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>522.802</v>
+      </c>
+      <c r="G238" t="n">
+        <v>575399.2147554382</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K238" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D239" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E239" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F239" t="n">
+        <v>842.4599831508003</v>
+      </c>
+      <c r="G239" t="n">
+        <v>576241.674738589</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K239" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>11758.6535</v>
+      </c>
+      <c r="G240" t="n">
+        <v>564483.021238589</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K240" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C241" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D241" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E241" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F241" t="n">
+        <v>937833.8819</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1502316.903138589</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K241" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E242" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F242" t="n">
+        <v>17469.1453</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1502316.903138589</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K242" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C243" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D243" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E243" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3060.874</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1502316.903138589</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C244" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="D244" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E244" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="F244" t="n">
+        <v>779.3414</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1503096.244538589</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D245" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E245" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F245" t="n">
+        <v>13310.5086</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1489785.735938589</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C246" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D246" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E246" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F246" t="n">
+        <v>37217.475</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1452568.260938589</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K246" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C247" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D247" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E247" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F247" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1452568.260938589</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K247" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C248" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D248" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E248" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F248" t="n">
+        <v>19014.6945</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1452568.260938589</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K248" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C249" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D249" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E249" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F249" t="n">
+        <v>24910.9632</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1427657.297738589</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K249" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
         <v>11.65</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C250" t="n">
         <v>11.65</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D250" t="n">
         <v>11.65</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E250" t="n">
         <v>11.65</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F250" t="n">
+        <v>255.6855</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1427401.612238589</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K250" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C251" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D251" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E251" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F251" t="n">
+        <v>4663.5612</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1427401.612238589</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K251" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C252" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D252" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E252" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3397</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1427401.612238589</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K252" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C253" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D253" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E253" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F253" t="n">
         <v>65.474</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G253" t="n">
         <v>1427401.612238589</v>
       </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
         <v>11.65</v>
       </c>
-      <c r="K182" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="K253" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>-157950.5178990801</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>291201.78510092</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +664,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -913,14 +931,10 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="J16" t="n">
-        <v>12.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -953,14 +967,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -992,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1061,10 +1063,14 @@
         <v>-319681.5088143205</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.27</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1097,8 +1103,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1130,8 +1142,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1160,10 +1178,14 @@
         <v>-345036.3835143205</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.16</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1196,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1254,19 @@
         <v>-474835.7930143204</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,11 +1295,19 @@
         <v>-474835.7930143204</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1336,19 @@
         <v>-474835.7930143204</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1377,19 @@
         <v>-318216.3023143205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1358,11 +1418,19 @@
         <v>2683383.697685679</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1462,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1540,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1757,8 +1891,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +1969,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2047,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1955,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1988,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2021,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2054,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2671,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2749,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +3061,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +3139,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2945,8 +3295,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,13 +3331,19 @@
         <v>3346665.62308568</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>1.031184210526316</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3140,7 +3502,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3536,7 +3898,7 @@
         <v>3712241.53398568</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3602,7 +3964,7 @@
         <v>3417307.088876232</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3635,7 +3997,7 @@
         <v>3417542.827276232</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3668,7 +4030,7 @@
         <v>3416660.000976232</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3701,7 +4063,7 @@
         <v>3509721.105876232</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3734,7 +4096,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3767,7 +4129,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3800,7 +4162,7 @@
         <v>3499636.055636074</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3833,7 +4195,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3866,7 +4228,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +4261,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3932,7 +4294,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3965,7 +4327,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3998,7 +4360,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4031,7 +4393,7 @@
         <v>3428451.256436074</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4064,7 +4426,7 @@
         <v>3473104.948236074</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4097,7 +4459,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4130,7 +4492,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4163,7 +4525,7 @@
         <v>3545642.408236074</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4196,7 +4558,7 @@
         <v>3572679.622836074</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4229,7 +4591,7 @@
         <v>2915095.24866584</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4262,7 +4624,7 @@
         <v>3023574.34936584</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4295,7 +4657,7 @@
         <v>2884010.34116584</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4328,7 +4690,7 @@
         <v>2885366.647595605</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4361,7 +4723,7 @@
         <v>2886065.068795606</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4394,7 +4756,7 @@
         <v>2993468.473995605</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4427,7 +4789,7 @@
         <v>2532273.327395605</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4822,7 @@
         <v>2542945.662595605</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4855,7 @@
         <v>2578994.503395605</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +4888,7 @@
         <v>2586492.854395605</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4559,7 +4921,7 @@
         <v>2555721.329595605</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4592,7 +4954,7 @@
         <v>2548266.978595606</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +4987,7 @@
         <v>2648300.088395606</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4658,7 +5020,7 @@
         <v>2611354.540695606</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4691,7 +5053,7 @@
         <v>2749426.472998898</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4724,7 +5086,7 @@
         <v>2742679.339398899</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4757,7 +5119,7 @@
         <v>2749026.660998899</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4790,7 +5152,7 @@
         <v>2656392.486598899</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4823,7 +5185,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4856,7 +5218,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4889,7 +5251,7 @@
         <v>2708316.517798899</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4922,7 +5284,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4955,7 +5317,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4988,7 +5350,7 @@
         <v>2670598.687998899</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5021,7 +5383,7 @@
         <v>2581712.113098899</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5054,7 +5416,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5087,7 +5449,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5120,7 +5482,7 @@
         <v>2563235.596698899</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5153,7 +5515,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5186,7 +5548,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5219,7 +5581,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5252,7 +5614,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5285,7 +5647,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5318,7 +5680,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5351,7 +5713,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5384,7 +5746,7 @@
         <v>2430696.643998899</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5417,7 +5779,7 @@
         <v>2331720.538198899</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5450,7 +5812,7 @@
         <v>2308292.740598898</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5483,7 +5845,7 @@
         <v>2302670.754498899</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5516,7 +5878,7 @@
         <v>2309242.956898898</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5549,7 +5911,7 @@
         <v>2417624.956898898</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5582,7 +5944,7 @@
         <v>2496323.377198898</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5615,7 +5977,7 @@
         <v>2447323.377198898</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5648,7 +6010,7 @@
         <v>2369496.701898898</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5681,7 +6043,7 @@
         <v>2369496.701898898</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5714,7 +6076,7 @@
         <v>2369496.701898898</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5747,7 +6109,7 @@
         <v>2231658.333898898</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +6142,7 @@
         <v>2232452.042998898</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5813,7 +6175,7 @@
         <v>2219056.305598898</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5846,7 +6208,7 @@
         <v>2215723.305598898</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5879,7 +6241,7 @@
         <v>2215723.305598898</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5912,7 +6274,7 @@
         <v>2017394.312598898</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +6307,7 @@
         <v>1898804.569898898</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +6340,7 @@
         <v>2444840.514598898</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +6373,7 @@
         <v>2450577.631498898</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6406,7 @@
         <v>2450577.631498898</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6077,7 +6439,7 @@
         <v>2450577.631498898</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6110,7 +6472,7 @@
         <v>2449691.897098898</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6143,7 +6505,7 @@
         <v>2472366.567998898</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6176,7 +6538,7 @@
         <v>2472366.567998898</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6275,7 +6637,7 @@
         <v>2377823.024398898</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6308,7 +6670,7 @@
         <v>2377823.024398898</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6341,7 +6703,7 @@
         <v>2377823.024398898</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6374,7 +6736,7 @@
         <v>2378060.714498898</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6407,7 +6769,7 @@
         <v>2478060.714498898</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6440,7 +6802,7 @@
         <v>2459829.659798897</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6473,7 +6835,7 @@
         <v>2459829.659798897</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6572,7 +6934,7 @@
         <v>2294959.872798897</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6605,7 +6967,7 @@
         <v>2294959.872798897</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6638,7 +7000,7 @@
         <v>2296751.783398897</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6671,7 +7033,7 @@
         <v>2296751.783398897</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6902,7 +7264,7 @@
         <v>2421312.621098897</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6935,7 +7297,7 @@
         <v>2379948.671798897</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7034,7 +7396,7 @@
         <v>2379948.671798897</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7199,7 +7561,7 @@
         <v>2479042.671798897</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7265,7 +7627,7 @@
         <v>2550447.688398898</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7496,7 +7858,7 @@
         <v>2113918.885598898</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7859,7 +8221,7 @@
         <v>784772.2227988981</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8651,10 +9013,14 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="J250" t="n">
+        <v>11.66</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8684,15 +9050,19 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>11.65</v>
       </c>
       <c r="J251" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+        <v>11.66</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8721,13 +9091,13 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>11.65</v>
       </c>
       <c r="J252" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8762,7 +9132,7 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>11.65</v>
@@ -8770,17 +9140,13 @@
       <c r="J253" t="n">
         <v>11.65</v>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
       <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-157950.5178990801</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>291201.78510092</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,17 +649,11 @@
         <v>291201.78510092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,7 +682,7 @@
         <v>291201.78510092</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -733,7 +715,7 @@
         <v>295008.5702009199</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -766,7 +748,7 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -799,7 +781,7 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -832,7 +814,7 @@
         <v>182252.0492009199</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -865,7 +847,7 @@
         <v>182352.0492009199</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -898,7 +880,7 @@
         <v>-384093.7327990801</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -931,7 +913,7 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -964,7 +946,7 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -997,7 +979,7 @@
         <v>-360192.3335143205</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1030,7 +1012,7 @@
         <v>-241289.6998143205</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1100,7 +1082,7 @@
         <v>-319681.5088143205</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
@@ -1139,7 +1121,7 @@
         <v>-346036.3835143205</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
@@ -1215,9 +1197,11 @@
         <v>-389011.6660143204</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.25</v>
+      </c>
       <c r="J24" t="n">
         <v>12.16</v>
       </c>
@@ -1254,11 +1238,9 @@
         <v>-474835.7930143204</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>12.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>12.16</v>
       </c>
@@ -1459,7 +1441,7 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
@@ -1498,7 +1480,7 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
@@ -1537,7 +1519,7 @@
         <v>2678689.60388568</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
@@ -1576,7 +1558,7 @@
         <v>2678589.60388568</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
@@ -1615,7 +1597,7 @@
         <v>2926499.26438568</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
@@ -1654,7 +1636,7 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1693,7 +1675,7 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -1701,11 +1683,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0.9982894736842104</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1732,17 +1714,11 @@
         <v>2859871.27208568</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1747,11 @@
         <v>2614015.68208568</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1780,11 @@
         <v>2614015.68208568</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1813,11 @@
         <v>2615231.78008568</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1846,11 @@
         <v>2638028.97638568</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1930,14 +1882,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1912,11 @@
         <v>2836654.19778568</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1945,11 @@
         <v>2836654.19778568</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2047,14 +1981,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2086,14 +2014,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +2047,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +2080,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2203,14 +2113,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +2146,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2179,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2212,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2356,17 +2242,11 @@
         <v>3357892.36108568</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2395,17 +2275,11 @@
         <v>3589377.27898568</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2437,14 +2311,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2476,14 +2344,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2515,14 +2377,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2554,14 +2410,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2593,14 +2443,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2476,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2506,11 @@
         <v>3197568.05858568</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2707,17 +2539,11 @@
         <v>3339696.606685679</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2746,17 +2572,11 @@
         <v>3448348.97748568</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2785,17 +2605,11 @@
         <v>3331409.07558568</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2824,17 +2638,11 @@
         <v>3331409.07558568</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2674,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2905,14 +2707,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2944,14 +2740,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2770,11 @@
         <v>3419626.03078568</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +2803,11 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3058,17 +2836,11 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +2869,11 @@
         <v>3381773.84398568</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +2902,11 @@
         <v>3394685.28998568</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +2935,11 @@
         <v>3385749.28998568</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +2971,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +3004,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3037,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3331,19 +3067,13 @@
         <v>3346665.62308568</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.031184210526316</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3502,7 +3232,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3898,7 +3628,7 @@
         <v>3712241.53398568</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3964,7 +3694,7 @@
         <v>3417307.088876232</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3997,7 +3727,7 @@
         <v>3417542.827276232</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4030,7 +3760,7 @@
         <v>3416660.000976232</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4063,7 +3793,7 @@
         <v>3509721.105876232</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4096,7 +3826,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4129,7 +3859,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4162,7 +3892,7 @@
         <v>3499636.055636074</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4195,7 +3925,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4228,7 +3958,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4261,7 +3991,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4294,7 +4024,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4327,7 +4057,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4360,7 +4090,7 @@
         <v>3473451.256436074</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4393,7 +4123,7 @@
         <v>3428451.256436074</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4426,7 +4156,7 @@
         <v>3473104.948236074</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4459,7 +4189,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4492,7 +4222,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4525,7 +4255,7 @@
         <v>3545642.408236074</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4558,7 +4288,7 @@
         <v>3572679.622836074</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4591,7 +4321,7 @@
         <v>2915095.24866584</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4624,7 +4354,7 @@
         <v>3023574.34936584</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4657,7 +4387,7 @@
         <v>2884010.34116584</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4690,7 +4420,7 @@
         <v>2885366.647595605</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4723,7 +4453,7 @@
         <v>2886065.068795606</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4756,7 +4486,7 @@
         <v>2993468.473995605</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4789,7 +4519,7 @@
         <v>2532273.327395605</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4855,7 +4585,7 @@
         <v>2578994.503395605</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4888,7 +4618,7 @@
         <v>2586492.854395605</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5053,7 +4783,7 @@
         <v>2749426.472998898</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5086,7 +4816,7 @@
         <v>2742679.339398899</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5119,7 +4849,7 @@
         <v>2749026.660998899</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5152,7 +4882,7 @@
         <v>2656392.486598899</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5185,7 +4915,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5218,7 +4948,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5251,7 +4981,7 @@
         <v>2708316.517798899</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5284,7 +5014,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5317,7 +5047,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5350,7 +5080,7 @@
         <v>2670598.687998899</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5383,7 +5113,7 @@
         <v>2581712.113098899</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5416,7 +5146,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5449,7 +5179,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5482,7 +5212,7 @@
         <v>2563235.596698899</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5515,7 +5245,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5548,7 +5278,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5581,7 +5311,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5614,7 +5344,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5647,7 +5377,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5680,7 +5410,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5713,7 +5443,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5746,7 +5476,7 @@
         <v>2430696.643998899</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5779,7 +5509,7 @@
         <v>2331720.538198899</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5812,7 +5542,7 @@
         <v>2308292.740598898</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5845,7 +5575,7 @@
         <v>2302670.754498899</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5878,7 +5608,7 @@
         <v>2309242.956898898</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5911,7 +5641,7 @@
         <v>2417624.956898898</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5944,7 +5674,7 @@
         <v>2496323.377198898</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5977,7 +5707,7 @@
         <v>2447323.377198898</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6010,7 +5740,7 @@
         <v>2369496.701898898</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6043,7 +5773,7 @@
         <v>2369496.701898898</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6076,7 +5806,7 @@
         <v>2369496.701898898</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6109,7 +5839,7 @@
         <v>2231658.333898898</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6142,7 +5872,7 @@
         <v>2232452.042998898</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6175,7 +5905,7 @@
         <v>2219056.305598898</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6208,7 +5938,7 @@
         <v>2215723.305598898</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6274,7 +6004,7 @@
         <v>2017394.312598898</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6307,7 +6037,7 @@
         <v>1898804.569898898</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6340,7 +6070,7 @@
         <v>2444840.514598898</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6373,7 +6103,7 @@
         <v>2450577.631498898</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -8551,11 +8281,17 @@
         <v>499776.1182988981</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8584,11 +8320,17 @@
         <v>575922.0167554382</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8621,7 +8363,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8654,7 +8400,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8687,7 +8437,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8716,11 +8470,17 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8749,11 +8509,17 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>11.71</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8786,7 +8552,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8815,11 +8585,17 @@
         <v>1503096.244538589</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>11.71</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8848,11 +8624,17 @@
         <v>1489785.735938589</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>11.72</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +8663,17 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>11.71</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8914,11 +8702,17 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11.68</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8947,11 +8741,17 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>11.68</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8980,11 +8780,17 @@
         <v>1427657.297738589</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>11.68</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9018,10 +8824,12 @@
       <c r="I250" t="n">
         <v>11.66</v>
       </c>
-      <c r="J250" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9055,12 +8863,10 @@
       <c r="I251" t="n">
         <v>11.65</v>
       </c>
-      <c r="J251" t="n">
-        <v>11.66</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -9096,12 +8902,10 @@
       <c r="I252" t="n">
         <v>11.65</v>
       </c>
-      <c r="J252" t="n">
-        <v>11.66</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -9137,16 +8941,18 @@
       <c r="I253" t="n">
         <v>11.65</v>
       </c>
-      <c r="J253" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
       <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest SNT.xlsx
+++ b/BackTest/2020-01-20 BackTest SNT.xlsx
@@ -451,7 +451,7 @@
         <v>-226587.0226990801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.17</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-158150.5178990801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-157950.5178990801</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>291201.78510092</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>291201.78510092</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>291201.78510092</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.27</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>295008.5702009199</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>231233.5702009199</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.27</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>182252.0492009199</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>182352.0492009199</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +960,19 @@
         <v>-384093.7327990801</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1001,19 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1042,19 @@
         <v>-290192.3335143205</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1083,19 @@
         <v>-360192.3335143205</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1124,19 @@
         <v>-241289.6998143205</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1173,11 @@
       <c r="J20" t="n">
         <v>12.27</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,15 +1206,17 @@
         <v>-319681.5088143205</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.25</v>
+      </c>
       <c r="J21" t="n">
         <v>12.27</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1121,15 +1247,17 @@
         <v>-346036.3835143205</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.25</v>
+      </c>
       <c r="J22" t="n">
         <v>12.27</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1166,9 +1294,13 @@
         <v>12.16</v>
       </c>
       <c r="J23" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>12.27</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1335,11 @@
         <v>12.25</v>
       </c>
       <c r="J24" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1238,15 +1370,17 @@
         <v>-474835.7930143204</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.16</v>
+      </c>
       <c r="J25" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1283,7 +1417,7 @@
         <v>12.1</v>
       </c>
       <c r="J26" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1324,7 +1458,7 @@
         <v>12.1</v>
       </c>
       <c r="J27" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1365,7 +1499,7 @@
         <v>12.1</v>
       </c>
       <c r="J28" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1406,7 +1540,7 @@
         <v>12.2</v>
       </c>
       <c r="J29" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1441,11 +1575,11 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1480,11 +1614,11 @@
         <v>2678189.60388568</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1519,11 +1653,11 @@
         <v>2678689.60388568</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1558,11 +1692,11 @@
         <v>2678589.60388568</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1597,11 +1731,11 @@
         <v>2926499.26438568</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1636,11 +1770,11 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1675,1537 +1809,1813 @@
         <v>2859829.73778568</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>12.16</v>
+        <v>12.27</v>
       </c>
       <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>41.5343</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2859871.27208568</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>245855.59</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2614015.68208568</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6710</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2614015.68208568</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1216.098</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2615231.78008568</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F41" t="n">
+        <v>22797.1963</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2638028.97638568</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F42" t="n">
+        <v>190927.6693</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2828956.64568568</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7697.5521</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2836654.19778568</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8522.8199</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2836654.19778568</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C45" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3082.7574</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2836654.19778568</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2836694.19778568</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21362.9138</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2815331.28398568</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3091.209</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2812240.07498568</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56212.3282</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2868452.40318568</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D50" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F50" t="n">
+        <v>208596.9462</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3077049.34938568</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F51" t="n">
+        <v>293141.1764</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3370190.52578568</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4232</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3365958.52578568</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8066.1647</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3357892.36108568</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F54" t="n">
+        <v>231484.9179</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3589377.27898568</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D55" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F55" t="n">
+        <v>538780.1843</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4128157.46328568</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D56" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F56" t="n">
+        <v>203991.1874</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3924166.27588568</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>670236.0307</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3253930.24518568</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13870.2339</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3253930.24518568</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25801.50793650794</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3253930.24518568</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>42.7653</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3253930.24518568</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="F61" t="n">
+        <v>56362.1866</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3197568.05858568</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="F62" t="n">
+        <v>142128.5481</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3339696.606685679</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>108652.3708</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3448348.97748568</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F64" t="n">
+        <v>116939.9019</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3331409.07558568</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F65" t="n">
+        <v>22284.6726</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3331409.07558568</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F66" t="n">
+        <v>88216.9552</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3419626.03078568</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="F67" t="n">
+        <v>238.0709</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3419626.03078568</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20445.5502</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3419626.03078568</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="F69" t="n">
+        <v>19637.9625</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3419626.03078568</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F70" t="n">
+        <v>37852.1868</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3381773.84398568</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25801.508</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3381773.84398568</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9132.4282</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3381773.84398568</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12911.446</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3394685.28998568</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8936</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3385749.28998568</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D75" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="F75" t="n">
+        <v>22906.06324479495</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3385749.28998568</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11644.7395</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3374104.55048568</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C77" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F77" t="n">
+        <v>27538.9274</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3346565.62308568</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3346665.62308568</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>23164.8846</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3346665.62308568</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F80" t="n">
+        <v>482783.7708</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3829449.39388568</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C81" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="F81" t="n">
+        <v>400.8031</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3829449.39388568</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="C82" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="D82" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F82" t="n">
+        <v>111201.3031</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3718248.09078568</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>0.9982894736842104</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>41.5343</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2859871.27208568</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>245855.59</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2614015.68208568</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6710</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2614015.68208568</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="D40" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1216.098</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2615231.78008568</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C41" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F41" t="n">
-        <v>22797.1963</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2638028.97638568</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="F42" t="n">
-        <v>190927.6693</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2828956.64568568</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7697.5521</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2836654.19778568</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F44" t="n">
-        <v>8522.8199</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2836654.19778568</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C45" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E45" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3082.7574</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2836654.19778568</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>40</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2836694.19778568</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C47" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F47" t="n">
-        <v>21362.9138</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2815331.28398568</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="C48" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="E48" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3091.209</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2812240.07498568</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="F49" t="n">
-        <v>56212.3282</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2868452.40318568</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C50" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D50" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="E50" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F50" t="n">
-        <v>208596.9462</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3077049.34938568</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C51" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D51" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E51" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="F51" t="n">
-        <v>293141.1764</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3370190.52578568</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C52" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D52" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4232</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3365958.52578568</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8066.1647</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3357892.36108568</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C54" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D54" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F54" t="n">
-        <v>231484.9179</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3589377.27898568</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C55" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D55" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E55" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F55" t="n">
-        <v>538780.1843</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4128157.46328568</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="C56" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D56" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E56" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="F56" t="n">
-        <v>203991.1874</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3924166.27588568</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C57" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E57" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>670236.0307</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3253930.24518568</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>13870.2339</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3253930.24518568</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25801.50793650794</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3253930.24518568</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>42.7653</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3253930.24518568</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="D61" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="F61" t="n">
-        <v>56362.1866</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3197568.05858568</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D62" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="F62" t="n">
-        <v>142128.5481</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3339696.606685679</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D63" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F63" t="n">
-        <v>108652.3708</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3448348.97748568</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="D64" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F64" t="n">
-        <v>116939.9019</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3331409.07558568</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="C65" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="D65" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F65" t="n">
-        <v>22284.6726</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3331409.07558568</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="C66" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D66" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F66" t="n">
-        <v>88216.9552</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3419626.03078568</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D67" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="F67" t="n">
-        <v>238.0709</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3419626.03078568</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="F68" t="n">
-        <v>20445.5502</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3419626.03078568</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="C69" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="F69" t="n">
-        <v>19637.9625</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3419626.03078568</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F70" t="n">
-        <v>37852.1868</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3381773.84398568</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25801.508</v>
-      </c>
-      <c r="G71" t="n">
-        <v>3381773.84398568</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="E72" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9132.4282</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3381773.84398568</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12911.446</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3394685.28998568</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C74" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8936</v>
-      </c>
-      <c r="G74" t="n">
-        <v>3385749.28998568</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C75" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="D75" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E75" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22906.06324479495</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3385749.28998568</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E76" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11644.7395</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3374104.55048568</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C77" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="D77" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="F77" t="n">
-        <v>27538.9274</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3346565.62308568</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C78" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D78" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E78" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>100</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3346665.62308568</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C79" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D79" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E79" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F79" t="n">
-        <v>23164.8846</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3346665.62308568</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C80" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="D80" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E80" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F80" t="n">
-        <v>482783.7708</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3829449.39388568</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C81" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="D81" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E81" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="F81" t="n">
-        <v>400.8031</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3829449.39388568</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C82" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D82" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E82" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F82" t="n">
-        <v>111201.3031</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3718248.09078568</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>1.014559902200489</v>
       </c>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -3232,7 +3642,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3265,7 +3675,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3298,7 +3708,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3331,7 +3741,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3364,7 +3774,7 @@
         <v>3720654.47448568</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3463,7 +3873,7 @@
         <v>3725126.77918568</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3562,7 +3972,7 @@
         <v>3712201.53398568</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3595,7 +4005,7 @@
         <v>3712201.53398568</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3628,7 +4038,7 @@
         <v>3712241.53398568</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3661,7 +4071,7 @@
         <v>3444924.51238568</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3859,7 +4269,7 @@
         <v>3499286.134376232</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3925,7 +4335,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3958,7 +4368,7 @@
         <v>3495789.217436074</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4222,7 +4632,7 @@
         <v>3525691.871436074</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4255,7 +4665,7 @@
         <v>3545642.408236074</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4288,7 +4698,7 @@
         <v>3572679.622836074</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4321,7 +4731,7 @@
         <v>2915095.24866584</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4354,7 +4764,7 @@
         <v>3023574.34936584</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4387,7 +4797,7 @@
         <v>2884010.34116584</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4420,7 +4830,7 @@
         <v>2885366.647595605</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4453,7 +4863,7 @@
         <v>2886065.068795606</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4486,7 +4896,7 @@
         <v>2993468.473995605</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4519,7 +4929,7 @@
         <v>2532273.327395605</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4552,7 +4962,7 @@
         <v>2542945.662595605</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4585,7 +4995,7 @@
         <v>2578994.503395605</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4618,7 +5028,7 @@
         <v>2586492.854395605</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4651,7 +5061,7 @@
         <v>2555721.329595605</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4684,7 +5094,7 @@
         <v>2548266.978595606</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4717,7 +5127,7 @@
         <v>2648300.088395606</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4750,7 +5160,7 @@
         <v>2611354.540695606</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4783,7 +5193,7 @@
         <v>2749426.472998898</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4816,7 +5226,7 @@
         <v>2742679.339398899</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4849,7 +5259,7 @@
         <v>2749026.660998899</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4882,7 +5292,7 @@
         <v>2656392.486598899</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4915,7 +5325,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4948,7 +5358,7 @@
         <v>2643894.211398899</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4981,7 +5391,7 @@
         <v>2708316.517798899</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5014,7 +5424,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5047,7 +5457,7 @@
         <v>2669875.970798899</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5080,7 +5490,7 @@
         <v>2670598.687998899</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5113,7 +5523,7 @@
         <v>2581712.113098899</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5146,7 +5556,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5179,7 +5589,7 @@
         <v>2584170.568798899</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5212,7 +5622,7 @@
         <v>2563235.596698899</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5245,7 +5655,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5278,7 +5688,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5443,7 +5853,7 @@
         <v>2378934.737398899</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5476,7 +5886,7 @@
         <v>2430696.643998899</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5509,7 +5919,7 @@
         <v>2331720.538198899</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5542,7 +5952,7 @@
         <v>2308292.740598898</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -8281,17 +8691,11 @@
         <v>499776.1182988981</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8320,17 +8724,11 @@
         <v>575922.0167554382</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +8761,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +8794,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8827,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8470,17 +8856,11 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8509,17 +8889,11 @@
         <v>1502316.903138589</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>11.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8926,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8585,17 +8955,11 @@
         <v>1503096.244538589</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>11.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8624,17 +8988,11 @@
         <v>1489785.735938589</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>11.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8663,17 +9021,11 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>11.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8702,17 +9054,11 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>11.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8741,17 +9087,11 @@
         <v>1452568.260938589</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>11.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8780,17 +9120,11 @@
         <v>1427657.297738589</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>11.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8819,17 +9153,11 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>11.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8858,17 +9186,11 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>11.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8897,17 +9219,11 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>11.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8936,17 +9252,11 @@
         <v>1427401.612238589</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>11.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
